--- a/election_votar_data/LOHAGARA/BARAHATIA/152544/152544_com_1820_male_without_photo_102_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/BARAHATIA/152544/152544_com_1820_male_without_photo_102_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="38" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="26.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -567,7 +567,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>বেকার জন্ম তারিখ:০৯/০৮/১৯২২</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী/জন্ম তারিখ: ০৬/১০/১৯৮০</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t>কৃষক জন্ম তারিখ:১৫/০৮/১৯৭৭</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G160" s="3" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="F162" s="3" t="inlineStr">
         <is>
-          <t>কৃষক জন্ম তারিখ:০৫/০১/১৯৭০</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G162" s="3" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="F166" s="3" t="inlineStr">
         <is>
-          <t>কৃষক জন্ম তারিখ:১০/০১/১৯৬৮</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G166" s="3" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="F170" s="3" t="inlineStr">
         <is>
-          <t>কৃষক জন্ম তারিখ:১০/০৩/১৯৬৫</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G170" s="3" t="inlineStr">
@@ -12932,27 +12932,27 @@
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
         <is>
-          <t>০২৪৯</t>
+          <t>০২৪৮</t>
         </is>
       </c>
       <c r="B298" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল আলম</t>
+          <t>মোহাম্মদ আলী</t>
         </is>
       </c>
       <c r="C298" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৫৭০৩৬</t>
+          <t>১৫২৫৪৪৩৫৫৭০৩৫</t>
         </is>
       </c>
       <c r="D298" s="4" t="inlineStr">
         <is>
-          <t>সেয়দ উজ্জাহ</t>
+          <t>মতিউর রহমান</t>
         </is>
       </c>
       <c r="E298" s="4" t="inlineStr">
         <is>
-          <t>মাহমুদা খাতুন</t>
+          <t>ছেমন খাতুন</t>
         </is>
       </c>
       <c r="F298" s="3" t="inlineStr">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="G298" s="3" t="inlineStr">
         <is>
-          <t>০৯/০১/১৯৬৭</t>
+          <t>২৪/০৮/১৯৬৪</t>
         </is>
       </c>
       <c r="H298" s="5" t="inlineStr">
@@ -12974,27 +12974,27 @@
     <row r="299">
       <c r="A299" s="3" t="inlineStr">
         <is>
-          <t>০২৪৮</t>
+          <t>০২৪৯</t>
         </is>
       </c>
       <c r="B299" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলী</t>
+          <t>আব্দুল আলম</t>
         </is>
       </c>
       <c r="C299" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৫৭০৩৫</t>
+          <t>১৫২৫৪৪৩৫৫৭০৩৬</t>
         </is>
       </c>
       <c r="D299" s="4" t="inlineStr">
         <is>
-          <t>মতিউর রহমান</t>
+          <t>সেয়দ উজ্জাহ</t>
         </is>
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>ছেমন খাতুন</t>
+          <t>মাহমুদা খাতুন</t>
         </is>
       </c>
       <c r="F299" s="3" t="inlineStr">
@@ -13004,7 +13004,7 @@
       </c>
       <c r="G299" s="3" t="inlineStr">
         <is>
-          <t>২৪/০৮/১৯৬৪</t>
+          <t>০৯/০১/১৯৬৭</t>
         </is>
       </c>
       <c r="H299" s="5" t="inlineStr">
@@ -13268,195 +13268,195 @@
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
         <is>
-          <t>১৩৮৮</t>
+          <t>১৪৫৪</t>
         </is>
       </c>
       <c r="B306" s="4" t="inlineStr">
         <is>
-          <t>আবদুল জব্বার</t>
+          <t>মোহাম্মদ ফয়সাল</t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৩৪</t>
+          <t>১৫২৫৪৪৬৪২৫১০</t>
         </is>
       </c>
       <c r="D306" s="4" t="inlineStr">
         <is>
-          <t>আমিন উল্লাহ</t>
+          <t>মোহাম্মদ রফিক উদ্দীন</t>
         </is>
       </c>
       <c r="E306" s="4" t="inlineStr">
         <is>
-          <t>জরিমুন খাতুন</t>
+          <t>কাহিনুর আক্তার</t>
         </is>
       </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৬৫</t>
+          <t>১০/০২/২০০০</t>
         </is>
       </c>
       <c r="H306" s="5" t="inlineStr">
         <is>
-          <t>৫৫, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কালিনগর, চক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="3" t="inlineStr">
         <is>
-          <t>১৭১৯</t>
+          <t>১৩৮৮</t>
         </is>
       </c>
       <c r="B307" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ফয়সাল</t>
+          <t>আবদুল জব্বার</t>
         </is>
       </c>
       <c r="C307" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬</t>
+          <t>১৫২৫৪৪০০০৯৩৪</t>
         </is>
       </c>
       <c r="D307" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আবছার</t>
+          <t>আমিন উল্লাহ</t>
         </is>
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>নাসিমা আক্তার</t>
+          <t>জরিমুন খাতুন</t>
         </is>
       </c>
       <c r="F307" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G307" s="3" t="inlineStr">
         <is>
-          <t>৩০/০৩/২০০০</t>
+          <t>০১/০২/১৯৬৫</t>
         </is>
       </c>
       <c r="H307" s="5" t="inlineStr">
         <is>
-          <t>০২৭, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৫, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="inlineStr">
         <is>
-          <t>১০০৮</t>
+          <t>১৭১৯</t>
         </is>
       </c>
       <c r="B308" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শাহাজাহান</t>
+          <t>মোঃ ফয়সাল</t>
         </is>
       </c>
       <c r="C308" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৩৩১</t>
+          <t>১৫২৫৪৪৬৪৩০০৬</t>
         </is>
       </c>
       <c r="D308" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>নুরুল আবছার</t>
         </is>
       </c>
       <c r="E308" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ্জাহান</t>
+          <t>নাসিমা আক্তার</t>
         </is>
       </c>
       <c r="F308" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G308" s="3" t="inlineStr">
         <is>
-          <t>২০/১০/১৯৯৮</t>
+          <t>৩০/০৩/২০০০</t>
         </is>
       </c>
       <c r="H308" s="5" t="inlineStr">
         <is>
-          <t>৬০১, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>০২৭, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="3" t="inlineStr">
         <is>
-          <t>১৬৬৫</t>
+          <t>১০০৮</t>
         </is>
       </c>
       <c r="B309" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবদুল শুকুর</t>
+          <t>মোঃ শাহাজাহান</t>
         </is>
       </c>
       <c r="C309" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০১০১৬</t>
+          <t>১৫২৫৪৪০০০৩৩১</t>
         </is>
       </c>
       <c r="D309" s="4" t="inlineStr">
         <is>
-          <t>আবদুস সালাম</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="E309" s="4" t="inlineStr">
         <is>
-          <t>সামন্তন নাহর</t>
+          <t>নুরুজ্জাহান</t>
         </is>
       </c>
       <c r="F309" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G309" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/২০০৭</t>
+          <t>২০/১০/১৯৯৮</t>
         </is>
       </c>
       <c r="H309" s="5" t="inlineStr">
         <is>
-          <t>৫২, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬০১, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="3" t="inlineStr">
         <is>
-          <t>১৬৯২</t>
+          <t>১৬৬৫</t>
         </is>
       </c>
       <c r="B310" s="4" t="inlineStr">
         <is>
-          <t>তারেক মনোয়ার</t>
+          <t>মোঃ আবদুল শুকুর</t>
         </is>
       </c>
       <c r="C310" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৯৭৯</t>
+          <t>১৫২৫৪৪০০১০১৬</t>
         </is>
       </c>
       <c r="D310" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>আবদুস সালাম</t>
         </is>
       </c>
       <c r="E310" s="4" t="inlineStr">
         <is>
-          <t>শফিয়ারা বেগম</t>
+          <t>সামন্তন নাহর</t>
         </is>
       </c>
       <c r="F310" s="3" t="inlineStr">
@@ -13466,39 +13466,39 @@
       </c>
       <c r="G310" s="3" t="inlineStr">
         <is>
-          <t>১৫/১০/২০০২</t>
+          <t>১০/০১/২০০৭</t>
         </is>
       </c>
       <c r="H310" s="5" t="inlineStr">
         <is>
-          <t>৪৬, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫২, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="3" t="inlineStr">
         <is>
-          <t>০৮৫৯</t>
+          <t>১৬৯২</t>
         </is>
       </c>
       <c r="B311" s="4" t="inlineStr">
         <is>
-          <t>জয়নাল আবেদীন</t>
+          <t>তারেক মনোয়ার</t>
         </is>
       </c>
       <c r="C311" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৩৮</t>
+          <t>১৫২৫৪৪৬৪২৯৭৯</t>
         </is>
       </c>
       <c r="D311" s="4" t="inlineStr">
         <is>
-          <t>জামাল হোছেন</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E311" s="4" t="inlineStr">
         <is>
-          <t>ছকিনা খাতুন</t>
+          <t>শফিয়ারা বেগম</t>
         </is>
       </c>
       <c r="F311" s="3" t="inlineStr">
@@ -13508,49 +13508,49 @@
       </c>
       <c r="G311" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৮৯</t>
+          <t>১৫/১০/২০০২</t>
         </is>
       </c>
       <c r="H311" s="5" t="inlineStr">
         <is>
-          <t>., কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৬, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="3" t="inlineStr">
         <is>
-          <t>০৯০৮</t>
+          <t>০৮৫৯</t>
         </is>
       </c>
       <c r="B312" s="4" t="inlineStr">
         <is>
-          <t>শাহাব উদ্দীন</t>
+          <t>জয়নাল আবেদীন</t>
         </is>
       </c>
       <c r="C312" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০২৩৬</t>
+          <t>১৫২৫৪৪০০০১৩৮</t>
         </is>
       </c>
       <c r="D312" s="4" t="inlineStr">
         <is>
-          <t>আলী হোসেন</t>
+          <t>জামাল হোছেন</t>
         </is>
       </c>
       <c r="E312" s="4" t="inlineStr">
         <is>
-          <t>রোশানা আক্তার</t>
+          <t>ছকিনা খাতুন</t>
         </is>
       </c>
       <c r="F312" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G312" s="3" t="inlineStr">
         <is>
-          <t>১২/০১/১৯৮৯</t>
+          <t>০৫/০২/১৯৮৯</t>
         </is>
       </c>
       <c r="H312" s="5" t="inlineStr">
@@ -13562,111 +13562,111 @@
     <row r="313">
       <c r="A313" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৬</t>
+          <t>১০০০</t>
         </is>
       </c>
       <c r="B313" s="4" t="inlineStr">
         <is>
-          <t>আবুল হাসেম</t>
+          <t>মোহাম্মদ জুবাইদুল হক</t>
         </is>
       </c>
       <c r="C313" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৫৪</t>
+          <t>১৫২৫৪৪০০০২৪৬</t>
         </is>
       </c>
       <c r="D313" s="4" t="inlineStr">
         <is>
-          <t>আবদুস সালাম</t>
+          <t>মোহাম্মদ ইলিয়াছ</t>
         </is>
       </c>
       <c r="E313" s="4" t="inlineStr">
         <is>
-          <t>মজলিশ খাতুন</t>
+          <t>রোকিয়া বেগম</t>
         </is>
       </c>
       <c r="F313" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G313" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৬/১৯৭১</t>
+          <t>১৫/০৭/১৯৯৪</t>
         </is>
       </c>
       <c r="H313" s="5" t="inlineStr">
         <is>
-          <t>৬২০, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৭</t>
+          <t>০৮৬৬</t>
         </is>
       </c>
       <c r="B314" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নুরুদ্দীন রাসেল</t>
+          <t>আবুল হাসেম</t>
         </is>
       </c>
       <c r="C314" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৫৮</t>
+          <t>১৫২৫৪৪০০০১৫৪</t>
         </is>
       </c>
       <c r="D314" s="4" t="inlineStr">
         <is>
-          <t>আবদুল জালিল</t>
+          <t>আবদুস সালাম</t>
         </is>
       </c>
       <c r="E314" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>মজলিশ খাতুন</t>
         </is>
       </c>
       <c r="F314" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G314" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৫/১৯৯১</t>
+          <t>০৭/০৬/১৯৭১</t>
         </is>
       </c>
       <c r="H314" s="5" t="inlineStr">
         <is>
-          <t>৬০২, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬২০, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="3" t="inlineStr">
         <is>
-          <t>১৫৩৫</t>
+          <t>০৮৬৭</t>
         </is>
       </c>
       <c r="B315" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শাকিব উদ্দিন</t>
+          <t>মোহাম্মদ নুরুদ্দীন রাসেল</t>
         </is>
       </c>
       <c r="C315" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬১৭</t>
+          <t>১৫২৫৪৪০০০১৫৮</t>
         </is>
       </c>
       <c r="D315" s="4" t="inlineStr">
         <is>
-          <t>মোজাহার মিয়া</t>
+          <t>আবদুল জালিল</t>
         </is>
       </c>
       <c r="E315" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F315" s="3" t="inlineStr">
@@ -13676,222 +13676,222 @@
       </c>
       <c r="G315" s="3" t="inlineStr">
         <is>
-          <t>১১/০২/২০০১</t>
+          <t>০৭/০৫/১৯৯১</t>
         </is>
       </c>
       <c r="H315" s="5" t="inlineStr">
         <is>
-          <t>২১, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬০২, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৮</t>
+          <t>১৫৩৫</t>
         </is>
       </c>
       <c r="B316" s="4" t="inlineStr">
         <is>
-          <t>করিম উদ্দিন</t>
+          <t>মোঃ শাকিব উদ্দিন</t>
         </is>
       </c>
       <c r="C316" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৫৯</t>
+          <t>১৫২৫৪৪৬৪২৬১৭</t>
         </is>
       </c>
       <c r="D316" s="4" t="inlineStr">
         <is>
-          <t>ছিদ্দিক আহমেদ</t>
+          <t>মোজাহার মিয়া</t>
         </is>
       </c>
       <c r="E316" s="4" t="inlineStr">
         <is>
-          <t>গোলবাহার বেগম</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="F316" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G316" s="3" t="inlineStr">
         <is>
-          <t>০৯/১১/১৯৯১</t>
+          <t>১১/০২/২০০১</t>
         </is>
       </c>
       <c r="H316" s="5" t="inlineStr">
         <is>
-          <t>., কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="3" t="inlineStr">
         <is>
-          <t>১২৫৪</t>
+          <t>০৮৬৮</t>
         </is>
       </c>
       <c r="B317" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল হক</t>
+          <t>করিম উদ্দিন</t>
         </is>
       </c>
       <c r="C317" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭৬৪</t>
+          <t>১৫২৫৪৪০০০১৫৯</t>
         </is>
       </c>
       <c r="D317" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ হুসাইন</t>
+          <t>ছিদ্দিক আহমেদ</t>
         </is>
       </c>
       <c r="E317" s="4" t="inlineStr">
         <is>
-          <t>হারা খাতুন</t>
+          <t>গোলবাহার বেগম</t>
         </is>
       </c>
       <c r="F317" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G317" s="3" t="inlineStr">
         <is>
-          <t>১৬/১২/১৯৮৩</t>
+          <t>০৯/১১/১৯৯১</t>
         </is>
       </c>
       <c r="H317" s="5" t="inlineStr">
         <is>
-          <t>৩৩, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="3" t="inlineStr">
         <is>
-          <t>০৮৭৬</t>
+          <t>১২৫৪</t>
         </is>
       </c>
       <c r="B318" s="4" t="inlineStr">
         <is>
-          <t>নুরুন্নবী</t>
+          <t>আব্দুল হক</t>
         </is>
       </c>
       <c r="C318" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৭৪</t>
+          <t>১৫২৫৪৪০০০৭৬৪</t>
         </is>
       </c>
       <c r="D318" s="4" t="inlineStr">
         <is>
-          <t>মনির আহমেদ</t>
+          <t>আহমেদ হুসাইন</t>
         </is>
       </c>
       <c r="E318" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া বেগম</t>
+          <t>হারা খাতুন</t>
         </is>
       </c>
       <c r="F318" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G318" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৯১</t>
+          <t>১৬/১২/১৯৮৩</t>
         </is>
       </c>
       <c r="H318" s="5" t="inlineStr">
         <is>
-          <t>৬৩০, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৩, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="3" t="inlineStr">
         <is>
-          <t>০৮৮৯</t>
+          <t>০৮৭৬</t>
         </is>
       </c>
       <c r="B319" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>নুরুন্নবী</t>
         </is>
       </c>
       <c r="C319" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৯৭</t>
+          <t>১৫২৫৪৪০০০১৭৪</t>
         </is>
       </c>
       <c r="D319" s="4" t="inlineStr">
         <is>
-          <t>সোলতান আহমেদ</t>
+          <t>মনির আহমেদ</t>
         </is>
       </c>
       <c r="E319" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া খাতুন</t>
+          <t>রাবিয়া বেগম</t>
         </is>
       </c>
       <c r="F319" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৭/১৯৯১</t>
+          <t>০৫/০২/১৯৯১</t>
         </is>
       </c>
       <c r="H319" s="5" t="inlineStr">
         <is>
-          <t>৬১৭, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬৩০, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="3" t="inlineStr">
         <is>
-          <t>১২৪০</t>
+          <t>০৮৮৯</t>
         </is>
       </c>
       <c r="B320" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জাহেদুল ইসলাম</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="C320" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭২০</t>
+          <t>১৫২৫৪৪০০০১৯৭</t>
         </is>
       </c>
       <c r="D320" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>সোলতান আহমেদ</t>
         </is>
       </c>
       <c r="E320" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ্জাহান বেগম</t>
+          <t>রাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F320" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G320" s="3" t="inlineStr">
         <is>
-          <t>২৩/০৮/১৯৯৯</t>
+          <t>০৫/০৭/১৯৯১</t>
         </is>
       </c>
       <c r="H320" s="5" t="inlineStr">
         <is>
-          <t>৩৪, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬১৭, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -13940,69 +13940,69 @@
     <row r="322">
       <c r="A322" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৪</t>
+          <t>০৯০৮</t>
         </is>
       </c>
       <c r="B322" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ফেরাকান</t>
+          <t>শাহাব উদ্দীন</t>
         </is>
       </c>
       <c r="C322" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৫২</t>
+          <t>১৫২৫৪৪০০০২৩৬</t>
         </is>
       </c>
       <c r="D322" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মম্নান</t>
+          <t>আলী হোসেন</t>
         </is>
       </c>
       <c r="E322" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>রোশানা আক্তার</t>
         </is>
       </c>
       <c r="F322" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G322" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৮৫</t>
+          <t>১২/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="H322" s="5" t="inlineStr">
         <is>
-          <t>কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="3" t="inlineStr">
         <is>
-          <t>১০০০</t>
+          <t>০৮৬৪</t>
         </is>
       </c>
       <c r="B323" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জুবাইদুল হক</t>
+          <t>মোহাম্মদ ফেরাকান</t>
         </is>
       </c>
       <c r="C323" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০২৪৬</t>
+          <t>১৫২৫৪৪০০০১৫২</t>
         </is>
       </c>
       <c r="D323" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইলিয়াছ</t>
+          <t>আবদুল মম্নান</t>
         </is>
       </c>
       <c r="E323" s="4" t="inlineStr">
         <is>
-          <t>রোকিয়া বেগম</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="F323" s="3" t="inlineStr">
@@ -14012,7 +14012,7 @@
       </c>
       <c r="G323" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৭/১৯৯৪</t>
+          <t>০৫/০২/১৯৮৫</t>
         </is>
       </c>
       <c r="H323" s="5" t="inlineStr">
@@ -14024,84 +14024,84 @@
     <row r="324">
       <c r="A324" s="3" t="inlineStr">
         <is>
-          <t>০৮৭৭</t>
+          <t>১২৪০</t>
         </is>
       </c>
       <c r="B324" s="4" t="inlineStr">
         <is>
-          <t>আবদু ছবুর</t>
+          <t>মোহাম্মদ জাহেদুল ইসলাম</t>
         </is>
       </c>
       <c r="C324" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৭৫</t>
+          <t>১৫২৫৪৪০০০৭২০</t>
         </is>
       </c>
       <c r="D324" s="4" t="inlineStr">
         <is>
-          <t>মনির আহমেদ</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="E324" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া বেগম</t>
+          <t>নুরুজ্জাহান বেগম</t>
         </is>
       </c>
       <c r="F324" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G324" s="3" t="inlineStr">
         <is>
-          <t>০৮/০১/১৯৮৯</t>
+          <t>২৩/০৮/১৯৯৯</t>
         </is>
       </c>
       <c r="H324" s="5" t="inlineStr">
         <is>
-          <t>৬৩০, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৪, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="3" t="inlineStr">
         <is>
-          <t>১৪৫৪</t>
+          <t>০৮৭৭</t>
         </is>
       </c>
       <c r="B325" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ফয়সাল</t>
+          <t>আবদু ছবুর</t>
         </is>
       </c>
       <c r="C325" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫১০</t>
+          <t>১৫২৫৪৪০০০১৭৫</t>
         </is>
       </c>
       <c r="D325" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রফিক উদ্দীন</t>
+          <t>মনির আহমেদ</t>
         </is>
       </c>
       <c r="E325" s="4" t="inlineStr">
         <is>
-          <t>কাহিনুর আক্তার</t>
+          <t>রাবিয়া বেগম</t>
         </is>
       </c>
       <c r="F325" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G325" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/২০০০</t>
+          <t>০৮/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="H325" s="5" t="inlineStr">
         <is>
-          <t>কালিনগর, চকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬৩০, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -14150,27 +14150,27 @@
     <row r="327">
       <c r="A327" s="3" t="inlineStr">
         <is>
-          <t>১৩৫৫</t>
+          <t>১৩৩৬</t>
         </is>
       </c>
       <c r="B327" s="4" t="inlineStr">
         <is>
-          <t>ফারদিন হাসান রিশাত</t>
+          <t>আবদুল মুনাফ</t>
         </is>
       </c>
       <c r="C327" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৮৯১</t>
+          <t>১৫২৫৪৪০০০৮৬২</t>
         </is>
       </c>
       <c r="D327" s="4" t="inlineStr">
         <is>
-          <t>আবু আহমেদ</t>
+          <t>এজাহার মিয়া</t>
         </is>
       </c>
       <c r="E327" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা বেগম</t>
+          <t>নুর জাহান বেগম</t>
         </is>
       </c>
       <c r="F327" s="3" t="inlineStr">
@@ -14180,39 +14180,39 @@
       </c>
       <c r="G327" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/২০০২</t>
+          <t>২৬/০৩/২০০০</t>
         </is>
       </c>
       <c r="H327" s="5" t="inlineStr">
         <is>
-          <t>১৭, কালিনগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১, কালিনগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="3" t="inlineStr">
         <is>
-          <t>১৩৩৬</t>
+          <t>১৩৫৫</t>
         </is>
       </c>
       <c r="B328" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মুনাফ</t>
+          <t>ফারদিন হাসান রিশাত</t>
         </is>
       </c>
       <c r="C328" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৮৬২</t>
+          <t>১৫২৫৪৪০০০৮৯১</t>
         </is>
       </c>
       <c r="D328" s="4" t="inlineStr">
         <is>
-          <t>এজাহার মিয়া</t>
+          <t>আবু আহমেদ</t>
         </is>
       </c>
       <c r="E328" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান বেগম</t>
+          <t>রেহেনা বেগম</t>
         </is>
       </c>
       <c r="F328" s="3" t="inlineStr">
@@ -14222,12 +14222,12 @@
       </c>
       <c r="G328" s="3" t="inlineStr">
         <is>
-          <t>২৬/০৩/২০০০</t>
+          <t>০৫/০২/২০০২</t>
         </is>
       </c>
       <c r="H328" s="5" t="inlineStr">
         <is>
-          <t>২১, কালিনগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৭, কালিনগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -14259,7 +14259,7 @@
       </c>
       <c r="F329" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০২/০৭/২০০১</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G329" s="3" t="inlineStr">
@@ -14276,168 +14276,168 @@
     <row r="330">
       <c r="A330" s="3" t="inlineStr">
         <is>
-          <t>০২৫০</t>
+          <t>১৬৫১</t>
         </is>
       </c>
       <c r="B330" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রফিক উদ্দীন</t>
+          <t>মোহাম্মদ হানিফ</t>
         </is>
       </c>
       <c r="C330" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭০৩৮</t>
+          <t>১৫২৫৪৪৬৪২৮০১</t>
         </is>
       </c>
       <c r="D330" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল মজিদ</t>
+          <t>মুজাফফর আহমেদ</t>
         </is>
       </c>
       <c r="E330" s="4" t="inlineStr">
         <is>
-          <t>ছাবেরা খাতুন</t>
+          <t>সাজেদা বেগম</t>
         </is>
       </c>
       <c r="F330" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G330" s="3" t="inlineStr">
         <is>
-          <t>১৪/০৩/১৯৬৯</t>
+          <t>৩০/০৭/২০০২</t>
         </is>
       </c>
       <c r="H330" s="5" t="inlineStr">
         <is>
-          <t>কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪০, কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="3" t="inlineStr">
         <is>
-          <t>০৭০১</t>
+          <t>১৭৪৮</t>
         </is>
       </c>
       <c r="B331" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ সাহাব উদ্দিন</t>
+          <t>মোজাহার আহমেদ</t>
         </is>
       </c>
       <c r="C331" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৮১৭৯</t>
+          <t>১৫২৫৪৪৬৪৩০৩৫</t>
         </is>
       </c>
       <c r="D331" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ নুরুল কবির</t>
+          <t>মৃত আব্দুস সালাম</t>
         </is>
       </c>
       <c r="E331" s="4" t="inlineStr">
         <is>
-          <t>আহিয়া খাতুন</t>
+          <t>মহুদা খাতুন</t>
         </is>
       </c>
       <c r="F331" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G331" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৩/১৯৮৯</t>
+          <t>১৫/০২/১৯৬৭</t>
         </is>
       </c>
       <c r="H331" s="5" t="inlineStr">
         <is>
-          <t>কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১, কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="3" t="inlineStr">
         <is>
-          <t>১৬৫১</t>
+          <t>১৭৯০</t>
         </is>
       </c>
       <c r="B332" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হানিফ</t>
+          <t>মোহাম্মদ আব্দুল আজিজ</t>
         </is>
       </c>
       <c r="C332" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৮০১</t>
+          <t>১৫২৫৪৪৬৪৩০৯০</t>
         </is>
       </c>
       <c r="D332" s="4" t="inlineStr">
         <is>
-          <t>মুজাফফর আহমেদ</t>
+          <t>জাগির হোসেন</t>
         </is>
       </c>
       <c r="E332" s="4" t="inlineStr">
         <is>
-          <t>সাজেদা বেগম</t>
+          <t>লাইলা বেগম</t>
         </is>
       </c>
       <c r="F332" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G332" s="3" t="inlineStr">
         <is>
-          <t>৩০/০৭/২০০২</t>
+          <t>২৫/১১/২০০২</t>
         </is>
       </c>
       <c r="H332" s="5" t="inlineStr">
         <is>
-          <t>৪০, কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৮, কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="3" t="inlineStr">
         <is>
-          <t>১৭৯০</t>
+          <t>০২৫০</t>
         </is>
       </c>
       <c r="B333" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আব্দুল আজিজ</t>
+          <t>মোহাম্মদ রফিক উদ্দীন</t>
         </is>
       </c>
       <c r="C333" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৯০</t>
+          <t>১৫২৫৪৪৩৫৭০৩৮</t>
         </is>
       </c>
       <c r="D333" s="4" t="inlineStr">
         <is>
-          <t>জাগির হোসেন</t>
+          <t>আব্দুল মজিদ</t>
         </is>
       </c>
       <c r="E333" s="4" t="inlineStr">
         <is>
-          <t>লাইলা বেগম</t>
+          <t>ছাবেরা খাতুন</t>
         </is>
       </c>
       <c r="F333" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G333" s="3" t="inlineStr">
         <is>
-          <t>২৫/১১/২০০২</t>
+          <t>১৪/০৩/১৯৬৯</t>
         </is>
       </c>
       <c r="H333" s="5" t="inlineStr">
         <is>
-          <t>৩৮, কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -14486,42 +14486,42 @@
     <row r="335">
       <c r="A335" s="3" t="inlineStr">
         <is>
-          <t>১৭৪৮</t>
+          <t>০৭০১</t>
         </is>
       </c>
       <c r="B335" s="4" t="inlineStr">
         <is>
-          <t>মোজাহার আহমেদ</t>
+          <t>মুহাম্মদ সাহাব উদ্দিন</t>
         </is>
       </c>
       <c r="C335" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৩৫</t>
+          <t>১৫২৫৪৪৩৫৮১৭৯</t>
         </is>
       </c>
       <c r="D335" s="4" t="inlineStr">
         <is>
-          <t>মৃত আব্দুস সালাম</t>
+          <t>মুহাম্মদ নুরুল কবির</t>
         </is>
       </c>
       <c r="E335" s="4" t="inlineStr">
         <is>
-          <t>মহুদা খাতুন</t>
+          <t>আহিয়া খাতুন</t>
         </is>
       </c>
       <c r="F335" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G335" s="3" t="inlineStr">
         <is>
-          <t>১৫/০২/১৯৬৭</t>
+          <t>০৭/০৩/১৯৮৯</t>
         </is>
       </c>
       <c r="H335" s="5" t="inlineStr">
         <is>
-          <t>২১, কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -14612,69 +14612,69 @@
     <row r="338">
       <c r="A338" s="3" t="inlineStr">
         <is>
-          <t>১২৭৭</t>
+          <t>১৩৭৫</t>
         </is>
       </c>
       <c r="B338" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ এনাম উদ্দিন</t>
+          <t>আবদুল্লাহ আল মাসুম</t>
         </is>
       </c>
       <c r="C338" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭৬১</t>
+          <t>১৫২৫৪৪০০০৯১৮</t>
         </is>
       </c>
       <c r="D338" s="4" t="inlineStr">
         <is>
-          <t>মুত আবদুল মজিদ</t>
+          <t>মোহাম্মদ আলী</t>
         </is>
       </c>
       <c r="E338" s="4" t="inlineStr">
         <is>
-          <t>ছাবেরা খাতুন</t>
+          <t>দিনুআরা বেগম</t>
         </is>
       </c>
       <c r="F338" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G338" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৭/১৯৭৮</t>
+          <t>০৩/০৭/২০০১</t>
         </is>
       </c>
       <c r="H338" s="5" t="inlineStr">
         <is>
-          <t>১৭, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৫, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="3" t="inlineStr">
         <is>
-          <t>১৩৩৯</t>
+          <t>১৩৮১</t>
         </is>
       </c>
       <c r="B339" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মিজবাহ উদ্দিন মিশাল</t>
+          <t>আবদুল মোমেন</t>
         </is>
       </c>
       <c r="C339" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৮৭১</t>
+          <t>১৫২৫৪৪০০০৯২৫</t>
         </is>
       </c>
       <c r="D339" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রফিক উদ্দিন</t>
+          <t>এজাহার মিয়া</t>
         </is>
       </c>
       <c r="E339" s="4" t="inlineStr">
         <is>
-          <t>কফিনুর আক্তার</t>
+          <t>নুরু জাহান</t>
         </is>
       </c>
       <c r="F339" s="3" t="inlineStr">
@@ -14684,39 +14684,39 @@
       </c>
       <c r="G339" s="3" t="inlineStr">
         <is>
-          <t>৩০/১১/২০০৩</t>
+          <t>০১/০৭/২০০১</t>
         </is>
       </c>
       <c r="H339" s="5" t="inlineStr">
         <is>
-          <t>কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="3" t="inlineStr">
         <is>
-          <t>১৩৮১</t>
+          <t>১৩৩৯</t>
         </is>
       </c>
       <c r="B340" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মোমেন</t>
+          <t>মোহাম্মদ মিজবাহ উদ্দিন মিশাল</t>
         </is>
       </c>
       <c r="C340" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯২৫</t>
+          <t>১৫২৫৪৪০০০৮৭১</t>
         </is>
       </c>
       <c r="D340" s="4" t="inlineStr">
         <is>
-          <t>এজাহার মিয়া</t>
+          <t>মোহাম্মদ রফিক উদ্দিন</t>
         </is>
       </c>
       <c r="E340" s="4" t="inlineStr">
         <is>
-          <t>নুরু জাহান</t>
+          <t>কফিনুর আক্তার</t>
         </is>
       </c>
       <c r="F340" s="3" t="inlineStr">
@@ -14726,81 +14726,81 @@
       </c>
       <c r="G340" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/২০০১</t>
+          <t>৩০/১১/২০০৩</t>
         </is>
       </c>
       <c r="H340" s="5" t="inlineStr">
         <is>
-          <t>২১, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="3" t="inlineStr">
         <is>
-          <t>১৩৮০</t>
+          <t>১২৭৭</t>
         </is>
       </c>
       <c r="B341" s="4" t="inlineStr">
         <is>
-          <t>আরফানুল হক</t>
+          <t>মোহাম্মদ এনাম উদ্দিন</t>
         </is>
       </c>
       <c r="C341" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯২৪</t>
+          <t>১৫২৫৪৪০০০৭৬১</t>
         </is>
       </c>
       <c r="D341" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>মুত আবদুল মজিদ</t>
         </is>
       </c>
       <c r="E341" s="4" t="inlineStr">
         <is>
-          <t>পারভীন আক্তার</t>
+          <t>ছাবেরা খাতুন</t>
         </is>
       </c>
       <c r="F341" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G341" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০২</t>
+          <t>১৫/০৭/১৯৭৮</t>
         </is>
       </c>
       <c r="H341" s="5" t="inlineStr">
         <is>
-          <t>৩১, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৭, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="3" t="inlineStr">
         <is>
-          <t>১৩৭৫</t>
+          <t>১৩৮০</t>
         </is>
       </c>
       <c r="B342" s="4" t="inlineStr">
         <is>
-          <t>আবদুল্লাহ আল মাসুম</t>
+          <t>আরফানুল হক</t>
         </is>
       </c>
       <c r="C342" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯১৮</t>
+          <t>১৫২৫৪৪০০০৯২৪</t>
         </is>
       </c>
       <c r="D342" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলী</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="E342" s="4" t="inlineStr">
         <is>
-          <t>দিনুআরা বেগম</t>
+          <t>পারভীন আক্তার</t>
         </is>
       </c>
       <c r="F342" s="3" t="inlineStr">
@@ -14810,12 +14810,12 @@
       </c>
       <c r="G342" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৭/২০০১</t>
+          <t>০১/০১/২০০২</t>
         </is>
       </c>
       <c r="H342" s="5" t="inlineStr">
         <is>
-          <t>১৫, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩১, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -15872,69 +15872,69 @@
     <row r="368">
       <c r="A368" s="3" t="inlineStr">
         <is>
-          <t>১৫৭৭</t>
+          <t>১৪৪৫</t>
         </is>
       </c>
       <c r="B368" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রিদুয়ান</t>
+          <t>মোহাম্মদ আবদুর রহমান</t>
         </is>
       </c>
       <c r="C368" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭১১</t>
+          <t>১৫২৫৪৪০০০৯৯৫</t>
         </is>
       </c>
       <c r="D368" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ জামাল উদ্দীন</t>
+          <t>মোস্তাক আহমেদ</t>
         </is>
       </c>
       <c r="E368" s="4" t="inlineStr">
         <is>
-          <t>মুতাহেরা বেগম</t>
+          <t>কমরফিছা বেগম</t>
         </is>
       </c>
       <c r="F368" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G368" s="3" t="inlineStr">
         <is>
-          <t>০৮/১১/১৯৯৭</t>
+          <t>১৮/০৮/২০০৬</t>
         </is>
       </c>
       <c r="H368" s="5" t="inlineStr">
         <is>
-          <t>২৭৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৭১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="3" t="inlineStr">
         <is>
-          <t>১৫৬৩</t>
+          <t>১৪৪৬</t>
         </is>
       </c>
       <c r="B369" s="4" t="inlineStr">
         <is>
-          <t>জাহেদ হোসেন</t>
+          <t>মোহাম্মদ সাকিবুল ইসলাম</t>
         </is>
       </c>
       <c r="C369" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬৯৭</t>
+          <t>১৫২৫৪৪০০০৯৯৬</t>
         </is>
       </c>
       <c r="D369" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল আলম</t>
+          <t>আবুল হাসেম</t>
         </is>
       </c>
       <c r="E369" s="4" t="inlineStr">
         <is>
-          <t>দিলোয়ারা বেগম</t>
+          <t>খুরশিদা বেগম</t>
         </is>
       </c>
       <c r="F369" s="3" t="inlineStr">
@@ -15944,81 +15944,81 @@
       </c>
       <c r="G369" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৯</t>
+          <t>০৬/০৬/২০০৬</t>
         </is>
       </c>
       <c r="H369" s="5" t="inlineStr">
         <is>
-          <t>৭৭৩, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="3" t="inlineStr">
         <is>
-          <t>১২১১</t>
+          <t>১২৪৩</t>
         </is>
       </c>
       <c r="B370" s="4" t="inlineStr">
         <is>
-          <t>জিয়ারুল হক</t>
+          <t>মোহাম্মদ নুরুল আমীন</t>
         </is>
       </c>
       <c r="C370" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৬৩১</t>
+          <t>১৫২৫৪৪০০০৭২৩</t>
         </is>
       </c>
       <c r="D370" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হাকিম</t>
+          <t>আলতাফ হোসেন</t>
         </is>
       </c>
       <c r="E370" s="4" t="inlineStr">
         <is>
-          <t>জাহান আরা বেগম</t>
+          <t>ছালেহা বেগম</t>
         </is>
       </c>
       <c r="F370" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G370" s="3" t="inlineStr">
         <is>
-          <t>১০/১২/১৯৮০</t>
+          <t>০৯/০৫/১৯৯৯</t>
         </is>
       </c>
       <c r="H370" s="5" t="inlineStr">
         <is>
-          <t>৭৯৯, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩১৯, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="3" t="inlineStr">
         <is>
-          <t>১৫৬৬</t>
+          <t>১২২৯</t>
         </is>
       </c>
       <c r="B371" s="4" t="inlineStr">
         <is>
-          <t>কামরুল হাসান</t>
+          <t>মোহাম্মদ আলমগীর</t>
         </is>
       </c>
       <c r="C371" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭০০</t>
+          <t>১৫২৫৪৪০০০৭০৬</t>
         </is>
       </c>
       <c r="D371" s="4" t="inlineStr">
         <is>
-          <t>দুদু মিয়া</t>
+          <t>মোহাম্মদ আব্দুল আনছারী</t>
         </is>
       </c>
       <c r="E371" s="4" t="inlineStr">
         <is>
-          <t>জাহেদা বেগম</t>
+          <t>শাহিন আক্তার</t>
         </is>
       </c>
       <c r="F371" s="3" t="inlineStr">
@@ -16028,96 +16028,96 @@
       </c>
       <c r="G371" s="3" t="inlineStr">
         <is>
-          <t>২০/০৬/১৯৯৮</t>
+          <t>০৮/০৯/১৯৯৮</t>
         </is>
       </c>
       <c r="H371" s="5" t="inlineStr">
         <is>
-          <t>৭৫৫, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৫০, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="3" t="inlineStr">
         <is>
-          <t>১৪৪৮</t>
+          <t>১২০৪</t>
         </is>
       </c>
       <c r="B372" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ জিহাদ বিন মাহবুব</t>
+          <t>ফরিদুল আলম</t>
         </is>
       </c>
       <c r="C372" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৯৮</t>
+          <t>১৫২৫৪৪০০০৬২৭</t>
         </is>
       </c>
       <c r="D372" s="4" t="inlineStr">
         <is>
-          <t>মাহবুবুর রহমান</t>
+          <t>মোঃ আলী</t>
         </is>
       </c>
       <c r="E372" s="4" t="inlineStr">
         <is>
-          <t>ছুরাইন জান্নাত</t>
+          <t>আসিয়া খাতুন</t>
         </is>
       </c>
       <c r="F372" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G372" s="3" t="inlineStr">
         <is>
-          <t>১০/০৩/২০০৬</t>
+          <t>০৩/০৮/১৯৮২</t>
         </is>
       </c>
       <c r="H372" s="5" t="inlineStr">
         <is>
-          <t>৫৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪২৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="3" t="inlineStr">
         <is>
-          <t>১২২৯</t>
+          <t>১২৫৩</t>
         </is>
       </c>
       <c r="B373" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলমগীর</t>
+          <t>মোঃ ফুতুব উদ্দীন</t>
         </is>
       </c>
       <c r="C373" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭০৬</t>
+          <t>১৫২৫৪৪০০০৭৬২</t>
         </is>
       </c>
       <c r="D373" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আব্দুল আনছারী</t>
+          <t>নূর আহমেদ</t>
         </is>
       </c>
       <c r="E373" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আক্তার</t>
+          <t>জুলেখা বেগম</t>
         </is>
       </c>
       <c r="F373" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G373" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৯/১৯৯৮</t>
+          <t>২০/০৩/১৯৮৪</t>
         </is>
       </c>
       <c r="H373" s="5" t="inlineStr">
         <is>
-          <t>১৫০, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -16166,111 +16166,111 @@
     <row r="375">
       <c r="A375" s="3" t="inlineStr">
         <is>
-          <t>১২৩৬</t>
+          <t>১৪৪৮</t>
         </is>
       </c>
       <c r="B375" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল্লাহ আল নোমান</t>
+          <t>মুহাম্মদ জিহাদ বিন মাহবুব</t>
         </is>
       </c>
       <c r="C375" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭১৫</t>
+          <t>১৫২৫৪৪০০০৯৯৮</t>
         </is>
       </c>
       <c r="D375" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>মাহবুবুর রহমান</t>
         </is>
       </c>
       <c r="E375" s="4" t="inlineStr">
         <is>
-          <t>শফিয়ারা বেগম</t>
+          <t>ছুরাইন জান্নাত</t>
         </is>
       </c>
       <c r="F375" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G375" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৯/১৯৯৬</t>
+          <t>১০/০৩/২০০৬</t>
         </is>
       </c>
       <c r="H375" s="5" t="inlineStr">
         <is>
-          <t>৬১৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="3" t="inlineStr">
         <is>
-          <t>১৫৫১</t>
+          <t>১২২৩</t>
         </is>
       </c>
       <c r="B376" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হানিফ</t>
+          <t>মুহাম্মদ আলী</t>
         </is>
       </c>
       <c r="C376" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬৮৫</t>
+          <t>১৫২৫৪৪০০০৬৯৫</t>
         </is>
       </c>
       <c r="D376" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ হোসাইন</t>
+          <t>মৃত মোজাহের আহমেদ</t>
         </is>
       </c>
       <c r="E376" s="4" t="inlineStr">
         <is>
-          <t>তছলিমা বেগম</t>
+          <t>মুস্তাফা খাতুন</t>
         </is>
       </c>
       <c r="F376" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G376" s="3" t="inlineStr">
         <is>
-          <t>০৫/১০/২০০২</t>
+          <t>১০/০৫/১৯৫৩</t>
         </is>
       </c>
       <c r="H376" s="5" t="inlineStr">
         <is>
-          <t>৪৯৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪০৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="3" t="inlineStr">
         <is>
-          <t>১৫৭১</t>
+          <t>১৫৬৬</t>
         </is>
       </c>
       <c r="B377" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ শহিদুল ইসলাম</t>
+          <t>কামরুল হাসান</t>
         </is>
       </c>
       <c r="C377" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭০৫</t>
+          <t>১৫২৫৪৪৬৪২৭০০</t>
         </is>
       </c>
       <c r="D377" s="4" t="inlineStr">
         <is>
-          <t>আবুল হাসেম</t>
+          <t>দুদু মিয়া</t>
         </is>
       </c>
       <c r="E377" s="4" t="inlineStr">
         <is>
-          <t>খুরশিদা বেগম</t>
+          <t>জাহেদা বেগম</t>
         </is>
       </c>
       <c r="F377" s="3" t="inlineStr">
@@ -16280,249 +16280,249 @@
       </c>
       <c r="G377" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৩</t>
+          <t>২০/০৬/১৯৯৮</t>
         </is>
       </c>
       <c r="H377" s="5" t="inlineStr">
         <is>
-          <t>৪৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৫৫, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="3" t="inlineStr">
         <is>
-          <t>১২৪৩</t>
+          <t>১২১১</t>
         </is>
       </c>
       <c r="B378" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নুরুল আমীন</t>
+          <t>জিয়ারুল হক</t>
         </is>
       </c>
       <c r="C378" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭২৩</t>
+          <t>১৫২৫৪৪০০০৬৩১</t>
         </is>
       </c>
       <c r="D378" s="4" t="inlineStr">
         <is>
-          <t>আলতাফ হোসেন</t>
+          <t>আবদুল হাকিম</t>
         </is>
       </c>
       <c r="E378" s="4" t="inlineStr">
         <is>
-          <t>ছালেহা বেগম</t>
+          <t>জাহান আরা বেগম</t>
         </is>
       </c>
       <c r="F378" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G378" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৫/১৯৯৯</t>
+          <t>১০/১২/১৯৮০</t>
         </is>
       </c>
       <c r="H378" s="5" t="inlineStr">
         <is>
-          <t>৩১৯, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৯৯, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="3" t="inlineStr">
         <is>
-          <t>১৫৬১</t>
+          <t>১৫৬৩</t>
         </is>
       </c>
       <c r="B379" s="4" t="inlineStr">
         <is>
-          <t>মোঃ হেলাল</t>
+          <t>জাহেদ হোসেন</t>
         </is>
       </c>
       <c r="C379" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬৯৫</t>
+          <t>১৫২৫৪৪৬৪২৬৯৭</t>
         </is>
       </c>
       <c r="D379" s="4" t="inlineStr">
         <is>
-          <t>মাহবুব রহমান</t>
+          <t>আব্দুল আলম</t>
         </is>
       </c>
       <c r="E379" s="4" t="inlineStr">
         <is>
-          <t>ছালেহা বেগম</t>
+          <t>দিলোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F379" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G379" s="3" t="inlineStr">
         <is>
-          <t>১০/১০/২০০৩</t>
+          <t>০১/০১/১৯৯৯</t>
         </is>
       </c>
       <c r="H379" s="5" t="inlineStr">
         <is>
-          <t>৭৫৪, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৭৩, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="3" t="inlineStr">
         <is>
-          <t>১৭৮১</t>
+          <t>১২৪৫</t>
         </is>
       </c>
       <c r="B380" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আরফাত</t>
+          <t>মিটন রুদ্র</t>
         </is>
       </c>
       <c r="C380" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৮১</t>
+          <t>১৫২৫৪৪০০০৭২৫</t>
         </is>
       </c>
       <c r="D380" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মোস্তাক</t>
+          <t>পুনেন্দু রুদ্র</t>
         </is>
       </c>
       <c r="E380" s="4" t="inlineStr">
         <is>
-          <t>জুলেহা বেগম</t>
+          <t>সবিতা রানী রুদ্র</t>
         </is>
       </c>
       <c r="F380" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G380" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৩/২০০২</t>
+          <t>০১/০১/২০০০</t>
         </is>
       </c>
       <c r="H380" s="5" t="inlineStr">
         <is>
-          <t>২৩১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬২৯, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="3" t="inlineStr">
         <is>
-          <t>১৫৮১</t>
+          <t>১৫৬১</t>
         </is>
       </c>
       <c r="B381" s="4" t="inlineStr">
         <is>
-          <t>মাইনুদ্দীন হাসান জিসান</t>
+          <t>মোঃ হেলাল</t>
         </is>
       </c>
       <c r="C381" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭১৫</t>
+          <t>১৫২৫৪৪৬৪২৬৯৫</t>
         </is>
       </c>
       <c r="D381" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শাহজাহান</t>
+          <t>মাহবুব রহমান</t>
         </is>
       </c>
       <c r="E381" s="4" t="inlineStr">
         <is>
-          <t>ফরিদা ইয়াছমিন</t>
+          <t>ছালেহা বেগম</t>
         </is>
       </c>
       <c r="F381" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G381" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৮/১৯৯৯</t>
+          <t>১০/১০/২০০৩</t>
         </is>
       </c>
       <c r="H381" s="5" t="inlineStr">
         <is>
-          <t>৭৫৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৫৪, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="3" t="inlineStr">
         <is>
-          <t>১৭৩৬</t>
+          <t>১৬৩৮</t>
         </is>
       </c>
       <c r="B382" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মিনার</t>
+          <t>মোহাম্মদ লোকমান</t>
         </is>
       </c>
       <c r="C382" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০২৩</t>
+          <t>১৫২৫৪৪৬৪২৭৮৬</t>
         </is>
       </c>
       <c r="D382" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ বদিউল আলম</t>
+          <t>আমির হোসেন</t>
         </is>
       </c>
       <c r="E382" s="4" t="inlineStr">
         <is>
-          <t>ফরিদা বেগম</t>
+          <t>নাহিমা আখতার</t>
         </is>
       </c>
       <c r="F382" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G382" s="3" t="inlineStr">
         <is>
-          <t>০২/০১/২০০২</t>
+          <t>০৬/০৮/২০০২</t>
         </is>
       </c>
       <c r="H382" s="5" t="inlineStr">
         <is>
-          <t>২৬৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৬৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="3" t="inlineStr">
         <is>
-          <t>০৯৯৬</t>
+          <t>১৫৮৪</t>
         </is>
       </c>
       <c r="B383" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবদুল মোমিন</t>
+          <t>খোরশেদ আলম</t>
         </is>
       </c>
       <c r="C383" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৮৫</t>
+          <t>১৫২৫৪৪৬৪২৭২০</t>
         </is>
       </c>
       <c r="D383" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মাবদ</t>
+          <t>বশির আহমেদ</t>
         </is>
       </c>
       <c r="E383" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F383" s="3" t="inlineStr">
@@ -16532,222 +16532,222 @@
       </c>
       <c r="G383" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৯৪</t>
+          <t>২০/০৬/১৯৯৭</t>
         </is>
       </c>
       <c r="H383" s="5" t="inlineStr">
         <is>
-          <t>., চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৭২, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="3" t="inlineStr">
         <is>
-          <t>১৭৮৩</t>
+          <t>১৭৬৪</t>
         </is>
       </c>
       <c r="B384" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জাহাঙ্গীর আলম</t>
+          <t>জিয়াবুল হক</t>
         </is>
       </c>
       <c r="C384" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৮৩</t>
+          <t>১৫২৫৪৪৬৪৩০০৬৩</t>
         </is>
       </c>
       <c r="D384" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ মোস্তাক</t>
+          <t>মহি উদ্দীন</t>
         </is>
       </c>
       <c r="E384" s="4" t="inlineStr">
         <is>
-          <t>জুলেহা বেগম</t>
+          <t>আরাফা বেগম</t>
         </is>
       </c>
       <c r="F384" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ক্ষুদ্রক</t>
         </is>
       </c>
       <c r="G384" s="3" t="inlineStr">
         <is>
-          <t>০৩/০২/২০০১</t>
+          <t>০৩/০৫/১৯৯৮</t>
         </is>
       </c>
       <c r="H384" s="5" t="inlineStr">
         <is>
-          <t>২৩১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১০০, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="3" t="inlineStr">
         <is>
-          <t>১৭৬৪</t>
+          <t>১৬০৯</t>
         </is>
       </c>
       <c r="B385" s="4" t="inlineStr">
         <is>
-          <t>জিয়াবুল হক</t>
+          <t>আবদুল হোসাইন তানজিম</t>
         </is>
       </c>
       <c r="C385" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬৩</t>
+          <t>১৫২৫৪৪৬৪২৭৪৬</t>
         </is>
       </c>
       <c r="D385" s="4" t="inlineStr">
         <is>
-          <t>মহি উদ্দীন</t>
+          <t>মোঃ মিয়াজান আলী</t>
         </is>
       </c>
       <c r="E385" s="4" t="inlineStr">
         <is>
-          <t>আরাফা বেগম</t>
+          <t>হোছেন আরা বেগম</t>
         </is>
       </c>
       <c r="F385" s="3" t="inlineStr">
         <is>
-          <t>ক্ষুদ্রক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G385" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৫/১৯৯৮</t>
+          <t>০১/০১/২০০৩</t>
         </is>
       </c>
       <c r="H385" s="5" t="inlineStr">
         <is>
-          <t>১০০, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৮৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="3" t="inlineStr">
         <is>
-          <t>১৬৩৮</t>
+          <t>১৭৮৩</t>
         </is>
       </c>
       <c r="B386" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ লোকমান</t>
+          <t>মোহাম্মদ জাহাঙ্গীর আলম</t>
         </is>
       </c>
       <c r="C386" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭৮৬</t>
+          <t>১৫২৫৪৪৬৪৩০৮৩</t>
         </is>
       </c>
       <c r="D386" s="4" t="inlineStr">
         <is>
-          <t>আমির হোসেন</t>
+          <t>মুহাম্মদ মোস্তাক</t>
         </is>
       </c>
       <c r="E386" s="4" t="inlineStr">
         <is>
-          <t>নাহিমা আখতার</t>
+          <t>জুলেহা বেগম</t>
         </is>
       </c>
       <c r="F386" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G386" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৮/২০০২</t>
+          <t>০৩/০২/২০০১</t>
         </is>
       </c>
       <c r="H386" s="5" t="inlineStr">
         <is>
-          <t>৭৬৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৩১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="3" t="inlineStr">
         <is>
-          <t>১৬০৯</t>
+          <t>১৬০৮</t>
         </is>
       </c>
       <c r="B387" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হোসাইন তানজিম</t>
+          <t>মোহাম্মদ সিহাব</t>
         </is>
       </c>
       <c r="C387" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭৪৬</t>
+          <t>১৫২৫৪৪৬৪২৭৪৫</t>
         </is>
       </c>
       <c r="D387" s="4" t="inlineStr">
         <is>
-          <t>মোঃ মিয়াজান আলী</t>
+          <t>মোহাম্মদ এনাম</t>
         </is>
       </c>
       <c r="E387" s="4" t="inlineStr">
         <is>
-          <t>হোছেন আরা বেগম</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="F387" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G387" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০৩</t>
+          <t>০৮/০৮/২০০৩</t>
         </is>
       </c>
       <c r="H387" s="5" t="inlineStr">
         <is>
-          <t>২৮৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৬, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="3" t="inlineStr">
         <is>
-          <t>১৬০৮</t>
+          <t>১৭২৬</t>
         </is>
       </c>
       <c r="B388" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সিহাব</t>
+          <t>দেলোয়ার হোছাইন</t>
         </is>
       </c>
       <c r="C388" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭৪৫</t>
+          <t>১৫২৫৪৪৬৪৩০১৩</t>
         </is>
       </c>
       <c r="D388" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ এনাম</t>
+          <t>মৃত আজগর আলী</t>
         </is>
       </c>
       <c r="E388" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>মৃত লায়লা বেগম</t>
         </is>
       </c>
       <c r="F388" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G388" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৮/২০০৩</t>
+          <t>১০/০৫/১৯৭৫</t>
         </is>
       </c>
       <c r="H388" s="5" t="inlineStr">
         <is>
-          <t>১৬, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৮৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -16922,111 +16922,111 @@
     <row r="393">
       <c r="A393" s="3" t="inlineStr">
         <is>
-          <t>১৫৮৫</t>
+          <t>১৭৩৬</t>
         </is>
       </c>
       <c r="B393" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জুনাইদ</t>
+          <t>মোহাম্মদ মিনার</t>
         </is>
       </c>
       <c r="C393" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭২১</t>
+          <t>১৫২৫৪৪৬৪৩০২৩</t>
         </is>
       </c>
       <c r="D393" s="4" t="inlineStr">
         <is>
-          <t>মোঃ এস্তাক আলী</t>
+          <t>মুহাম্মদ বদিউল আলম</t>
         </is>
       </c>
       <c r="E393" s="4" t="inlineStr">
         <is>
-          <t>হেসনে আরা বেগম</t>
+          <t>ফরিদা বেগম</t>
         </is>
       </c>
       <c r="F393" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G393" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৫/২০০২</t>
+          <t>০২/০১/২০০২</t>
         </is>
       </c>
       <c r="H393" s="5" t="inlineStr">
         <is>
-          <t>৫৮১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৬৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="3" t="inlineStr">
         <is>
-          <t>১৪৭২</t>
+          <t>১৭৮১</t>
         </is>
       </c>
       <c r="B394" s="4" t="inlineStr">
         <is>
-          <t>জুনাইদুল ইসলাম</t>
+          <t>মোহাম্মদ আরফাত</t>
         </is>
       </c>
       <c r="C394" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৪৫</t>
+          <t>১৫২৫৪৪৬৪৩০৮১</t>
         </is>
       </c>
       <c r="D394" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল কাশেম</t>
+          <t>মোহাম্মদ মোস্তাক</t>
         </is>
       </c>
       <c r="E394" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ্জাহান বেগম</t>
+          <t>জুলেহা বেগম</t>
         </is>
       </c>
       <c r="F394" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১১/০২/২০০৩</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G394" s="3" t="inlineStr">
         <is>
-          <t>১১/০২/২০০৩</t>
+          <t>০৪/০৩/২০০২</t>
         </is>
       </c>
       <c r="H394" s="5" t="inlineStr">
         <is>
-          <t>৩৪, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৩১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="3" t="inlineStr">
         <is>
-          <t>১৫৮৪</t>
+          <t>১৫৮৫</t>
         </is>
       </c>
       <c r="B395" s="4" t="inlineStr">
         <is>
-          <t>খোরশেদ আলম</t>
+          <t>মোহাম্মদ জুনাইদ</t>
         </is>
       </c>
       <c r="C395" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭২০</t>
+          <t>১৫২৫৪৪৬৪২৭২১</t>
         </is>
       </c>
       <c r="D395" s="4" t="inlineStr">
         <is>
-          <t>বশির আহমেদ</t>
+          <t>মোঃ এস্তাক আলী</t>
         </is>
       </c>
       <c r="E395" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>হেসনে আরা বেগম</t>
         </is>
       </c>
       <c r="F395" s="3" t="inlineStr">
@@ -17036,123 +17036,123 @@
       </c>
       <c r="G395" s="3" t="inlineStr">
         <is>
-          <t>২০/০৬/১৯৯৭</t>
+          <t>০৭/০৫/২০০২</t>
         </is>
       </c>
       <c r="H395" s="5" t="inlineStr">
         <is>
-          <t>২৭২, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৮১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="3" t="inlineStr">
         <is>
-          <t>১৫৮৩</t>
+          <t>১৪৭২</t>
         </is>
       </c>
       <c r="B396" s="4" t="inlineStr">
         <is>
-          <t>হাবিবুল্লাহ</t>
+          <t>জুনাইদুল ইসলাম</t>
         </is>
       </c>
       <c r="C396" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭১৭</t>
+          <t>১৫২৫৪৪৬৪২৫৪৫</t>
         </is>
       </c>
       <c r="D396" s="4" t="inlineStr">
         <is>
-          <t>ফয়েজুল হক</t>
+          <t>আব্দুল কাশেম</t>
         </is>
       </c>
       <c r="E396" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মাহমুদা</t>
+          <t>নুরুজ্জাহান বেগম</t>
         </is>
       </c>
       <c r="F396" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G396" s="3" t="inlineStr">
         <is>
-          <t>০১/০৬/১৯৯১</t>
+          <t>১১/০২/২০০৩</t>
         </is>
       </c>
       <c r="H396" s="5" t="inlineStr">
         <is>
-          <t>২৫৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৪, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="3" t="inlineStr">
         <is>
-          <t>১৫৮২</t>
+          <t>১৫৭১</t>
         </is>
       </c>
       <c r="B397" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রায়হান উদ্দিন</t>
+          <t>মোহাম্মদ শহিদুল ইসলাম</t>
         </is>
       </c>
       <c r="C397" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭১৬</t>
+          <t>১৫২৫৪৪৬৪২৭০৫</t>
         </is>
       </c>
       <c r="D397" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ শাহালাম</t>
+          <t>আবুল হাসেম</t>
         </is>
       </c>
       <c r="E397" s="4" t="inlineStr">
         <is>
-          <t>আরেফা বেগম</t>
+          <t>খুরশিদা বেগম</t>
         </is>
       </c>
       <c r="F397" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G397" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৯৭</t>
+          <t>০১/০১/১৯৯৩</t>
         </is>
       </c>
       <c r="H397" s="5" t="inlineStr">
         <is>
-          <t>৫৬৫, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="3" t="inlineStr">
         <is>
-          <t>১২৪৫</t>
+          <t>১৫৫১</t>
         </is>
       </c>
       <c r="B398" s="4" t="inlineStr">
         <is>
-          <t>মিটন রুদ্র</t>
+          <t>মোহাম্মদ হানিফ</t>
         </is>
       </c>
       <c r="C398" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭২৫</t>
+          <t>১৫২৫৪৪৬৪২৬৮৫</t>
         </is>
       </c>
       <c r="D398" s="4" t="inlineStr">
         <is>
-          <t>পুনেন্দু রুদ্র</t>
+          <t>আহমেদ হোসাইন</t>
         </is>
       </c>
       <c r="E398" s="4" t="inlineStr">
         <is>
-          <t>সবিতা রানী রুদ্র</t>
+          <t>তছলিমা বেগম</t>
         </is>
       </c>
       <c r="F398" s="3" t="inlineStr">
@@ -17162,81 +17162,81 @@
       </c>
       <c r="G398" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০০</t>
+          <t>০৫/১০/২০০২</t>
         </is>
       </c>
       <c r="H398" s="5" t="inlineStr">
         <is>
-          <t>৬২৯, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৯৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="3" t="inlineStr">
         <is>
-          <t>১৪৭১</t>
+          <t>১৫৮৩</t>
         </is>
       </c>
       <c r="B399" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নাছির উদ্দীন</t>
+          <t>হাবিবুল্লাহ</t>
         </is>
       </c>
       <c r="C399" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৪৪</t>
+          <t>১৫২৫৪৪৬৪২৭১৭</t>
         </is>
       </c>
       <c r="D399" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ খুল মিয়া</t>
+          <t>ফয়েজুল হক</t>
         </is>
       </c>
       <c r="E399" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ্জাহান</t>
+          <t>মোহাম্মদ মাহমুদা</t>
         </is>
       </c>
       <c r="F399" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৮/০৬/২০০১</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G399" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৬/২০০১</t>
+          <t>০১/০৬/১৯৯১</t>
         </is>
       </c>
       <c r="H399" s="5" t="inlineStr">
         <is>
-          <t>৮১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৫৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="3" t="inlineStr">
         <is>
-          <t>১৫৭৮</t>
+          <t>১৫৮২</t>
         </is>
       </c>
       <c r="B400" s="4" t="inlineStr">
         <is>
-          <t>ছমাইন কবির</t>
+          <t>মোহাম্মদ রায়হান উদ্দিন</t>
         </is>
       </c>
       <c r="C400" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭১২</t>
+          <t>১৫২৫৪৪৬৪২৭১৬</t>
         </is>
       </c>
       <c r="D400" s="4" t="inlineStr">
         <is>
-          <t>হারুন রশীদ</t>
+          <t>মোহাম্মদ শাহালাম</t>
         </is>
       </c>
       <c r="E400" s="4" t="inlineStr">
         <is>
-          <t>রৌশন আক্তার</t>
+          <t>আরেফা বেগম</t>
         </is>
       </c>
       <c r="F400" s="3" t="inlineStr">
@@ -17246,39 +17246,39 @@
       </c>
       <c r="G400" s="3" t="inlineStr">
         <is>
-          <t>০৩/০২/২০০২</t>
+          <t>০১/০৫/১৯৯৭</t>
         </is>
       </c>
       <c r="H400" s="5" t="inlineStr">
         <is>
-          <t>৪৮৪, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৬৫, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="3" t="inlineStr">
         <is>
-          <t>১২৫৩</t>
+          <t>১৫৮১</t>
         </is>
       </c>
       <c r="B401" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ফুতুব উদ্দীন</t>
+          <t>মাইনুদ্দীন হাসান জিসান</t>
         </is>
       </c>
       <c r="C401" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭৬২</t>
+          <t>১৫২৫৪৪৬৪২৭১৫</t>
         </is>
       </c>
       <c r="D401" s="4" t="inlineStr">
         <is>
-          <t>নূর আহমেদ</t>
+          <t>মোঃ শাহজাহান</t>
         </is>
       </c>
       <c r="E401" s="4" t="inlineStr">
         <is>
-          <t>জুলেখা বেগম</t>
+          <t>ফরিদা ইয়াছমিন</t>
         </is>
       </c>
       <c r="F401" s="3" t="inlineStr">
@@ -17288,207 +17288,207 @@
       </c>
       <c r="G401" s="3" t="inlineStr">
         <is>
-          <t>২০/০৩/১৯৮৪</t>
+          <t>০৪/০৮/১৯৯৯</t>
         </is>
       </c>
       <c r="H401" s="5" t="inlineStr">
         <is>
-          <t>., চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৫৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="3" t="inlineStr">
         <is>
-          <t>১২০৪</t>
+          <t>১৪৭১</t>
         </is>
       </c>
       <c r="B402" s="4" t="inlineStr">
         <is>
-          <t>ফরিদুল আলম</t>
+          <t>মোহাম্মদ নাছির উদ্দীন</t>
         </is>
       </c>
       <c r="C402" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৬২৭</t>
+          <t>১৫২৫৪৪৬৪২৫৪৪</t>
         </is>
       </c>
       <c r="D402" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আলী</t>
+          <t>মোহাম্মদ খুল মিয়া</t>
         </is>
       </c>
       <c r="E402" s="4" t="inlineStr">
         <is>
-          <t>আসিয়া খাতুন</t>
+          <t>নুরুজ্জাহান</t>
         </is>
       </c>
       <c r="F402" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G402" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৮/১৯৮২</t>
+          <t>০৮/০৬/২০০১</t>
         </is>
       </c>
       <c r="H402" s="5" t="inlineStr">
         <is>
-          <t>৪২৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="3" t="inlineStr">
         <is>
-          <t>১২২৩</t>
+          <t>১৫৭৮</t>
         </is>
       </c>
       <c r="B403" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ আলী</t>
+          <t>ছমাইন কবির</t>
         </is>
       </c>
       <c r="C403" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৬৯৫</t>
+          <t>১৫২৫৪৪৬৪২৭১২</t>
         </is>
       </c>
       <c r="D403" s="4" t="inlineStr">
         <is>
-          <t>মৃত মোজাহের আহমেদ</t>
+          <t>হারুন রশীদ</t>
         </is>
       </c>
       <c r="E403" s="4" t="inlineStr">
         <is>
-          <t>মুস্তাফা খাতুন</t>
+          <t>রৌশন আক্তার</t>
         </is>
       </c>
       <c r="F403" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G403" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৫৩</t>
+          <t>০৩/০২/২০০২</t>
         </is>
       </c>
       <c r="H403" s="5" t="inlineStr">
         <is>
-          <t>৪০৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৮৪, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="3" t="inlineStr">
         <is>
-          <t>১৭২৬</t>
+          <t>১২৩৬</t>
         </is>
       </c>
       <c r="B404" s="4" t="inlineStr">
         <is>
-          <t>দেলোয়ার হোছাইন</t>
+          <t>আব্দুল্লাহ আল নোমান</t>
         </is>
       </c>
       <c r="C404" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০১৩</t>
+          <t>১৫২৫৪৪০০০৭১৫</t>
         </is>
       </c>
       <c r="D404" s="4" t="inlineStr">
         <is>
-          <t>মৃত আজগর আলী</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E404" s="4" t="inlineStr">
         <is>
-          <t>মৃত লায়লা বেগম</t>
+          <t>শফিয়ারা বেগম</t>
         </is>
       </c>
       <c r="F404" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G404" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৭৫</t>
+          <t>০৩/০৯/১৯৯৬</t>
         </is>
       </c>
       <c r="H404" s="5" t="inlineStr">
         <is>
-          <t>৭৮৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬১৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="3" t="inlineStr">
         <is>
-          <t>১৪৪৫</t>
+          <t>১৫৭৭</t>
         </is>
       </c>
       <c r="B405" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবদুর রহমান</t>
+          <t>মোহাম্মদ রিদুয়ান</t>
         </is>
       </c>
       <c r="C405" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৯৫</t>
+          <t>১৫২৫৪৪৬৪২৭১১</t>
         </is>
       </c>
       <c r="D405" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাক আহমেদ</t>
+          <t>মুহাম্মদ জামাল উদ্দীন</t>
         </is>
       </c>
       <c r="E405" s="4" t="inlineStr">
         <is>
-          <t>কমরফিছা বেগম</t>
+          <t>মুতাহেরা বেগম</t>
         </is>
       </c>
       <c r="F405" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G405" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৮/২০০৬</t>
+          <t>০৮/১১/১৯৯৭</t>
         </is>
       </c>
       <c r="H405" s="5" t="inlineStr">
         <is>
-          <t>৪৭১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৭৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="3" t="inlineStr">
         <is>
-          <t>১৪৪৬</t>
+          <t>০৯৯৬</t>
         </is>
       </c>
       <c r="B406" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সাকিবুল ইসলাম</t>
+          <t>মোহাম্মদ আবদুল মোমিন</t>
         </is>
       </c>
       <c r="C406" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৯৬</t>
+          <t>১৫২৫৪৪০০০১৮৫</t>
         </is>
       </c>
       <c r="D406" s="4" t="inlineStr">
         <is>
-          <t>আবুল হাসেম</t>
+          <t>আবদুল মাবদ</t>
         </is>
       </c>
       <c r="E406" s="4" t="inlineStr">
         <is>
-          <t>খুরশিদা বেগম</t>
+          <t>আমেনা বেগম</t>
         </is>
       </c>
       <c r="F406" s="3" t="inlineStr">
@@ -17498,12 +17498,12 @@
       </c>
       <c r="G406" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৬/২০০৬</t>
+          <t>০১/০৩/১৯৯৪</t>
         </is>
       </c>
       <c r="H406" s="5" t="inlineStr">
         <is>
-          <t>৪৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -17594,27 +17594,27 @@
     <row r="409">
       <c r="A409" s="3" t="inlineStr">
         <is>
-          <t>১৫৩০</t>
+          <t>১৫৩১</t>
         </is>
       </c>
       <c r="B409" s="4" t="inlineStr">
         <is>
-          <t>আবুল কালাম</t>
+          <t>মোহাম্মদ আবু ছেয়দ</t>
         </is>
       </c>
       <c r="C409" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬১২</t>
+          <t>১৫২৫৪৪৬৪২৬১৩</t>
         </is>
       </c>
       <c r="D409" s="4" t="inlineStr">
         <is>
-          <t>মিয়া হোসেন</t>
+          <t>মফিজুর রহমান</t>
         </is>
       </c>
       <c r="E409" s="4" t="inlineStr">
         <is>
-          <t>জরিনা খাতুন</t>
+          <t>কফিনুর আক্তার</t>
         </is>
       </c>
       <c r="F409" s="3" t="inlineStr">
@@ -17624,12 +17624,12 @@
       </c>
       <c r="G409" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৫/১৯৯৬</t>
+          <t>০৫/০৭/২০০৩</t>
         </is>
       </c>
       <c r="H409" s="5" t="inlineStr">
         <is>
-          <t>৬৮, চকফিরানী (নতুন পাড়া), চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৩, চকফিরানী (নতুন পাড়া), চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -17678,27 +17678,27 @@
     <row r="411">
       <c r="A411" s="3" t="inlineStr">
         <is>
-          <t>১৫৩১</t>
+          <t>১৫৩০</t>
         </is>
       </c>
       <c r="B411" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবু ছেয়দ</t>
+          <t>আবুল কালাম</t>
         </is>
       </c>
       <c r="C411" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬১৩</t>
+          <t>১৫২৫৪৪৬৪২৬১২</t>
         </is>
       </c>
       <c r="D411" s="4" t="inlineStr">
         <is>
-          <t>মফিজুর রহমান</t>
+          <t>মিয়া হোসেন</t>
         </is>
       </c>
       <c r="E411" s="4" t="inlineStr">
         <is>
-          <t>কফিনুর আক্তার</t>
+          <t>জরিনা খাতুন</t>
         </is>
       </c>
       <c r="F411" s="3" t="inlineStr">
@@ -17708,12 +17708,12 @@
       </c>
       <c r="G411" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৭/২০০৩</t>
+          <t>০৩/০৫/১৯৯৬</t>
         </is>
       </c>
       <c r="H411" s="5" t="inlineStr">
         <is>
-          <t>৮৩, চকফিরানী (নতুন পাড়া), চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬৮, চকফিরানী (নতুন পাড়া), চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -17804,27 +17804,27 @@
     <row r="414">
       <c r="A414" s="3" t="inlineStr">
         <is>
-          <t>১৪৪৩</t>
+          <t>১৫৬৮</t>
         </is>
       </c>
       <c r="B414" s="4" t="inlineStr">
         <is>
-          <t>জমির উদ্দীন</t>
+          <t>মোঃ শাহেদুল ইসলাম</t>
         </is>
       </c>
       <c r="C414" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৯৩</t>
+          <t>১৫২৫৪৪৬৪২৭০২</t>
         </is>
       </c>
       <c r="D414" s="4" t="inlineStr">
         <is>
-          <t>নাছির উদ্দীন</t>
+          <t>বদিউজ্জামান</t>
         </is>
       </c>
       <c r="E414" s="4" t="inlineStr">
         <is>
-          <t>হেনুয়ারা বেগম</t>
+          <t>নূর আয়শা বেগম</t>
         </is>
       </c>
       <c r="F414" s="3" t="inlineStr">
@@ -17834,39 +17834,39 @@
       </c>
       <c r="G414" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৫/২০০৬</t>
+          <t>০৫/০১/২০০১</t>
         </is>
       </c>
       <c r="H414" s="5" t="inlineStr">
         <is>
-          <t>৭৯৩, চকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৯, চকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="3" t="inlineStr">
         <is>
-          <t>১৫৬৮</t>
+          <t>১৪৪৩</t>
         </is>
       </c>
       <c r="B415" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শাহেদুল ইসলাম</t>
+          <t>জমির উদ্দীন</t>
         </is>
       </c>
       <c r="C415" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭০২</t>
+          <t>১৫২৫৪৪০০০৯৯৩</t>
         </is>
       </c>
       <c r="D415" s="4" t="inlineStr">
         <is>
-          <t>বদিউজ্জামান</t>
+          <t>নাছির উদ্দীন</t>
         </is>
       </c>
       <c r="E415" s="4" t="inlineStr">
         <is>
-          <t>নূর আয়শা বেগম</t>
+          <t>হেনুয়ারা বেগম</t>
         </is>
       </c>
       <c r="F415" s="3" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="G415" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/২০০১</t>
+          <t>০৮/০৫/২০০৬</t>
         </is>
       </c>
       <c r="H415" s="5" t="inlineStr">
         <is>
-          <t>৮৯, চকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৯৩, চকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -18266,27 +18266,27 @@
     <row r="425">
       <c r="A425" s="3" t="inlineStr">
         <is>
-          <t>০৩৯৯</t>
+          <t>০৩৯১</t>
         </is>
       </c>
       <c r="B425" s="4" t="inlineStr">
         <is>
-          <t>আবুল বশর</t>
+          <t>ওসমান গনি</t>
         </is>
       </c>
       <c r="C425" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৯৩</t>
+          <t>১৫২৫৪৪৩৫৭৪৮৬০</t>
         </is>
       </c>
       <c r="D425" s="4" t="inlineStr">
         <is>
-          <t>আবুল হোসেন</t>
+          <t>ফয়েজ আহমদ</t>
         </is>
       </c>
       <c r="E425" s="4" t="inlineStr">
         <is>
-          <t>হাছিনা বেগম</t>
+          <t>মোস্তাফা বেগম</t>
         </is>
       </c>
       <c r="F425" s="3" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="G425" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৮/১৯৭২</t>
+          <t>০৫/০৫/১৯৮২</t>
         </is>
       </c>
       <c r="H425" s="5" t="inlineStr">
@@ -18308,27 +18308,27 @@
     <row r="426">
       <c r="A426" s="3" t="inlineStr">
         <is>
-          <t>০৩৯১</t>
+          <t>০৩৯৯</t>
         </is>
       </c>
       <c r="B426" s="4" t="inlineStr">
         <is>
-          <t>ওসমান গনি</t>
+          <t>আবুল বশর</t>
         </is>
       </c>
       <c r="C426" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮৬০</t>
+          <t>১৫২৫৪৪৩৫৭৪৯৩</t>
         </is>
       </c>
       <c r="D426" s="4" t="inlineStr">
         <is>
-          <t>ফয়েজ আহমদ</t>
+          <t>আবুল হোসেন</t>
         </is>
       </c>
       <c r="E426" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাফা বেগম</t>
+          <t>হাছিনা বেগম</t>
         </is>
       </c>
       <c r="F426" s="3" t="inlineStr">
@@ -18338,7 +18338,7 @@
       </c>
       <c r="G426" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৫/১৯৮২</t>
+          <t>০৬/০৮/১৯৭২</t>
         </is>
       </c>
       <c r="H426" s="5" t="inlineStr">
@@ -18350,27 +18350,27 @@
     <row r="427">
       <c r="A427" s="3" t="inlineStr">
         <is>
-          <t>১৮০৩</t>
+          <t>১৬৯৮</t>
         </is>
       </c>
       <c r="B427" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আরিফুল ইসলাম</t>
+          <t>মোহাম্মদ সাজ্জাদ হোসেন</t>
         </is>
       </c>
       <c r="C427" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩১১৭</t>
+          <t>১৫২৫৪৪৬৪২৯৮৫</t>
         </is>
       </c>
       <c r="D427" s="4" t="inlineStr">
         <is>
-          <t>মৃত আবুল হাশেম</t>
+          <t>মুহাম্মদ জামাল উদ্দীন</t>
         </is>
       </c>
       <c r="E427" s="4" t="inlineStr">
         <is>
-          <t>নুরুন নাহার</t>
+          <t>মুতাহেরা বেগম</t>
         </is>
       </c>
       <c r="F427" s="3" t="inlineStr">
@@ -18380,39 +18380,39 @@
       </c>
       <c r="G427" s="3" t="inlineStr">
         <is>
-          <t>৩১/০৫/২০০৩</t>
+          <t>০৫/০১/২০০৫</t>
         </is>
       </c>
       <c r="H427" s="5" t="inlineStr">
         <is>
-          <t>১৭১, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৭৭, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="3" t="inlineStr">
         <is>
-          <t>১৬৪৪</t>
+          <t>১৭৬৬</t>
         </is>
       </c>
       <c r="B428" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নজরুল ইসলাম</t>
+          <t>কায়ছার হামিদ</t>
         </is>
       </c>
       <c r="C428" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭৯৪</t>
+          <t>১৫২৫৪৪৬৪৩০০৬৫</t>
         </is>
       </c>
       <c r="D428" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ মুফিজুর রহমান</t>
+          <t>মুহাম্মদ ফজলুল কবির</t>
         </is>
       </c>
       <c r="E428" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান বেগম</t>
+          <t>খুরশিদা বেগম</t>
         </is>
       </c>
       <c r="F428" s="3" t="inlineStr">
@@ -18422,29 +18422,29 @@
       </c>
       <c r="G428" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৯৩</t>
+          <t>০৮/০৮/১৯৯৮</t>
         </is>
       </c>
       <c r="H428" s="5" t="inlineStr">
         <is>
-          <t>২৭৫, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৪৪, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="3" t="inlineStr">
         <is>
-          <t>১৭৬৬</t>
+          <t>১৭৮০</t>
         </is>
       </c>
       <c r="B429" s="4" t="inlineStr">
         <is>
-          <t>কায়ছার হামিদ</t>
+          <t>জাহেদুল ইসলাম</t>
         </is>
       </c>
       <c r="C429" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬৫</t>
+          <t>১৫২৫৪৪৬৪৩০৮০</t>
         </is>
       </c>
       <c r="D429" s="4" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="G429" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৮/১৯৯৮</t>
+          <t>০৮/০২/২০০৫</t>
         </is>
       </c>
       <c r="H429" s="5" t="inlineStr">
@@ -18476,27 +18476,27 @@
     <row r="430">
       <c r="A430" s="3" t="inlineStr">
         <is>
-          <t>১৭৬৮</t>
+          <t>১৭৬৩</t>
         </is>
       </c>
       <c r="B430" s="4" t="inlineStr">
         <is>
-          <t>আবুল কালাম</t>
+          <t>মোহাম্মদ জয়নুল আবেদীন</t>
         </is>
       </c>
       <c r="C430" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬৭</t>
+          <t>১৫২৫৪৪৬৪৩০০৬২</t>
         </is>
       </c>
       <c r="D430" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সৈয়দ</t>
+          <t>মুহাম্মদ ফজলুল কবির</t>
         </is>
       </c>
       <c r="E430" s="4" t="inlineStr">
         <is>
-          <t>জন্নত আরা বেগম</t>
+          <t>খুরশিদা বেগম</t>
         </is>
       </c>
       <c r="F430" s="3" t="inlineStr">
@@ -18506,165 +18506,165 @@
       </c>
       <c r="G430" s="3" t="inlineStr">
         <is>
-          <t>০২/০৮/২০০৩</t>
+          <t>০৮/০৯/১৯৯৯</t>
         </is>
       </c>
       <c r="H430" s="5" t="inlineStr">
         <is>
-          <t>৮৮৬, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৪৪, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="3" t="inlineStr">
         <is>
-          <t>১৮০১</t>
+          <t>১৬৬১</t>
         </is>
       </c>
       <c r="B431" s="4" t="inlineStr">
         <is>
-          <t>সাইফুর রহমান হদয়</t>
+          <t>আবদুল হবুর</t>
         </is>
       </c>
       <c r="C431" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩১১৫</t>
+          <t>১৫২৫৪৪০০১০১১</t>
         </is>
       </c>
       <c r="D431" s="4" t="inlineStr">
         <is>
-          <t>অছির উদ্দীন</t>
+          <t>মোহাম্মদ হোছেন</t>
         </is>
       </c>
       <c r="E431" s="4" t="inlineStr">
         <is>
-          <t>সাজেদা বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F431" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G431" s="3" t="inlineStr">
         <is>
-          <t>২৬/১১/২০০৩</t>
+          <t>০৩/০২/২০০৭</t>
         </is>
       </c>
       <c r="H431" s="5" t="inlineStr">
         <is>
-          <t>৩৩৯, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৩৩, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="3" t="inlineStr">
         <is>
-          <t>১৮১৩</t>
+          <t>১৭৬৮</t>
         </is>
       </c>
       <c r="B432" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মামুন রশিদ</t>
+          <t>আবুল কালাম</t>
         </is>
       </c>
       <c r="C432" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩১৩৭</t>
+          <t>১৫২৫৪৪৬৪৩০০৬৭</t>
         </is>
       </c>
       <c r="D432" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হারুন রশিদ</t>
+          <t>মোহাম্মদ সৈয়দ</t>
         </is>
       </c>
       <c r="E432" s="4" t="inlineStr">
         <is>
-          <t>রুবি আক্তার</t>
+          <t>জন্নত আরা বেগম</t>
         </is>
       </c>
       <c r="F432" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G432" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৮/১৯৯৩</t>
+          <t>০২/০৮/২০০৩</t>
         </is>
       </c>
       <c r="H432" s="5" t="inlineStr">
         <is>
-          <t>৩২৩, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৮৬, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="3" t="inlineStr">
         <is>
-          <t>১৬৪৯</t>
+          <t>১৭২৭</t>
         </is>
       </c>
       <c r="B433" s="4" t="inlineStr">
         <is>
-          <t>সিরাজুল ইসলাম</t>
+          <t>মোহাম্মদ আলী</t>
         </is>
       </c>
       <c r="C433" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭৯৯</t>
+          <t>১৫২৫৪৪৬৪৩০১৪</t>
         </is>
       </c>
       <c r="D433" s="4" t="inlineStr">
         <is>
-          <t>নুরুল কবির</t>
+          <t>মৃত আবুল হাসেম</t>
         </is>
       </c>
       <c r="E433" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>নুর নাহর বেগম</t>
         </is>
       </c>
       <c r="F433" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G433" s="3" t="inlineStr">
         <is>
-          <t>১০/০৩/১৯৮৩</t>
+          <t>০৫/০২/১৯৯৪</t>
         </is>
       </c>
       <c r="H433" s="5" t="inlineStr">
         <is>
-          <t>২৬৯, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৭১, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="3" t="inlineStr">
         <is>
-          <t>১৭৮০</t>
+          <t>১৬৪৪</t>
         </is>
       </c>
       <c r="B434" s="4" t="inlineStr">
         <is>
-          <t>জাহেদুল ইসলাম</t>
+          <t>মোহাম্মদ নজরুল ইসলাম</t>
         </is>
       </c>
       <c r="C434" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৮০</t>
+          <t>১৫২৫৪৪৬৪২৭৯৪</t>
         </is>
       </c>
       <c r="D434" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ ফজলুল কবির</t>
+          <t>মুহাম্মদ মুফিজুর রহমান</t>
         </is>
       </c>
       <c r="E434" s="4" t="inlineStr">
         <is>
-          <t>খুরশিদা বেগম</t>
+          <t>নুর জাহান বেগম</t>
         </is>
       </c>
       <c r="F434" s="3" t="inlineStr">
@@ -18674,39 +18674,39 @@
       </c>
       <c r="G434" s="3" t="inlineStr">
         <is>
-          <t>০৮/০২/২০০৫</t>
+          <t>০৫/০২/১৯৯৩</t>
         </is>
       </c>
       <c r="H434" s="5" t="inlineStr">
         <is>
-          <t>৩৪৪, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৭৫, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="3" t="inlineStr">
         <is>
-          <t>১৭৬৯</t>
+          <t>১৮০৩</t>
         </is>
       </c>
       <c r="B435" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবদুল্লাহ আল নোমান</t>
+          <t>মোহাম্মদ আরিফুল ইসলাম</t>
         </is>
       </c>
       <c r="C435" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬৮</t>
+          <t>১৫২৫৪৪৬৪৩১১৭</t>
         </is>
       </c>
       <c r="D435" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ দেরাজ</t>
+          <t>মৃত আবুল হাশেম</t>
         </is>
       </c>
       <c r="E435" s="4" t="inlineStr">
         <is>
-          <t>সামগ্রাহার</t>
+          <t>নুরুন নাহার</t>
         </is>
       </c>
       <c r="F435" s="3" t="inlineStr">
@@ -18716,81 +18716,81 @@
       </c>
       <c r="G435" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০৭</t>
+          <t>৩১/০৫/২০০৩</t>
         </is>
       </c>
       <c r="H435" s="5" t="inlineStr">
         <is>
-          <t>২৯৮, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৭১, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="3" t="inlineStr">
         <is>
-          <t>১৭৭৬</t>
+          <t>১৬৪৯</t>
         </is>
       </c>
       <c r="B436" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ওসমান গণি</t>
+          <t>সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="C436" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৭৬</t>
+          <t>১৫২৫৪৪৬৪২৭৯৯</t>
         </is>
       </c>
       <c r="D436" s="4" t="inlineStr">
         <is>
-          <t>মৃত মুহাম্মদ আলতাফ মিয়া</t>
+          <t>নুরুল কবির</t>
         </is>
       </c>
       <c r="E436" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F436" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G436" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/১৯৭৬</t>
+          <t>১০/০৩/১৯৮৩</t>
         </is>
       </c>
       <c r="H436" s="5" t="inlineStr">
         <is>
-          <t>৩৪৩, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৬৯, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="3" t="inlineStr">
         <is>
-          <t>১৭২৭</t>
+          <t>১৭৭৬</t>
         </is>
       </c>
       <c r="B437" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলী</t>
+          <t>মোহাম্মদ ওসমান গণি</t>
         </is>
       </c>
       <c r="C437" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০১৪</t>
+          <t>১৫২৫৪৪৬৪৩০০৭৬</t>
         </is>
       </c>
       <c r="D437" s="4" t="inlineStr">
         <is>
-          <t>মৃত আবুল হাসেম</t>
+          <t>মৃত মুহাম্মদ আলতাফ মিয়া</t>
         </is>
       </c>
       <c r="E437" s="4" t="inlineStr">
         <is>
-          <t>নুর নাহর বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F437" s="3" t="inlineStr">
@@ -18800,12 +18800,12 @@
       </c>
       <c r="G437" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৯৪</t>
+          <t>১০/০১/১৯৭৬</t>
         </is>
       </c>
       <c r="H437" s="5" t="inlineStr">
         <is>
-          <t>২৭১, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৪৩, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -18854,163 +18854,163 @@
     <row r="439">
       <c r="A439" s="3" t="inlineStr">
         <is>
-          <t>১৭৬৩</t>
+          <t>১৮১৩</t>
         </is>
       </c>
       <c r="B439" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জয়নুল আবেদীন</t>
+          <t>মোহাম্মদ মামুন রশিদ</t>
         </is>
       </c>
       <c r="C439" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬২</t>
+          <t>১৫২৫৪৪৬৪৩১৩৭</t>
         </is>
       </c>
       <c r="D439" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ ফজলুল কবির</t>
+          <t>মোহাম্মদ হারুন রশিদ</t>
         </is>
       </c>
       <c r="E439" s="4" t="inlineStr">
         <is>
-          <t>খুরশিদা বেগম</t>
+          <t>রুবি আক্তার</t>
         </is>
       </c>
       <c r="F439" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G439" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৯/১৯৯৯</t>
+          <t>১৭/০৮/১৯৯৩</t>
         </is>
       </c>
       <c r="H439" s="5" t="inlineStr">
         <is>
-          <t>৩৪৪, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩২৩, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="3" t="inlineStr">
         <is>
-          <t>১৬৬১</t>
+          <t>১৭৬৯</t>
         </is>
       </c>
       <c r="B440" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হবুর</t>
+          <t>মোহাম্মদ আবদুল্লাহ আল নোমান</t>
         </is>
       </c>
       <c r="C440" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০১০১১</t>
+          <t>১৫২৫৪৪৬৪৩০০৬৮</t>
         </is>
       </c>
       <c r="D440" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হোছেন</t>
+          <t>মুহাম্মদ দেরাজ</t>
         </is>
       </c>
       <c r="E440" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>সামগ্রাহার</t>
         </is>
       </c>
       <c r="F440" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G440" s="3" t="inlineStr">
         <is>
-          <t>০৩/০২/২০০৭</t>
+          <t>০১/০১/২০০৭</t>
         </is>
       </c>
       <c r="H440" s="5" t="inlineStr">
         <is>
-          <t>৮৩৩, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৯৮, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="3" t="inlineStr">
         <is>
-          <t>১৬৯৮</t>
+          <t>১৮০১</t>
         </is>
       </c>
       <c r="B441" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সাজ্জাদ হোসেন</t>
+          <t>সাইফুর রহমান হদয়</t>
         </is>
       </c>
       <c r="C441" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৯৮৫</t>
+          <t>১৫২৫৪৪৬৪৩১১৫</t>
         </is>
       </c>
       <c r="D441" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ জামাল উদ্দীন</t>
+          <t>অছির উদ্দীন</t>
         </is>
       </c>
       <c r="E441" s="4" t="inlineStr">
         <is>
-          <t>মুতাহেরা বেগম</t>
+          <t>সাজেদা বেগম</t>
         </is>
       </c>
       <c r="F441" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G441" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/২০০৫</t>
+          <t>২৬/১১/২০০৩</t>
         </is>
       </c>
       <c r="H441" s="5" t="inlineStr">
         <is>
-          <t>২৭৭, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৩৯, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="3" t="inlineStr">
         <is>
-          <t>০২০০</t>
+          <t>০১৯১</t>
         </is>
       </c>
       <c r="B442" s="4" t="inlineStr">
         <is>
-          <t>ছৈয়দ নুর</t>
+          <t>মুহাম্মদ সোলাইমান</t>
         </is>
       </c>
       <c r="C442" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৬৯২৮</t>
+          <t>১৫২৫৪৪৩৫৬৯১০</t>
         </is>
       </c>
       <c r="D442" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমেদ</t>
+          <t>মুহাম্মদ হোছেন আলী</t>
         </is>
       </c>
       <c r="E442" s="4" t="inlineStr">
         <is>
-          <t>জসুনা খাতুন</t>
+          <t>দিলজান খাতুন</t>
         </is>
       </c>
       <c r="F442" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G442" s="3" t="inlineStr">
         <is>
-          <t>১০/০৩/১৯৮০</t>
+          <t>০৫/০৩/১৯৪২</t>
         </is>
       </c>
       <c r="H442" s="5" t="inlineStr">
@@ -19022,17 +19022,17 @@
     <row r="443">
       <c r="A443" s="3" t="inlineStr">
         <is>
-          <t>০১৯১</t>
+          <t>০১৮৯</t>
         </is>
       </c>
       <c r="B443" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ সোলাইমান</t>
+          <t>মুহাম্মদ সমগুল হক</t>
         </is>
       </c>
       <c r="C443" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৬৯১০</t>
+          <t>১৫২৫৪৪৩৫৬৯০৫</t>
         </is>
       </c>
       <c r="D443" s="4" t="inlineStr">
@@ -19042,7 +19042,7 @@
       </c>
       <c r="E443" s="4" t="inlineStr">
         <is>
-          <t>দিলজান খাতুন</t>
+          <t>ওয়াজ খাতুন</t>
         </is>
       </c>
       <c r="F443" s="3" t="inlineStr">
@@ -19052,7 +19052,7 @@
       </c>
       <c r="G443" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৩/১৯৪২</t>
+          <t>১২/০৫/১৯৪৯</t>
         </is>
       </c>
       <c r="H443" s="5" t="inlineStr">
@@ -19064,37 +19064,37 @@
     <row r="444">
       <c r="A444" s="3" t="inlineStr">
         <is>
-          <t>০১৮৯</t>
+          <t>০২০০</t>
         </is>
       </c>
       <c r="B444" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ সমগুল হক</t>
+          <t>ছৈয়দ নুর</t>
         </is>
       </c>
       <c r="C444" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৬৯০৫</t>
+          <t>১৫২৫৪৪৩৫৬৯২৮</t>
         </is>
       </c>
       <c r="D444" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ হোছেন আলী</t>
+          <t>কবির আহমেদ</t>
         </is>
       </c>
       <c r="E444" s="4" t="inlineStr">
         <is>
-          <t>ওয়াজ খাতুন</t>
+          <t>জসুনা খাতুন</t>
         </is>
       </c>
       <c r="F444" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G444" s="3" t="inlineStr">
         <is>
-          <t>১২/০৫/১৯৪৯</t>
+          <t>১০/০৩/১৯৮০</t>
         </is>
       </c>
       <c r="H444" s="5" t="inlineStr">
@@ -19148,17 +19148,17 @@
     <row r="446">
       <c r="A446" s="3" t="inlineStr">
         <is>
-          <t>০৫৫৬</t>
+          <t>০৫৫৪</t>
         </is>
       </c>
       <c r="B446" s="4" t="inlineStr">
         <is>
-          <t>মহি উদ্দিন</t>
+          <t>মোহাম্মদ ইসমাইল</t>
         </is>
       </c>
       <c r="C446" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৮৯১</t>
+          <t>১৫২৫৪৪৩৫৭৮৮৬</t>
         </is>
       </c>
       <c r="D446" s="4" t="inlineStr">
@@ -19168,7 +19168,7 @@
       </c>
       <c r="E446" s="4" t="inlineStr">
         <is>
-          <t>হাবিয়া খাতুন</t>
+          <t>হাবিবা খাতুন</t>
         </is>
       </c>
       <c r="F446" s="3" t="inlineStr">
@@ -19178,7 +19178,7 @@
       </c>
       <c r="G446" s="3" t="inlineStr">
         <is>
-          <t>১৫/০২/১৯৭৫</t>
+          <t>২৫/০৬/১৯৬৬</t>
         </is>
       </c>
       <c r="H446" s="5" t="inlineStr">
@@ -19190,17 +19190,17 @@
     <row r="447">
       <c r="A447" s="3" t="inlineStr">
         <is>
-          <t>০৫৫৪</t>
+          <t>০৫৫৬</t>
         </is>
       </c>
       <c r="B447" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইসমাইল</t>
+          <t>মহি উদ্দিন</t>
         </is>
       </c>
       <c r="C447" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৮৮৬</t>
+          <t>১৫২৫৪৪৩৫৭৮৯১</t>
         </is>
       </c>
       <c r="D447" s="4" t="inlineStr">
@@ -19210,7 +19210,7 @@
       </c>
       <c r="E447" s="4" t="inlineStr">
         <is>
-          <t>হাবিবা খাতুন</t>
+          <t>হাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F447" s="3" t="inlineStr">
@@ -19220,7 +19220,7 @@
       </c>
       <c r="G447" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৬/১৯৬৬</t>
+          <t>১৫/০২/১৯৭৫</t>
         </is>
       </c>
       <c r="H447" s="5" t="inlineStr">
@@ -19568,37 +19568,37 @@
     <row r="456">
       <c r="A456" s="3" t="inlineStr">
         <is>
-          <t>০২৪০</t>
+          <t>০২৬৩</t>
         </is>
       </c>
       <c r="B456" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ওমর ফারুক</t>
+          <t>কবির আহমেদ</t>
         </is>
       </c>
       <c r="C456" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৫৭০১৫</t>
+          <t>১৫২৫৪৪৩৫৭০৭৪</t>
         </is>
       </c>
       <c r="D456" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল মম্মান</t>
+          <t>আব্দুল ছসাইন</t>
         </is>
       </c>
       <c r="E456" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>আনজুমান আরা বেগম</t>
         </is>
       </c>
       <c r="F456" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G456" s="3" t="inlineStr">
         <is>
-          <t>২০/০৫/১৯৭৪</t>
+          <t>২৭/১২/১৯৮৭</t>
         </is>
       </c>
       <c r="H456" s="5" t="inlineStr">
@@ -19610,37 +19610,37 @@
     <row r="457">
       <c r="A457" s="3" t="inlineStr">
         <is>
-          <t>০২৬২</t>
+          <t>০২৪০</t>
         </is>
       </c>
       <c r="B457" s="4" t="inlineStr">
         <is>
-          <t>নুর আহমেদ</t>
+          <t>মোহাম্মদ ওমর ফারুক</t>
         </is>
       </c>
       <c r="C457" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭০৭৩</t>
+          <t>১৫২৫৪৪৩৫৫৭০১৫</t>
         </is>
       </c>
       <c r="D457" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাফিজুর রহমান</t>
+          <t>আব্দুল মম্মান</t>
         </is>
       </c>
       <c r="E457" s="4" t="inlineStr">
         <is>
-          <t>সামন্তন নাহর</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="F457" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G457" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৬/১৯৮১</t>
+          <t>২০/০৫/১৯৭৪</t>
         </is>
       </c>
       <c r="H457" s="5" t="inlineStr">
@@ -19652,27 +19652,27 @@
     <row r="458">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>০২৬৩</t>
+          <t>০২৬২</t>
         </is>
       </c>
       <c r="B458" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমেদ</t>
+          <t>নুর আহমেদ</t>
         </is>
       </c>
       <c r="C458" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭০৭৪</t>
+          <t>১৫২৫৪৪৩৫৭০৭৩</t>
         </is>
       </c>
       <c r="D458" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল ছসাইন</t>
+          <t>মোস্তাফিজুর রহমান</t>
         </is>
       </c>
       <c r="E458" s="4" t="inlineStr">
         <is>
-          <t>আনজুমান আরা বেগম</t>
+          <t>সামন্তন নাহর</t>
         </is>
       </c>
       <c r="F458" s="3" t="inlineStr">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="G458" s="3" t="inlineStr">
         <is>
-          <t>২৭/১২/১৯৮৭</t>
+          <t>০৫/০৬/১৯৮১</t>
         </is>
       </c>
       <c r="H458" s="5" t="inlineStr">
@@ -19694,27 +19694,27 @@
     <row r="459">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>০২৫৮</t>
+          <t>০২৬৬</t>
         </is>
       </c>
       <c r="B459" s="4" t="inlineStr">
         <is>
-          <t>কামাল ছসাইন</t>
+          <t>মুহাম্মদ আব্দুল করিম</t>
         </is>
       </c>
       <c r="C459" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭০৫৯</t>
+          <t>১৫২৫৪৪৩৫৭০৮০</t>
         </is>
       </c>
       <c r="D459" s="4" t="inlineStr">
         <is>
-          <t>সোলতান আহমেদ</t>
+          <t>আব্দুল কুদ্দুছ</t>
         </is>
       </c>
       <c r="E459" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া খাতুন</t>
+          <t>আসমা খাতুন</t>
         </is>
       </c>
       <c r="F459" s="3" t="inlineStr">
@@ -19724,7 +19724,7 @@
       </c>
       <c r="G459" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৮/১৯৭৪</t>
+          <t>০৪/০৮/১৯৮২</t>
         </is>
       </c>
       <c r="H459" s="5" t="inlineStr">
@@ -19736,27 +19736,27 @@
     <row r="460">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>০২৬৬</t>
+          <t>০২৫৮</t>
         </is>
       </c>
       <c r="B460" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ আব্দুল করিম</t>
+          <t>কামাল ছসাইন</t>
         </is>
       </c>
       <c r="C460" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭০৮০</t>
+          <t>১৫২৫৪৪৩৫৭০৫৯</t>
         </is>
       </c>
       <c r="D460" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল কুদ্দুছ</t>
+          <t>সোলতান আহমেদ</t>
         </is>
       </c>
       <c r="E460" s="4" t="inlineStr">
         <is>
-          <t>আসমা খাতুন</t>
+          <t>রাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F460" s="3" t="inlineStr">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="G460" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৮/১৯৮২</t>
+          <t>০৮/০৮/১৯৭৪</t>
         </is>
       </c>
       <c r="H460" s="5" t="inlineStr">
@@ -19887,7 +19887,7 @@
       </c>
       <c r="F463" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০১/০৫/২০০৩</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G463" s="3" t="inlineStr">
@@ -19929,7 +19929,7 @@
       </c>
       <c r="F464" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১২/০৮/২০০০</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G464" s="3" t="inlineStr">
@@ -20198,111 +20198,111 @@
     <row r="471">
       <c r="A471" s="3" t="inlineStr">
         <is>
-          <t>১৬৪৭</t>
+          <t>১৬৭৮</t>
         </is>
       </c>
       <c r="B471" s="4" t="inlineStr">
         <is>
-          <t>জাহাঙ্গীর আলম</t>
+          <t>মুহাম্মদ শাহাদাত হোছন</t>
         </is>
       </c>
       <c r="C471" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭৯৭</t>
+          <t>১৫২৫৪৪০৪২৯৬৫</t>
         </is>
       </c>
       <c r="D471" s="4" t="inlineStr">
         <is>
-          <t>নাছির উদ্দিন</t>
+          <t>আবদুল মজিদ</t>
         </is>
       </c>
       <c r="E471" s="4" t="inlineStr">
         <is>
-          <t>ছেনু আরা বেগম</t>
+          <t>নুর নাহার</t>
         </is>
       </c>
       <c r="F471" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G471" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৪</t>
+          <t>০১/০১/১৯৯৩</t>
         </is>
       </c>
       <c r="H471" s="5" t="inlineStr">
         <is>
-          <t>৭৯৩, চাকফিরানী (নতুন পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১৩, চাকফিরানী (নতুন পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="3" t="inlineStr">
         <is>
-          <t>১৬৮১</t>
+          <t>১৬৪৭</t>
         </is>
       </c>
       <c r="B472" s="4" t="inlineStr">
         <is>
-          <t>আরফাত উদ্দিন</t>
+          <t>জাহাঙ্গীর আলম</t>
         </is>
       </c>
       <c r="C472" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৯৬৮</t>
+          <t>১৫২৫৪৪৬৪২৭৯৭</t>
         </is>
       </c>
       <c r="D472" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হবুব</t>
+          <t>নাছির উদ্দিন</t>
         </is>
       </c>
       <c r="E472" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>ছেনু আরা বেগম</t>
         </is>
       </c>
       <c r="F472" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G472" s="3" t="inlineStr">
         <is>
-          <t>০৬/০১/২০০৫</t>
+          <t>০১/০১/১৯৯৪</t>
         </is>
       </c>
       <c r="H472" s="5" t="inlineStr">
         <is>
-          <t>২৪০, চাকফিরানী (নতুন পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৯৩, চাকফিরানী (নতুন পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="3" t="inlineStr">
         <is>
-          <t>১৬৭৮</t>
+          <t>১৬৮১</t>
         </is>
       </c>
       <c r="B473" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ শাহাদাত হোছন</t>
+          <t>আরফাত উদ্দিন</t>
         </is>
       </c>
       <c r="C473" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৯৬৫</t>
+          <t>১৫২৫৪৪০৪২৯৬৮</t>
         </is>
       </c>
       <c r="D473" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মজিদ</t>
+          <t>আবদুল হবুব</t>
         </is>
       </c>
       <c r="E473" s="4" t="inlineStr">
         <is>
-          <t>নুর নাহার</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F473" s="3" t="inlineStr">
@@ -20312,54 +20312,54 @@
       </c>
       <c r="G473" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৩</t>
+          <t>০৬/০১/২০০৫</t>
         </is>
       </c>
       <c r="H473" s="5" t="inlineStr">
         <is>
-          <t>২১৩, চাকফিরানী (নতুন পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৪০, চাকফিরানী (নতুন পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="3" t="inlineStr">
         <is>
-          <t>১৫১৭</t>
+          <t>১৫১৫</t>
         </is>
       </c>
       <c r="B474" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নুরুল আবহার</t>
+          <t>আবু ছেয়দ</t>
         </is>
       </c>
       <c r="C474" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৯৯</t>
+          <t>১৫২৫৪৪৬৪২৫৯৭</t>
         </is>
       </c>
       <c r="D474" s="4" t="inlineStr">
         <is>
-          <t>মকবুল আহমেদ</t>
+          <t>আবদুল মাবদ</t>
         </is>
       </c>
       <c r="E474" s="4" t="inlineStr">
         <is>
-          <t>নুরুমাহার বেগম</t>
+          <t>শামসুমাহার</t>
         </is>
       </c>
       <c r="F474" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G474" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৭/১৯৭৪</t>
+          <t>০৫/০৩/২০০২</t>
         </is>
       </c>
       <c r="H474" s="5" t="inlineStr">
         <is>
-          <t>৭৮০, চাকফিরানী (নতুন পাড়া), বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২২৭, চাকফিরানী (নতুন পাড়া), বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -20408,79 +20408,79 @@
     <row r="476">
       <c r="A476" s="3" t="inlineStr">
         <is>
-          <t>১৫১৫</t>
+          <t>১৫১৭</t>
         </is>
       </c>
       <c r="B476" s="4" t="inlineStr">
         <is>
-          <t>আবু ছেয়দ</t>
+          <t>মোঃ নুরুল আবহার</t>
         </is>
       </c>
       <c r="C476" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৯৭</t>
+          <t>১৫২৫৪৪৬৪২৫৯৯</t>
         </is>
       </c>
       <c r="D476" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মাবদ</t>
+          <t>মকবুল আহমেদ</t>
         </is>
       </c>
       <c r="E476" s="4" t="inlineStr">
         <is>
-          <t>শামসুমাহার</t>
+          <t>নুরুমাহার বেগম</t>
         </is>
       </c>
       <c r="F476" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী জন্ম তারিখ: ০৫/০৩/২০০২</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G476" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৩/২০০২</t>
+          <t>০৭/০৭/১৯৭৪</t>
         </is>
       </c>
       <c r="H476" s="5" t="inlineStr">
         <is>
-          <t>২২৭, চাকফিরানী (নতুন পাড়া), বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৮০, চাকফিরানী (নতুন পাড়া), বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="3" t="inlineStr">
         <is>
-          <t>০৪০০</t>
+          <t>০৪১৫</t>
         </is>
       </c>
       <c r="B477" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>সাহাব উদ্দীন</t>
         </is>
       </c>
       <c r="C477" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫০২</t>
+          <t>১৫২৫৪৪৩৫৭৫৪৩</t>
         </is>
       </c>
       <c r="D477" s="4" t="inlineStr">
         <is>
-          <t>আবুল হাসেম</t>
+          <t>নুরুল হুকা</t>
         </is>
       </c>
       <c r="E477" s="4" t="inlineStr">
         <is>
-          <t>লাইলা বেগম</t>
+          <t>নুরুজ জাহান</t>
         </is>
       </c>
       <c r="F477" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G477" s="3" t="inlineStr">
         <is>
-          <t>১০/০৬/১৯৭২</t>
+          <t>১০/০২/১৯৮৯</t>
         </is>
       </c>
       <c r="H477" s="5" t="inlineStr">
@@ -20492,27 +20492,27 @@
     <row r="478">
       <c r="A478" s="3" t="inlineStr">
         <is>
-          <t>০৪২৯</t>
+          <t>০৩৮৫</t>
         </is>
       </c>
       <c r="B478" s="4" t="inlineStr">
         <is>
-          <t>মনির আহমদ</t>
+          <t>আবদুল হামিদ</t>
         </is>
       </c>
       <c r="C478" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৬৯</t>
+          <t>১৫২৫৪৪৩৫৭৪৮৪৫</t>
         </is>
       </c>
       <c r="D478" s="4" t="inlineStr">
         <is>
-          <t>নজির আহমদ</t>
+          <t>ফয়েজ আহম</t>
         </is>
       </c>
       <c r="E478" s="4" t="inlineStr">
         <is>
-          <t>আবিয়া খাতুন</t>
+          <t>মজলিস খাতুন</t>
         </is>
       </c>
       <c r="F478" s="3" t="inlineStr">
@@ -20522,7 +20522,7 @@
       </c>
       <c r="G478" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৭/১৯৮০</t>
+          <t>০১/০২/১৯৬২</t>
         </is>
       </c>
       <c r="H478" s="5" t="inlineStr">
@@ -20534,27 +20534,27 @@
     <row r="479">
       <c r="A479" s="3" t="inlineStr">
         <is>
-          <t>০৩৮৫</t>
+          <t>০৩৯২</t>
         </is>
       </c>
       <c r="B479" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হামিদ</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="C479" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮৪৫</t>
+          <t>১৫২৫৪৪৩৫৭৪৮৬১</t>
         </is>
       </c>
       <c r="D479" s="4" t="inlineStr">
         <is>
-          <t>ফয়েজ আহম</t>
+          <t>আবদুল কাদের</t>
         </is>
       </c>
       <c r="E479" s="4" t="inlineStr">
         <is>
-          <t>মজলিস খাতুন</t>
+          <t>আয়শা খাতুন</t>
         </is>
       </c>
       <c r="F479" s="3" t="inlineStr">
@@ -20564,7 +20564,7 @@
       </c>
       <c r="G479" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৬২</t>
+          <t>৩০/০১/১৯৬৭</t>
         </is>
       </c>
       <c r="H479" s="5" t="inlineStr">
@@ -20576,27 +20576,27 @@
     <row r="480">
       <c r="A480" s="3" t="inlineStr">
         <is>
-          <t>০৪১৫</t>
+          <t>০৩৯৩</t>
         </is>
       </c>
       <c r="B480" s="4" t="inlineStr">
         <is>
-          <t>সাহাব উদ্দীন</t>
+          <t>মুহাম্মদ সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="C480" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৪৩</t>
+          <t>১৫২৫৪৪৩৫৭৪৮৬২</t>
         </is>
       </c>
       <c r="D480" s="4" t="inlineStr">
         <is>
-          <t>নুরুল হুকা</t>
+          <t>এবাদুল্লাহ</t>
         </is>
       </c>
       <c r="E480" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ জাহান</t>
+          <t>ছুফিয়া বেগম</t>
         </is>
       </c>
       <c r="F480" s="3" t="inlineStr">
@@ -20606,7 +20606,7 @@
       </c>
       <c r="G480" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৮৯</t>
+          <t>০১/০১/১৯৬৩</t>
         </is>
       </c>
       <c r="H480" s="5" t="inlineStr">
@@ -20618,37 +20618,37 @@
     <row r="481">
       <c r="A481" s="3" t="inlineStr">
         <is>
-          <t>০৩৭৮</t>
+          <t>০৪৩১</t>
         </is>
       </c>
       <c r="B481" s="4" t="inlineStr">
         <is>
-          <t>আবুল খাইর</t>
+          <t>আবদুল মজিদ</t>
         </is>
       </c>
       <c r="C481" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮২৩</t>
+          <t>১৫২৫৪৪৩৫৭৫৭১</t>
         </is>
       </c>
       <c r="D481" s="4" t="inlineStr">
         <is>
-          <t>তোরাব উদ্দীন</t>
+          <t>আলী আহমদ</t>
         </is>
       </c>
       <c r="E481" s="4" t="inlineStr">
         <is>
-          <t>হালিমা খাতুন</t>
+          <t>ছফুয়া খাতুন</t>
         </is>
       </c>
       <c r="F481" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G481" s="3" t="inlineStr">
         <is>
-          <t>১১/১০/১৯৬২</t>
+          <t>০৮/০৬/১৯৮৭</t>
         </is>
       </c>
       <c r="H481" s="5" t="inlineStr">
@@ -20660,37 +20660,37 @@
     <row r="482">
       <c r="A482" s="3" t="inlineStr">
         <is>
-          <t>০৩৭৬</t>
+          <t>০৪১২</t>
         </is>
       </c>
       <c r="B482" s="4" t="inlineStr">
         <is>
-          <t>সিরাজ মিয়া</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="C482" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮১৯</t>
+          <t>১৫২৫৪৪৩৫৭৫৩৪</t>
         </is>
       </c>
       <c r="D482" s="4" t="inlineStr">
         <is>
-          <t>দুদু মিয়া</t>
+          <t>আহমেদ আলী</t>
         </is>
       </c>
       <c r="E482" s="4" t="inlineStr">
         <is>
-          <t>ফিরোজা খাতুন</t>
+          <t>তাজ নিছা</t>
         </is>
       </c>
       <c r="F482" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G482" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৪/১৯৩৭</t>
+          <t>০৭/০৮/১৯৬৭</t>
         </is>
       </c>
       <c r="H482" s="5" t="inlineStr">
@@ -20702,37 +20702,37 @@
     <row r="483">
       <c r="A483" s="3" t="inlineStr">
         <is>
-          <t>০৪১২</t>
+          <t>০৩৭৮</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>আবুল খাইর</t>
         </is>
       </c>
       <c r="C483" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৩৪</t>
+          <t>১৫২৫৪৪৩৫৭৪৮২৩</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ আলী</t>
+          <t>তোরাব উদ্দীন</t>
         </is>
       </c>
       <c r="E483" s="4" t="inlineStr">
         <is>
-          <t>তাজ নিছা</t>
+          <t>হালিমা খাতুন</t>
         </is>
       </c>
       <c r="F483" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G483" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৮/১৯৬৭</t>
+          <t>১১/১০/১৯৬২</t>
         </is>
       </c>
       <c r="H483" s="5" t="inlineStr">
@@ -20744,37 +20744,37 @@
     <row r="484">
       <c r="A484" s="3" t="inlineStr">
         <is>
-          <t>০৩৯৩</t>
+          <t>০৩৭৬</t>
         </is>
       </c>
       <c r="B484" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ সিরাজুল ইসলাম</t>
+          <t>সিরাজ মিয়া</t>
         </is>
       </c>
       <c r="C484" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮৬২</t>
+          <t>১৫২৫৪৪৩৫৭৪৮১৯</t>
         </is>
       </c>
       <c r="D484" s="4" t="inlineStr">
         <is>
-          <t>এবাদুল্লাহ</t>
+          <t>দুদু মিয়া</t>
         </is>
       </c>
       <c r="E484" s="4" t="inlineStr">
         <is>
-          <t>ছুফিয়া বেগম</t>
+          <t>ফিরোজা খাতুন</t>
         </is>
       </c>
       <c r="F484" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G484" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৬৩</t>
+          <t>০৩/০৪/১৯৩৭</t>
         </is>
       </c>
       <c r="H484" s="5" t="inlineStr">
@@ -20786,37 +20786,37 @@
     <row r="485">
       <c r="A485" s="3" t="inlineStr">
         <is>
-          <t>০৪৩১</t>
+          <t>০৪২৭</t>
         </is>
       </c>
       <c r="B485" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মজিদ</t>
+          <t>হাবিবুর রহমান</t>
         </is>
       </c>
       <c r="C485" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৭১</t>
+          <t>১৫২৫৪৪৩৫৭৫৬৭</t>
         </is>
       </c>
       <c r="D485" s="4" t="inlineStr">
         <is>
-          <t>আলী আহমদ</t>
+          <t>লালা মিয়া</t>
         </is>
       </c>
       <c r="E485" s="4" t="inlineStr">
         <is>
-          <t>ছফুয়া খাতুন</t>
+          <t>হাফেজা খাতুন</t>
         </is>
       </c>
       <c r="F485" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G485" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৬/১৯৮৭</t>
+          <t>১০/০৬/১৯৭২</t>
         </is>
       </c>
       <c r="H485" s="5" t="inlineStr">
@@ -20912,27 +20912,27 @@
     <row r="488">
       <c r="A488" s="3" t="inlineStr">
         <is>
-          <t>০৪১১</t>
+          <t>০৪০১</t>
         </is>
       </c>
       <c r="B488" s="4" t="inlineStr">
         <is>
-          <t>নাছির উদ্দীন</t>
+          <t>আহমাদ হোছাইন</t>
         </is>
       </c>
       <c r="C488" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৩৩</t>
+          <t>১৫২৫৪৪৩৫৭৫০৮</t>
         </is>
       </c>
       <c r="D488" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>এবদুল্লাহ</t>
         </is>
       </c>
       <c r="E488" s="4" t="inlineStr">
         <is>
-          <t>হালিমা খাতুন</t>
+          <t>ছুফিয়া খাতুন</t>
         </is>
       </c>
       <c r="F488" s="3" t="inlineStr">
@@ -20942,7 +20942,7 @@
       </c>
       <c r="G488" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৮/১৯৮০</t>
+          <t>০৩/০৮/১৯৮৮</t>
         </is>
       </c>
       <c r="H488" s="5" t="inlineStr">
@@ -20954,37 +20954,37 @@
     <row r="489">
       <c r="A489" s="3" t="inlineStr">
         <is>
-          <t>০৪২৭</t>
+          <t>০৪২৫</t>
         </is>
       </c>
       <c r="B489" s="4" t="inlineStr">
         <is>
-          <t>হাবিবুর রহমান</t>
+          <t>বাহার উদ্দীন</t>
         </is>
       </c>
       <c r="C489" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৬৭</t>
+          <t>১৫২৫৪৪৩৫৭৫৬৫</t>
         </is>
       </c>
       <c r="D489" s="4" t="inlineStr">
         <is>
-          <t>লালা মিয়া</t>
+          <t>নুরুল হুকা</t>
         </is>
       </c>
       <c r="E489" s="4" t="inlineStr">
         <is>
-          <t>হাফেজা খাতুন</t>
+          <t>নুরুজ জাহান</t>
         </is>
       </c>
       <c r="F489" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G489" s="3" t="inlineStr">
         <is>
-          <t>১০/০৬/১৯৭২</t>
+          <t>১২/০৬/১৯৮৫</t>
         </is>
       </c>
       <c r="H489" s="5" t="inlineStr">
@@ -20996,37 +20996,37 @@
     <row r="490">
       <c r="A490" s="3" t="inlineStr">
         <is>
-          <t>০৪২৫</t>
+          <t>০৪০০</t>
         </is>
       </c>
       <c r="B490" s="4" t="inlineStr">
         <is>
-          <t>বাহার উদ্দীন</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="C490" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৬৫</t>
+          <t>১৫২৫৪৪৩৫৭৫০২</t>
         </is>
       </c>
       <c r="D490" s="4" t="inlineStr">
         <is>
-          <t>নুরুল হুকা</t>
+          <t>আবুল হাসেম</t>
         </is>
       </c>
       <c r="E490" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ জাহান</t>
+          <t>লাইলা বেগম</t>
         </is>
       </c>
       <c r="F490" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G490" s="3" t="inlineStr">
         <is>
-          <t>১২/০৬/১৯৮৫</t>
+          <t>১০/০৬/১৯৭২</t>
         </is>
       </c>
       <c r="H490" s="5" t="inlineStr">
@@ -21038,37 +21038,37 @@
     <row r="491">
       <c r="A491" s="3" t="inlineStr">
         <is>
-          <t>০৩৯২</t>
+          <t>০৭৪০</t>
         </is>
       </c>
       <c r="B491" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>মোঃ আলমগীর</t>
         </is>
       </c>
       <c r="C491" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮৬১</t>
+          <t>১৫২৫৪৪৬৪২৪৬৭</t>
         </is>
       </c>
       <c r="D491" s="4" t="inlineStr">
         <is>
-          <t>আবদুল কাদের</t>
+          <t>আবু বকর</t>
         </is>
       </c>
       <c r="E491" s="4" t="inlineStr">
         <is>
-          <t>আয়শা খাতুন</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F491" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G491" s="3" t="inlineStr">
         <is>
-          <t>৩০/০১/১৯৬৭</t>
+          <t>০১/০৩/১৯৮৭</t>
         </is>
       </c>
       <c r="H491" s="5" t="inlineStr">
@@ -21080,37 +21080,37 @@
     <row r="492">
       <c r="A492" s="3" t="inlineStr">
         <is>
-          <t>০৭৪০</t>
+          <t>০৪২৯</t>
         </is>
       </c>
       <c r="B492" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আলমগীর</t>
+          <t>মনির আহমদ</t>
         </is>
       </c>
       <c r="C492" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৪৬৭</t>
+          <t>১৫২৫৪৪৩৫৭৫৬৯</t>
         </is>
       </c>
       <c r="D492" s="4" t="inlineStr">
         <is>
-          <t>আবু বকর</t>
+          <t>নজির আহমদ</t>
         </is>
       </c>
       <c r="E492" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>আবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F492" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G492" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৮৭</t>
+          <t>০৬/০৭/১৯৮০</t>
         </is>
       </c>
       <c r="H492" s="5" t="inlineStr">
@@ -21122,27 +21122,27 @@
     <row r="493">
       <c r="A493" s="3" t="inlineStr">
         <is>
-          <t>০৪০১</t>
+          <t>০৪১১</t>
         </is>
       </c>
       <c r="B493" s="4" t="inlineStr">
         <is>
-          <t>আহমাদ হোছাইন</t>
+          <t>নাছির উদ্দীন</t>
         </is>
       </c>
       <c r="C493" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫০৮</t>
+          <t>১৫২৫৪৪৩৫৭৫৩৩</t>
         </is>
       </c>
       <c r="D493" s="4" t="inlineStr">
         <is>
-          <t>এবদুল্লাহ</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="E493" s="4" t="inlineStr">
         <is>
-          <t>ছুফিয়া খাতুন</t>
+          <t>হালিমা খাতুন</t>
         </is>
       </c>
       <c r="F493" s="3" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="G493" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৮/১৯৮৮</t>
+          <t>০৯/০৮/১৯৮০</t>
         </is>
       </c>
       <c r="H493" s="5" t="inlineStr">
@@ -21290,42 +21290,42 @@
     <row r="497">
       <c r="A497" s="3" t="inlineStr">
         <is>
-          <t>১৪৯৭</t>
+          <t>১৭০৬</t>
         </is>
       </c>
       <c r="B497" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রিয়াদ হোসেন</t>
+          <t>মোহাম্মদ শাহ আলম</t>
         </is>
       </c>
       <c r="C497" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৭৯</t>
+          <t>১৫২৫৪৪৬৪২৯৯৩</t>
         </is>
       </c>
       <c r="D497" s="4" t="inlineStr">
         <is>
-          <t>নূর আহমেদ</t>
+          <t>মৃত আহসান মিয়া</t>
         </is>
       </c>
       <c r="E497" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>রিনা আক্তার</t>
         </is>
       </c>
       <c r="F497" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G497" s="3" t="inlineStr">
         <is>
-          <t>০৭/০২/২০০৩</t>
+          <t>০৯/০১/১৯৭৯</t>
         </is>
       </c>
       <c r="H497" s="5" t="inlineStr">
         <is>
-          <t>২৮১, চাকফিরানী আমির বাপের পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৫৫, চাকফিরানী আমির বাপের পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -21374,42 +21374,42 @@
     <row r="499">
       <c r="A499" s="3" t="inlineStr">
         <is>
-          <t>১৭০৬</t>
+          <t>১৪৯৭</t>
         </is>
       </c>
       <c r="B499" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ শাহ আলম</t>
+          <t>মোহাম্মদ রিয়াদ হোসেন</t>
         </is>
       </c>
       <c r="C499" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৯৯৩</t>
+          <t>১৫২৫৪৪৬৪২৫৭৯</t>
         </is>
       </c>
       <c r="D499" s="4" t="inlineStr">
         <is>
-          <t>মৃত আহসান মিয়া</t>
+          <t>নূর আহমেদ</t>
         </is>
       </c>
       <c r="E499" s="4" t="inlineStr">
         <is>
-          <t>রিনা আক্তার</t>
+          <t>রেহেনা আক্তার</t>
         </is>
       </c>
       <c r="F499" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G499" s="3" t="inlineStr">
         <is>
-          <t>০৯/০১/১৯৭৯</t>
+          <t>০৭/০২/২০০৩</t>
         </is>
       </c>
       <c r="H499" s="5" t="inlineStr">
         <is>
-          <t>২৫৫, চাকফিরানী আমির বাপের পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৮১, চাকফিরানী আমির বাপের পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -21500,27 +21500,27 @@
     <row r="502">
       <c r="A502" s="3" t="inlineStr">
         <is>
-          <t>১৪৩৭</t>
+          <t>১৪১৫</t>
         </is>
       </c>
       <c r="B502" s="4" t="inlineStr">
         <is>
-          <t>এমরানুল হক</t>
+          <t>রিয়াদ হোসেন</t>
         </is>
       </c>
       <c r="C502" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৮৭</t>
+          <t>১৫২৫৪৪০০০৯৫৭</t>
         </is>
       </c>
       <c r="D502" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>আব্দুল জব্বার</t>
         </is>
       </c>
       <c r="E502" s="4" t="inlineStr">
         <is>
-          <t>পারভীন আক্তার</t>
+          <t>আয়েশা বেগম</t>
         </is>
       </c>
       <c r="F502" s="3" t="inlineStr">
@@ -21530,39 +21530,39 @@
       </c>
       <c r="G502" s="3" t="inlineStr">
         <is>
-          <t>০৪/০১/২০০৬</t>
+          <t>০১/১১/২০০২</t>
         </is>
       </c>
       <c r="H502" s="5" t="inlineStr">
         <is>
-          <t>৩১, চাকফিরানী কালি নগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৬, চাকফিরানী কালি নগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="3" t="inlineStr">
         <is>
-          <t>১৪১৫</t>
+          <t>১৪৩৭</t>
         </is>
       </c>
       <c r="B503" s="4" t="inlineStr">
         <is>
-          <t>রিয়াদ হোসেন</t>
+          <t>এমরানুল হক</t>
         </is>
       </c>
       <c r="C503" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৫৭</t>
+          <t>১৫২৫৪৪০০০৯৮৭</t>
         </is>
       </c>
       <c r="D503" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল জব্বার</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="E503" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা বেগম</t>
+          <t>পারভীন আক্তার</t>
         </is>
       </c>
       <c r="F503" s="3" t="inlineStr">
@@ -21572,12 +21572,12 @@
       </c>
       <c r="G503" s="3" t="inlineStr">
         <is>
-          <t>০১/১১/২০০২</t>
+          <t>০৪/০১/২০০৬</t>
         </is>
       </c>
       <c r="H503" s="5" t="inlineStr">
         <is>
-          <t>৫৬, চাকফিরানী কালি নগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩১, চাকফিরানী কালি নগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -21920,69 +21920,69 @@
     <row r="512">
       <c r="A512" s="3" t="inlineStr">
         <is>
-          <t>১৫১৬</t>
+          <t>১৫২৬</t>
         </is>
       </c>
       <c r="B512" s="4" t="inlineStr">
         <is>
-          <t>জালাল আহমেদ</t>
+          <t>মাইনুদ্দিন হাসান</t>
         </is>
       </c>
       <c r="C512" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৯৮</t>
+          <t>১৫২৫৪৪৬৪২৬০৮</t>
         </is>
       </c>
       <c r="D512" s="4" t="inlineStr">
         <is>
-          <t>আবদু ছবুর</t>
+          <t>ইমাম হোসেন</t>
         </is>
       </c>
       <c r="E512" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>মোসলেমা খাতুন</t>
         </is>
       </c>
       <c r="F512" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G512" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৭/১৯৯৫</t>
+          <t>২০/০২/২০০১</t>
         </is>
       </c>
       <c r="H512" s="5" t="inlineStr">
         <is>
-          <t>২৪০, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৯১, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="3" t="inlineStr">
         <is>
-          <t>১৪৯২</t>
+          <t>১৫১১</t>
         </is>
       </c>
       <c r="B513" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ফরিদুল ইসলাম</t>
+          <t>মোঃ জাহেদ</t>
         </is>
       </c>
       <c r="C513" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৭৪</t>
+          <t>১৫২৫৪৪৬৪২৫৯৩</t>
         </is>
       </c>
       <c r="D513" s="4" t="inlineStr">
         <is>
-          <t>আবদুল আজিজ</t>
+          <t>বদিউজ্জামান</t>
         </is>
       </c>
       <c r="E513" s="4" t="inlineStr">
         <is>
-          <t>দিলোয়ারা বেগম</t>
+          <t>নুর আয়শা বেগম</t>
         </is>
       </c>
       <c r="F513" s="3" t="inlineStr">
@@ -21992,81 +21992,81 @@
       </c>
       <c r="G513" s="3" t="inlineStr">
         <is>
-          <t>০৮/০২/২০০৩</t>
+          <t>০১/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="H513" s="5" t="inlineStr">
         <is>
-          <t>২১১, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৯, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="3" t="inlineStr">
         <is>
-          <t>১৬৮২</t>
+          <t>১৫১৬</t>
         </is>
       </c>
       <c r="B514" s="4" t="inlineStr">
         <is>
-          <t>জাহেদুল ইসলাম</t>
+          <t>জালাল আহমেদ</t>
         </is>
       </c>
       <c r="C514" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৯৬৯</t>
+          <t>১৫২৫৪৪৬৪২৫৯৮</t>
         </is>
       </c>
       <c r="D514" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ হোছাইন</t>
+          <t>আবদু ছবুর</t>
         </is>
       </c>
       <c r="E514" s="4" t="inlineStr">
         <is>
-          <t>জন্নাতুল ফেরদৌস</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F514" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G514" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৯৯</t>
+          <t>০৬/০৭/১৯৯৫</t>
         </is>
       </c>
       <c r="H514" s="5" t="inlineStr">
         <is>
-          <t>৭৫, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৪০, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="3" t="inlineStr">
         <is>
-          <t>১৫১১</t>
+          <t>১৬৮২</t>
         </is>
       </c>
       <c r="B515" s="4" t="inlineStr">
         <is>
-          <t>মোঃ জাহেদ</t>
+          <t>জাহেদুল ইসলাম</t>
         </is>
       </c>
       <c r="C515" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৯৩</t>
+          <t>১৫২৫৪৪০৪২৯৬৯</t>
         </is>
       </c>
       <c r="D515" s="4" t="inlineStr">
         <is>
-          <t>বদিউজ্জামান</t>
+          <t>আহমেদ হোছাইন</t>
         </is>
       </c>
       <c r="E515" s="4" t="inlineStr">
         <is>
-          <t>নুর আয়শা বেগম</t>
+          <t>জন্নাতুল ফেরদৌস</t>
         </is>
       </c>
       <c r="F515" s="3" t="inlineStr">
@@ -22076,39 +22076,39 @@
       </c>
       <c r="G515" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৭</t>
+          <t>০১/০৫/১৯৯৯</t>
         </is>
       </c>
       <c r="H515" s="5" t="inlineStr">
         <is>
-          <t>৮৯, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৫, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬</t>
+          <t>১৪২৫</t>
         </is>
       </c>
       <c r="B516" s="4" t="inlineStr">
         <is>
-          <t>মাইনুদ্দিন হাসান</t>
+          <t>মোহাম্মদ রিগন</t>
         </is>
       </c>
       <c r="C516" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬০৮</t>
+          <t>১৫২৫৪৪০০০৯৭০</t>
         </is>
       </c>
       <c r="D516" s="4" t="inlineStr">
         <is>
-          <t>ইমাম হোসেন</t>
+          <t>মোঃ ফেরদৌস</t>
         </is>
       </c>
       <c r="E516" s="4" t="inlineStr">
         <is>
-          <t>মোসলেমা খাতুন</t>
+          <t>শাহিনা আক্তার</t>
         </is>
       </c>
       <c r="F516" s="3" t="inlineStr">
@@ -22118,39 +22118,39 @@
       </c>
       <c r="G516" s="3" t="inlineStr">
         <is>
-          <t>২০/০২/২০০১</t>
+          <t>১০/১০/২০০৫</t>
         </is>
       </c>
       <c r="H516" s="5" t="inlineStr">
         <is>
-          <t>১৯১, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৮৯, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="3" t="inlineStr">
         <is>
-          <t>১৪২৫</t>
+          <t>১৪৯২</t>
         </is>
       </c>
       <c r="B517" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রিগন</t>
+          <t>মোহাম্মদ ফরিদুল ইসলাম</t>
         </is>
       </c>
       <c r="C517" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৭০</t>
+          <t>১৫২৫৪৪৬৪২৫৭৪</t>
         </is>
       </c>
       <c r="D517" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ফেরদৌস</t>
+          <t>আবদুল আজিজ</t>
         </is>
       </c>
       <c r="E517" s="4" t="inlineStr">
         <is>
-          <t>শাহিনা আক্তার</t>
+          <t>দিলোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F517" s="3" t="inlineStr">
@@ -22160,123 +22160,123 @@
       </c>
       <c r="G517" s="3" t="inlineStr">
         <is>
-          <t>১০/১০/২০০৫</t>
+          <t>০৮/০২/২০০৩</t>
         </is>
       </c>
       <c r="H517" s="5" t="inlineStr">
         <is>
-          <t>৭৮৯, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১১, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="3" t="inlineStr">
         <is>
-          <t>১৭৫১</t>
+          <t>১৪২৯</t>
         </is>
       </c>
       <c r="B518" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ফরহাদ</t>
+          <t>মোহাম্মদ মাহি উদ্দীন</t>
         </is>
       </c>
       <c r="C518" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৩৮</t>
+          <t>১৫২৫৪৪০০০৯৭৬</t>
         </is>
       </c>
       <c r="D518" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ মোস্তাক</t>
+          <t>মোহাম্মদ আসহাব উদ্দীন</t>
         </is>
       </c>
       <c r="E518" s="4" t="inlineStr">
         <is>
-          <t>জুলেহা বেগম</t>
+          <t>মোহাম্মদ নুরুল হাসান</t>
         </is>
       </c>
       <c r="F518" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G518" s="3" t="inlineStr">
         <is>
-          <t>০২/০৬/২০০৮</t>
+          <t>০৯/০২/২০০৫</t>
         </is>
       </c>
       <c r="H518" s="5" t="inlineStr">
         <is>
-          <t>২৩১, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৯৫, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="3" t="inlineStr">
         <is>
-          <t>১৬৬৯</t>
+          <t>১৭৫১</t>
         </is>
       </c>
       <c r="B519" s="4" t="inlineStr">
         <is>
-          <t>রবিউল হাসান আকিব</t>
+          <t>মোহাম্মদ ফরহাদ</t>
         </is>
       </c>
       <c r="C519" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০১০২১</t>
+          <t>১৫২৫৪৪৬৪৩০৩৮</t>
         </is>
       </c>
       <c r="D519" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইছমাইল</t>
+          <t>মুহাম্মদ মোস্তাক</t>
         </is>
       </c>
       <c r="E519" s="4" t="inlineStr">
         <is>
-          <t>কাহিনুর আক্তার</t>
+          <t>জুলেহা বেগম</t>
         </is>
       </c>
       <c r="F519" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G519" s="3" t="inlineStr">
         <is>
-          <t>১০/০৯/২০০৭</t>
+          <t>০২/০৬/২০০৮</t>
         </is>
       </c>
       <c r="H519" s="5" t="inlineStr">
         <is>
-          <t>২০৫, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৩১, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="3" t="inlineStr">
         <is>
-          <t>১৪২৯</t>
+          <t>১৫২৪</t>
         </is>
       </c>
       <c r="B520" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মাহি উদ্দীন</t>
+          <t>মনছুর আলম</t>
         </is>
       </c>
       <c r="C520" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৭৬</t>
+          <t>১৫২৫৪৪৬৪২৬০৬</t>
         </is>
       </c>
       <c r="D520" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আসহাব উদ্দীন</t>
+          <t>আমির আহমেদ</t>
         </is>
       </c>
       <c r="E520" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নুরুল হাসান</t>
+          <t>কুনসুমা খাতুন</t>
         </is>
       </c>
       <c r="F520" s="3" t="inlineStr">
@@ -22286,39 +22286,39 @@
       </c>
       <c r="G520" s="3" t="inlineStr">
         <is>
-          <t>০৯/০২/২০০৫</t>
+          <t>১০/০৫/১৯৯০</t>
         </is>
       </c>
       <c r="H520" s="5" t="inlineStr">
         <is>
-          <t>৯৫, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৯৭, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="3" t="inlineStr">
         <is>
-          <t>১৬৬৩</t>
+          <t>১৬৬৯</t>
         </is>
       </c>
       <c r="B521" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আকতার জ্জামান</t>
+          <t>রবিউল হাসান আকিব</t>
         </is>
       </c>
       <c r="C521" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০১০১৩</t>
+          <t>১৫২৫৪৪০০১০২১</t>
         </is>
       </c>
       <c r="D521" s="4" t="inlineStr">
         <is>
-          <t>জয়নাল আবেদীন</t>
+          <t>মোহাম্মদ ইছমাইল</t>
         </is>
       </c>
       <c r="E521" s="4" t="inlineStr">
         <is>
-          <t>আরেফা বেগম</t>
+          <t>কাহিনুর আক্তার</t>
         </is>
       </c>
       <c r="F521" s="3" t="inlineStr">
@@ -22328,81 +22328,81 @@
       </c>
       <c r="G521" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৬/২০০৭</t>
+          <t>১০/০৯/২০০৭</t>
         </is>
       </c>
       <c r="H521" s="5" t="inlineStr">
         <is>
-          <t>২১৬, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২০৫, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="3" t="inlineStr">
         <is>
-          <t>১৫০৯</t>
+          <t>১৫১২</t>
         </is>
       </c>
       <c r="B522" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সোহেল উদ্দীন</t>
+          <t>কাইছার উদ্দীন</t>
         </is>
       </c>
       <c r="C522" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৯১</t>
+          <t>১৫২৫৪৪৬৪২৫৯৪</t>
         </is>
       </c>
       <c r="D522" s="4" t="inlineStr">
         <is>
-          <t>মৃত আব্দুল রশীদ</t>
+          <t>হৈদের হোসাইন</t>
         </is>
       </c>
       <c r="E522" s="4" t="inlineStr">
         <is>
-          <t>মনজু আরা বেগম</t>
+          <t>আয়শা বেগম</t>
         </is>
       </c>
       <c r="F522" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G522" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৭/২০০৩</t>
+          <t>২৫/০৬/১৯৯৬</t>
         </is>
       </c>
       <c r="H522" s="5" t="inlineStr">
         <is>
-          <t>৮৬, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৯৬, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪</t>
+          <t>১৫০৯</t>
         </is>
       </c>
       <c r="B523" s="4" t="inlineStr">
         <is>
-          <t>মনছুর আলম</t>
+          <t>মোহাম্মদ সোহেল উদ্দীন</t>
         </is>
       </c>
       <c r="C523" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬০৬</t>
+          <t>১৫২৫৪৪৬৪২৫৯১</t>
         </is>
       </c>
       <c r="D523" s="4" t="inlineStr">
         <is>
-          <t>আমির আহমেদ</t>
+          <t>মৃত আব্দুল রশীদ</t>
         </is>
       </c>
       <c r="E523" s="4" t="inlineStr">
         <is>
-          <t>কুনসুমা খাতুন</t>
+          <t>মনজু আরা বেগম</t>
         </is>
       </c>
       <c r="F523" s="3" t="inlineStr">
@@ -22412,54 +22412,54 @@
       </c>
       <c r="G523" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৯০</t>
+          <t>০৫/০৭/২০০৩</t>
         </is>
       </c>
       <c r="H523" s="5" t="inlineStr">
         <is>
-          <t>৯৭, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৬, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="3" t="inlineStr">
         <is>
-          <t>১৫১২</t>
+          <t>১৬৬৩</t>
         </is>
       </c>
       <c r="B524" s="4" t="inlineStr">
         <is>
-          <t>কাইছার উদ্দীন</t>
+          <t>মোহাম্মদ আকতার জ্জামান</t>
         </is>
       </c>
       <c r="C524" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৯৪</t>
+          <t>১৫২৫৪৪০০১০১৩</t>
         </is>
       </c>
       <c r="D524" s="4" t="inlineStr">
         <is>
-          <t>হৈদের হোসাইন</t>
+          <t>জয়নাল আবেদীন</t>
         </is>
       </c>
       <c r="E524" s="4" t="inlineStr">
         <is>
-          <t>আয়শা বেগম</t>
+          <t>আরেফা বেগম</t>
         </is>
       </c>
       <c r="F524" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G524" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৬/১৯৯৬</t>
+          <t>০৯/০৬/২০০৭</t>
         </is>
       </c>
       <c r="H524" s="5" t="inlineStr">
         <is>
-          <t>৯৬, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১৬, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -23432,27 +23432,27 @@
     <row r="548">
       <c r="A548" s="3" t="inlineStr">
         <is>
-          <t>১৭৬৭</t>
+          <t>১৬২৩</t>
         </is>
       </c>
       <c r="B548" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মোবারক হোসেন</t>
+          <t>মোঃ সুমন</t>
         </is>
       </c>
       <c r="C548" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬৬</t>
+          <t>১৫২৫৪৪০৪২৭৫৮</t>
         </is>
       </c>
       <c r="D548" s="4" t="inlineStr">
         <is>
-          <t>মোঃ মুহা</t>
+          <t>মোঃ আব্দুল হাশেম</t>
         </is>
       </c>
       <c r="E548" s="4" t="inlineStr">
         <is>
-          <t>জেসনা বেগম</t>
+          <t>জামিনা বেগম</t>
         </is>
       </c>
       <c r="F548" s="3" t="inlineStr">
@@ -23462,39 +23462,39 @@
       </c>
       <c r="G548" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/১৯৯৮</t>
+          <t>০১/০৭/১৯৮৩</t>
         </is>
       </c>
       <c r="H548" s="5" t="inlineStr">
         <is>
-          <t>১৩৯, চাকফিরানী, আশ্রয়ন প্রকল্প, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৫৬, চাকফিরানী, আশ্রয়ন প্রকল্প, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="3" t="inlineStr">
         <is>
-          <t>১৬২৩</t>
+          <t>১৭৬৭</t>
         </is>
       </c>
       <c r="B549" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সুমন</t>
+          <t>মোহাম্মদ মোবারক হোসেন</t>
         </is>
       </c>
       <c r="C549" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৭৫৮</t>
+          <t>১৫২৫৪৪৬৪৩০০৬৬</t>
         </is>
       </c>
       <c r="D549" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আব্দুল হাশেম</t>
+          <t>মোঃ মুহা</t>
         </is>
       </c>
       <c r="E549" s="4" t="inlineStr">
         <is>
-          <t>জামিনা বেগম</t>
+          <t>জেসনা বেগম</t>
         </is>
       </c>
       <c r="F549" s="3" t="inlineStr">
@@ -23504,12 +23504,12 @@
       </c>
       <c r="G549" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/১৯৮৩</t>
+          <t>০১/০৭/১৯৯৮</t>
         </is>
       </c>
       <c r="H549" s="5" t="inlineStr">
         <is>
-          <t>১৫৬, চাকফিরানী, আশ্রয়ন প্রকল্প, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৩৯, চাকফিরানী, আশ্রয়ন প্রকল্প, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -23726,27 +23726,27 @@
     <row r="555">
       <c r="A555" s="3" t="inlineStr">
         <is>
-          <t>১৭৫৭</t>
+          <t>১৮০৭</t>
         </is>
       </c>
       <c r="B555" s="4" t="inlineStr">
         <is>
-          <t>হুমায়ন কবির রাসেল</t>
+          <t>গোলাম মোস্তাফা জিশান</t>
         </is>
       </c>
       <c r="C555" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৪৪</t>
+          <t>১৫২৫৪৪৬৪৩১২৩</t>
         </is>
       </c>
       <c r="D555" s="4" t="inlineStr">
         <is>
-          <t>জামাল হুসাইন</t>
+          <t>মুহাম্মদ আব্দুল করিম</t>
         </is>
       </c>
       <c r="E555" s="4" t="inlineStr">
         <is>
-          <t>সকিনা খাতুন</t>
+          <t>রুবি আক্তার</t>
         </is>
       </c>
       <c r="F555" s="3" t="inlineStr">
@@ -23756,12 +23756,12 @@
       </c>
       <c r="G555" s="3" t="inlineStr">
         <is>
-          <t>২০/১১/২০০০</t>
+          <t>০২/০২/২০০৮</t>
         </is>
       </c>
       <c r="H555" s="5" t="inlineStr">
         <is>
-          <t>৪২, চাকফিরানী, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৩, চাকফিরানী, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -23793,7 +23793,7 @@
       </c>
       <c r="F556" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৪/০৯/২০০০</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G556" s="3" t="inlineStr">
@@ -23810,27 +23810,27 @@
     <row r="557">
       <c r="A557" s="3" t="inlineStr">
         <is>
-          <t>১৮০৭</t>
+          <t>১৭৫৭</t>
         </is>
       </c>
       <c r="B557" s="4" t="inlineStr">
         <is>
-          <t>গোলাম মোস্তাফা জিশান</t>
+          <t>হুমায়ন কবির রাসেল</t>
         </is>
       </c>
       <c r="C557" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩১২৩</t>
+          <t>১৫২৫৪৪৬৪৩০৪৪</t>
         </is>
       </c>
       <c r="D557" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ আব্দুল করিম</t>
+          <t>জামাল হুসাইন</t>
         </is>
       </c>
       <c r="E557" s="4" t="inlineStr">
         <is>
-          <t>রুবি আক্তার</t>
+          <t>সকিনা খাতুন</t>
         </is>
       </c>
       <c r="F557" s="3" t="inlineStr">
@@ -23840,12 +23840,12 @@
       </c>
       <c r="G557" s="3" t="inlineStr">
         <is>
-          <t>০২/০২/২০০৮</t>
+          <t>২০/১১/২০০০</t>
         </is>
       </c>
       <c r="H557" s="5" t="inlineStr">
         <is>
-          <t>৫৩, চাকফিরানী, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪২, চাকফিরানী, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -24818,61 +24818,69 @@
     <row r="581">
       <c r="A581" s="3" t="inlineStr">
         <is>
-          <t>১৭২১</t>
+          <t>১৬৯৯</t>
         </is>
       </c>
       <c r="B581" s="4" t="inlineStr">
         <is>
-          <t>আবু তারেক</t>
+          <t>তহিদুল ইসলাম</t>
         </is>
       </c>
       <c r="C581" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৮</t>
+          <t>১৫২৫৪৪৬৪২৯৮৬</t>
         </is>
       </c>
       <c r="D581" s="4" t="inlineStr">
         <is>
-          <t>জাহানারা বেগম</t>
-        </is>
-      </c>
-      <c r="E581" s="4" t="inlineStr"/>
-      <c r="F581" s="3" t="inlineStr"/>
+          <t>মৃত আবদুল ওক্কুর</t>
+        </is>
+      </c>
+      <c r="E581" s="4" t="inlineStr">
+        <is>
+          <t>ছারা খাতুন</t>
+        </is>
+      </c>
+      <c r="F581" s="3" t="inlineStr">
+        <is>
+          <t>বেসরকারী চাকুরী</t>
+        </is>
+      </c>
       <c r="G581" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৯/২০০৫</t>
+          <t>০৮/০৩/২০০৪</t>
         </is>
       </c>
       <c r="H581" s="5" t="inlineStr">
         <is>
-          <t>৭৯০, চাকফিরানী, নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২০৭, চাকফিরানী, নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="3" t="inlineStr">
         <is>
-          <t>১৬৯৯</t>
+          <t>১৭৫৪</t>
         </is>
       </c>
       <c r="B582" s="4" t="inlineStr">
         <is>
-          <t>তহিদুল ইসলাম</t>
+          <t>আবদুল হাকিম</t>
         </is>
       </c>
       <c r="C582" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৯৮৬</t>
+          <t>১৫২৫৪৪৬৪৩০৪১</t>
         </is>
       </c>
       <c r="D582" s="4" t="inlineStr">
         <is>
-          <t>মৃত আবদুল ওক্কুর</t>
+          <t>আবু তাহের</t>
         </is>
       </c>
       <c r="E582" s="4" t="inlineStr">
         <is>
-          <t>ছারা খাতুন</t>
+          <t>রেহেনা আক্তার</t>
         </is>
       </c>
       <c r="F582" s="3" t="inlineStr">
@@ -24882,123 +24890,123 @@
       </c>
       <c r="G582" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৩/২০০৪</t>
+          <t>২০/১০/২০০৬</t>
         </is>
       </c>
       <c r="H582" s="5" t="inlineStr">
         <is>
-          <t>২০৭, চাকফিরানী, নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৩১, চাকফিরানী, নতুন পাড়া, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="3" t="inlineStr">
         <is>
-          <t>১৭৫৪</t>
+          <t>১৭৬০</t>
         </is>
       </c>
       <c r="B583" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হাকিম</t>
+          <t>নুরুল আবহার</t>
         </is>
       </c>
       <c r="C583" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৪১</t>
+          <t>১৫২৫৪৪৬৪৩০৪৭</t>
         </is>
       </c>
       <c r="D583" s="4" t="inlineStr">
         <is>
-          <t>আবু তাহের</t>
+          <t>আবুল হোসেন</t>
         </is>
       </c>
       <c r="E583" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>নুরুজ জাহান</t>
         </is>
       </c>
       <c r="F583" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G583" s="3" t="inlineStr">
         <is>
-          <t>২০/১০/২০০৬</t>
+          <t>৩১/১২/১৯৯৮</t>
         </is>
       </c>
       <c r="H583" s="5" t="inlineStr">
         <is>
-          <t>১৩১, চাকফিরানী, নতুন পাড়া, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১৪, চাকফিরানী, নতুন পাড়া, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="3" t="inlineStr">
         <is>
-          <t>১৭৬০</t>
+          <t>১৩২৩</t>
         </is>
       </c>
       <c r="B584" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আবহার</t>
+          <t>ছালামত উল্লাহ</t>
         </is>
       </c>
       <c r="C584" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৪৭</t>
+          <t>১৫২৫৪৪০০০৮৪৪</t>
         </is>
       </c>
       <c r="D584" s="4" t="inlineStr">
         <is>
-          <t>আবুল হোসেন</t>
+          <t>আবদুস সালাম</t>
         </is>
       </c>
       <c r="E584" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ জাহান</t>
+          <t>হাছিনা বেগম</t>
         </is>
       </c>
       <c r="F584" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G584" s="3" t="inlineStr">
         <is>
-          <t>৩১/১২/১৯৯৮</t>
+          <t>১০/০৫/১৯৯৯</t>
         </is>
       </c>
       <c r="H584" s="5" t="inlineStr">
         <is>
-          <t>২১৪, চাকফিরানী, নতুন পাড়া, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১১৩, চাকফিরানী, নতুন পাড়া, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="3" t="inlineStr">
         <is>
-          <t>১৩২৩</t>
+          <t>১৫৮৭</t>
         </is>
       </c>
       <c r="B585" s="4" t="inlineStr">
         <is>
-          <t>ছালামত উল্লাহ</t>
+          <t>মোহাম্মদ রাকিব</t>
         </is>
       </c>
       <c r="C585" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৮৪৪</t>
+          <t>১৫২৫৪৪৬৪২৭২৩</t>
         </is>
       </c>
       <c r="D585" s="4" t="inlineStr">
         <is>
-          <t>আবদুস সালাম</t>
+          <t>মোহাম্মদ মোস্তাক আহমেদ</t>
         </is>
       </c>
       <c r="E585" s="4" t="inlineStr">
         <is>
-          <t>হাছিনা বেগম</t>
+          <t>জানু আরা বেগম</t>
         </is>
       </c>
       <c r="F585" s="3" t="inlineStr">
@@ -25008,39 +25016,39 @@
       </c>
       <c r="G585" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৯৯</t>
+          <t>০৩/০৫/২০০৩</t>
         </is>
       </c>
       <c r="H585" s="5" t="inlineStr">
         <is>
-          <t>১১৩, চাকফিরানী, নতুন পাড়া, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৩৪, চাকফিরানী, নতুন পাড়া, ডাকঘর: ভবানীপুর-৪৩৮৬, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="3" t="inlineStr">
         <is>
-          <t>১৫৮৭</t>
+          <t>১৭৫৩</t>
         </is>
       </c>
       <c r="B586" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রাকিব</t>
+          <t>মোহাম্মদ কামাল</t>
         </is>
       </c>
       <c r="C586" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭২৩</t>
+          <t>১৫২৫৪৪৬৪৩০৪০</t>
         </is>
       </c>
       <c r="D586" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মোস্তাক আহমেদ</t>
+          <t>মোহাম্মদ শরীফ</t>
         </is>
       </c>
       <c r="E586" s="4" t="inlineStr">
         <is>
-          <t>জানু আরা বেগম</t>
+          <t>সাখারা খাতুন</t>
         </is>
       </c>
       <c r="F586" s="3" t="inlineStr">
@@ -25050,133 +25058,133 @@
       </c>
       <c r="G586" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৫/২০০৩</t>
+          <t>০৫/০১/২০০৫</t>
         </is>
       </c>
       <c r="H586" s="5" t="inlineStr">
         <is>
-          <t>২৩৪, চাকফিরানী, নতুন পাড়া, ডাকঘর: ভবানীপুর-৪৩৮৬, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৬৮, চাকফিরানী, নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="3" t="inlineStr">
         <is>
-          <t>১৭৫৩</t>
+          <t>১৮১৫</t>
         </is>
       </c>
       <c r="B587" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ কামাল</t>
+          <t>আবদুল মজিদ</t>
         </is>
       </c>
       <c r="C587" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৪০</t>
+          <t>১৫২৫৪৪৬৪৩১৪১</t>
         </is>
       </c>
       <c r="D587" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ শরীফ</t>
+          <t>মৃত মোহাম্মদ আবদুস হোবান</t>
         </is>
       </c>
       <c r="E587" s="4" t="inlineStr">
         <is>
-          <t>সাখারা খাতুন</t>
+          <t>মৃত সাহেরা খাতুন</t>
         </is>
       </c>
       <c r="F587" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G587" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/২০০৫</t>
+          <t>১৫/০৩/১৯৭২</t>
         </is>
       </c>
       <c r="H587" s="5" t="inlineStr">
         <is>
-          <t>৮৬৮, চাকফিরানী, নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৯৫, চাকফিরানী, নতুন পাড়া, বড়হাতীয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="3" t="inlineStr">
         <is>
-          <t>১৮১৫</t>
+          <t>০৪২১</t>
         </is>
       </c>
       <c r="B588" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মজিদ</t>
+          <t>জামাল উদ্দীন</t>
         </is>
       </c>
       <c r="C588" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩১৪১</t>
+          <t>১৫২৫৪৪৩৫৭৫৫৯</t>
         </is>
       </c>
       <c r="D588" s="4" t="inlineStr">
         <is>
-          <t>মৃত মোহাম্মদ আবদুস হোবান</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="E588" s="4" t="inlineStr">
         <is>
-          <t>মৃত সাহেরা খাতুন</t>
+          <t>হালিমা খাতুন</t>
         </is>
       </c>
       <c r="F588" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G588" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৩/১৯৭২</t>
+          <t>০৯/০৬/১৯৮২</t>
         </is>
       </c>
       <c r="H588" s="5" t="inlineStr">
         <is>
-          <t>১৯৫, চাকফিরানী, নতুন পাড়া, বড়হাতীয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>চাকফিরানী, নতুন পাড়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="3" t="inlineStr">
         <is>
-          <t>০৪২১</t>
+          <t>০৪৩০</t>
         </is>
       </c>
       <c r="B589" s="4" t="inlineStr">
         <is>
-          <t>জামাল উদ্দীন</t>
+          <t>মুহাম্মদ মোস্তাক</t>
         </is>
       </c>
       <c r="C589" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৫৯</t>
+          <t>১৫২৫৪৪৩৫৭৫৭০</t>
         </is>
       </c>
       <c r="D589" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>কবির আহমদ</t>
         </is>
       </c>
       <c r="E589" s="4" t="inlineStr">
         <is>
-          <t>হালিমা খাতুন</t>
+          <t>রাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F589" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G589" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৬/১৯৮২</t>
+          <t>০৪/০৩/১৯৬৭</t>
         </is>
       </c>
       <c r="H589" s="5" t="inlineStr">
@@ -25188,37 +25196,37 @@
     <row r="590">
       <c r="A590" s="3" t="inlineStr">
         <is>
-          <t>০৪৩০</t>
+          <t>০৩৮০</t>
         </is>
       </c>
       <c r="B590" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ মোস্তাক</t>
+          <t>মোহাম্মদ ইব্রাহিম</t>
         </is>
       </c>
       <c r="C590" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৭০</t>
+          <t>১৫২৫৪৪৩৫৭৪৮২৯</t>
         </is>
       </c>
       <c r="D590" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমদ</t>
+          <t>আলী আহমদ</t>
         </is>
       </c>
       <c r="E590" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া খাতুন</t>
+          <t>হাজেরা খাতুন</t>
         </is>
       </c>
       <c r="F590" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G590" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৩/১৯৬৭</t>
+          <t>০৮/০৬/১৯৮৩</t>
         </is>
       </c>
       <c r="H590" s="5" t="inlineStr">
@@ -25230,42 +25238,42 @@
     <row r="591">
       <c r="A591" s="3" t="inlineStr">
         <is>
-          <t>০৩৮০</t>
+          <t>১৬৮৩</t>
         </is>
       </c>
       <c r="B591" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইব্রাহিম</t>
+          <t>মোঃ হানিফ</t>
         </is>
       </c>
       <c r="C591" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮২৯</t>
+          <t>১৫২৫৪৪০৪২৯৭০</t>
         </is>
       </c>
       <c r="D591" s="4" t="inlineStr">
         <is>
-          <t>আলী আহমদ</t>
+          <t>বদিউজ্জামান</t>
         </is>
       </c>
       <c r="E591" s="4" t="inlineStr">
         <is>
-          <t>হাজেরা খাতুন</t>
+          <t>নুর আয়শা বেগম</t>
         </is>
       </c>
       <c r="F591" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G591" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৬/১৯৮৩</t>
+          <t>০৮/০৫/২০০৫</t>
         </is>
       </c>
       <c r="H591" s="5" t="inlineStr">
         <is>
-          <t>চাকফিরানী, নতুন পাড়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৯, চাকফিরানী, নতুন পাড়া,, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -25314,27 +25322,27 @@
     <row r="593">
       <c r="A593" s="3" t="inlineStr">
         <is>
-          <t>১৬৮৩</t>
+          <t>১৬৮৬</t>
         </is>
       </c>
       <c r="B593" s="4" t="inlineStr">
         <is>
-          <t>মোঃ হানিফ</t>
+          <t>মোহাম্মদ জায়েদ</t>
         </is>
       </c>
       <c r="C593" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৯৭০</t>
+          <t>১৫২৫৪৪০৪২৯৭৩</t>
         </is>
       </c>
       <c r="D593" s="4" t="inlineStr">
         <is>
-          <t>বদিউজ্জামান</t>
+          <t>মোহাম্মদ হাবুল</t>
         </is>
       </c>
       <c r="E593" s="4" t="inlineStr">
         <is>
-          <t>নুর আয়শা বেগম</t>
+          <t>আমেনা বেগম</t>
         </is>
       </c>
       <c r="F593" s="3" t="inlineStr">
@@ -25344,96 +25352,96 @@
       </c>
       <c r="G593" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৫/২০০৫</t>
+          <t>০১/০১/২০০৭</t>
         </is>
       </c>
       <c r="H593" s="5" t="inlineStr">
         <is>
-          <t>৮৯, চাকফিরানী, নতুন পাড়া,, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৪, চাকফিরানী, নতুন পাড়া,, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="3" t="inlineStr">
         <is>
-          <t>১৬৮৬</t>
+          <t>১৬৮৫</t>
         </is>
       </c>
       <c r="B594" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জায়েদ</t>
+          <t>আরিফুল ইসলাম</t>
         </is>
       </c>
       <c r="C594" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৯৭৩</t>
+          <t>১৫২৫৪৪০৪২৯৭২</t>
         </is>
       </c>
       <c r="D594" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হাবুল</t>
+          <t>আবুল খাইর</t>
         </is>
       </c>
       <c r="E594" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম</t>
+          <t>ছাবেরা খাতুন</t>
         </is>
       </c>
       <c r="F594" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G594" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০৭</t>
+          <t>০৩/০৪/২০০০</t>
         </is>
       </c>
       <c r="H594" s="5" t="inlineStr">
         <is>
-          <t>৭৪, চাকফিরানী, নতুন পাড়া,, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২০৩, চাকফিরানী, নতুন পাড়া,, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="3" t="inlineStr">
         <is>
-          <t>১৬৮৫</t>
+          <t>১৭২১</t>
         </is>
       </c>
       <c r="B595" s="4" t="inlineStr">
         <is>
-          <t>আরিফুল ইসলাম</t>
+          <t>আবু তারেক</t>
         </is>
       </c>
       <c r="C595" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৯৭২</t>
+          <t>১৫২৫৪৪৬৪৩০০৮</t>
         </is>
       </c>
       <c r="D595" s="4" t="inlineStr">
         <is>
-          <t>আবুল খাইর</t>
+          <t>জামাল উদ্দীন</t>
         </is>
       </c>
       <c r="E595" s="4" t="inlineStr">
         <is>
-          <t>ছাবেরা খাতুন</t>
+          <t>জাহানারা বেগম</t>
         </is>
       </c>
       <c r="F595" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G595" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৪/২০০০</t>
+          <t>০৬/০৯/২০০৫</t>
         </is>
       </c>
       <c r="H595" s="5" t="inlineStr">
         <is>
-          <t>২০৩, চাকফিরানী, নতুন পাড়া,, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৯০, চাকফিরানী, নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -25507,7 +25515,7 @@
       </c>
       <c r="F597" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৬/০২/২০০১</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G597" s="3" t="inlineStr">
@@ -29455,7 +29463,7 @@
       </c>
       <c r="F691" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ২০/০৭/১৯৯৭</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G691" s="3" t="inlineStr">
@@ -30505,7 +30513,7 @@
       </c>
       <c r="F716" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১৫/০২/২০০১</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G716" s="3" t="inlineStr">
@@ -48755,7 +48763,7 @@
       </c>
       <c r="B1151" s="4" t="inlineStr">
         <is>
-          <t>শাহ আলম</t>
+          <t xml:space="preserve"> শাহ আলম</t>
         </is>
       </c>
       <c r="C1151" s="3" t="inlineStr">
@@ -50413,7 +50421,7 @@
       </c>
       <c r="F1190" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০১/০৭/১৯৯৭</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1190" s="3" t="inlineStr">
@@ -50581,7 +50589,7 @@
       </c>
       <c r="F1194" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১০/০৬/১৯৯৮</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1194" s="3" t="inlineStr">
@@ -52009,7 +52017,7 @@
       </c>
       <c r="F1228" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৫/১০/১৯৯০</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1228" s="3" t="inlineStr">
@@ -52051,7 +52059,7 @@
       </c>
       <c r="F1229" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১০/০৩/২০০৩</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1229" s="3" t="inlineStr">
@@ -52177,7 +52185,7 @@
       </c>
       <c r="F1232" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১৫/০৮/২০০১</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1232" s="3" t="inlineStr">
@@ -58897,7 +58905,7 @@
       </c>
       <c r="F1392" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১৫/০৯/২০০৩</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G1392" s="3" t="inlineStr">
@@ -63811,7 +63819,7 @@
       </c>
       <c r="F1509" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০২/০১/১৯৯৪</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G1509" s="3" t="inlineStr">
@@ -71875,7 +71883,7 @@
       </c>
       <c r="F1701" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা/জন্ম তারিখ: ১০/০২/১৯৭৪</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G1701" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/BARAHATIA/152544/152544_com_1820_male_without_photo_102_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/BARAHATIA/152544/152544_com_1820_male_without_photo_102_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="38" customWidth="1" min="4" max="4"/>
     <col width="34" customWidth="1" min="5" max="5"/>
-    <col width="26.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -567,7 +567,7 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার জন্ম তারিখ:০৯/০৮/১৯২২</t>
         </is>
       </c>
       <c r="G3" s="3" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>প্রবাসী/জন্ম তারিখ: ০৬/১০/১৯৮০</t>
         </is>
       </c>
       <c r="G41" s="3" t="inlineStr">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="F160" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ:১৫/০৮/১৯৭৭</t>
         </is>
       </c>
       <c r="G160" s="3" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="F162" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ:০৫/০১/১৯৭০</t>
         </is>
       </c>
       <c r="G162" s="3" t="inlineStr">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="F166" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ:১০/০১/১৯৬৮</t>
         </is>
       </c>
       <c r="G166" s="3" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="F170" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ:১০/০৩/১৯৬৫</t>
         </is>
       </c>
       <c r="G170" s="3" t="inlineStr">
@@ -12932,27 +12932,27 @@
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
         <is>
-          <t>০২৪৮</t>
+          <t>০২৪৯</t>
         </is>
       </c>
       <c r="B298" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলী</t>
+          <t>আব্দুল আলম</t>
         </is>
       </c>
       <c r="C298" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৫৭০৩৫</t>
+          <t>১৫২৫৪৪৩৫৫৭০৩৬</t>
         </is>
       </c>
       <c r="D298" s="4" t="inlineStr">
         <is>
-          <t>মতিউর রহমান</t>
+          <t>সেয়দ উজ্জাহ</t>
         </is>
       </c>
       <c r="E298" s="4" t="inlineStr">
         <is>
-          <t>ছেমন খাতুন</t>
+          <t>মাহমুদা খাতুন</t>
         </is>
       </c>
       <c r="F298" s="3" t="inlineStr">
@@ -12962,7 +12962,7 @@
       </c>
       <c r="G298" s="3" t="inlineStr">
         <is>
-          <t>২৪/০৮/১৯৬৪</t>
+          <t>০৯/০১/১৯৬৭</t>
         </is>
       </c>
       <c r="H298" s="5" t="inlineStr">
@@ -12974,27 +12974,27 @@
     <row r="299">
       <c r="A299" s="3" t="inlineStr">
         <is>
-          <t>০২৪৯</t>
+          <t>০২৪৮</t>
         </is>
       </c>
       <c r="B299" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল আলম</t>
+          <t>মোহাম্মদ আলী</t>
         </is>
       </c>
       <c r="C299" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৫৭০৩৬</t>
+          <t>১৫২৫৪৪৩৫৫৭০৩৫</t>
         </is>
       </c>
       <c r="D299" s="4" t="inlineStr">
         <is>
-          <t>সেয়দ উজ্জাহ</t>
+          <t>মতিউর রহমান</t>
         </is>
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>মাহমুদা খাতুন</t>
+          <t>ছেমন খাতুন</t>
         </is>
       </c>
       <c r="F299" s="3" t="inlineStr">
@@ -13004,7 +13004,7 @@
       </c>
       <c r="G299" s="3" t="inlineStr">
         <is>
-          <t>০৯/০১/১৯৬৭</t>
+          <t>২৪/০৮/১৯৬৪</t>
         </is>
       </c>
       <c r="H299" s="5" t="inlineStr">
@@ -13268,195 +13268,195 @@
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
         <is>
-          <t>১৪৫৪</t>
+          <t>১৩৮৮</t>
         </is>
       </c>
       <c r="B306" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ফয়সাল</t>
+          <t>আবদুল জব্বার</t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫১০</t>
+          <t>১৫২৫৪৪০০০৯৩৪</t>
         </is>
       </c>
       <c r="D306" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রফিক উদ্দীন</t>
+          <t>আমিন উল্লাহ</t>
         </is>
       </c>
       <c r="E306" s="4" t="inlineStr">
         <is>
-          <t>কাহিনুর আক্তার</t>
+          <t>জরিমুন খাতুন</t>
         </is>
       </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/২০০০</t>
+          <t>০১/০২/১৯৬৫</t>
         </is>
       </c>
       <c r="H306" s="5" t="inlineStr">
         <is>
-          <t>কালিনগর, চক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৫, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="3" t="inlineStr">
         <is>
-          <t>১৩৮৮</t>
+          <t>১৭১৯</t>
         </is>
       </c>
       <c r="B307" s="4" t="inlineStr">
         <is>
-          <t>আবদুল জব্বার</t>
+          <t>মোঃ ফয়সাল</t>
         </is>
       </c>
       <c r="C307" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৩৪</t>
+          <t>১৫২৫৪৪৬৪৩০০৬</t>
         </is>
       </c>
       <c r="D307" s="4" t="inlineStr">
         <is>
-          <t>আমিন উল্লাহ</t>
+          <t>নুরুল আবছার</t>
         </is>
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>জরিমুন খাতুন</t>
+          <t>নাসিমা আক্তার</t>
         </is>
       </c>
       <c r="F307" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G307" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৬৫</t>
+          <t>৩০/০৩/২০০০</t>
         </is>
       </c>
       <c r="H307" s="5" t="inlineStr">
         <is>
-          <t>৫৫, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>০২৭, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="3" t="inlineStr">
         <is>
-          <t>১৭১৯</t>
+          <t>১০০৮</t>
         </is>
       </c>
       <c r="B308" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ফয়সাল</t>
+          <t>মোঃ শাহাজাহান</t>
         </is>
       </c>
       <c r="C308" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬</t>
+          <t>১৫২৫৪৪০০০৩৩১</t>
         </is>
       </c>
       <c r="D308" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আবছার</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="E308" s="4" t="inlineStr">
         <is>
-          <t>নাসিমা আক্তার</t>
+          <t>নুরুজ্জাহান</t>
         </is>
       </c>
       <c r="F308" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G308" s="3" t="inlineStr">
         <is>
-          <t>৩০/০৩/২০০০</t>
+          <t>২০/১০/১৯৯৮</t>
         </is>
       </c>
       <c r="H308" s="5" t="inlineStr">
         <is>
-          <t>০২৭, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬০১, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="3" t="inlineStr">
         <is>
-          <t>১০০৮</t>
+          <t>১৬৬৫</t>
         </is>
       </c>
       <c r="B309" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শাহাজাহান</t>
+          <t>মোঃ আবদুল শুকুর</t>
         </is>
       </c>
       <c r="C309" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৩৩১</t>
+          <t>১৫২৫৪৪০০১০১৬</t>
         </is>
       </c>
       <c r="D309" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>আবদুস সালাম</t>
         </is>
       </c>
       <c r="E309" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ্জাহান</t>
+          <t>সামন্তন নাহর</t>
         </is>
       </c>
       <c r="F309" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G309" s="3" t="inlineStr">
         <is>
-          <t>২০/১০/১৯৯৮</t>
+          <t>১০/০১/২০০৭</t>
         </is>
       </c>
       <c r="H309" s="5" t="inlineStr">
         <is>
-          <t>৬০১, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫২, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="3" t="inlineStr">
         <is>
-          <t>১৬৬৫</t>
+          <t>১৬৯২</t>
         </is>
       </c>
       <c r="B310" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আবদুল শুকুর</t>
+          <t>তারেক মনোয়ার</t>
         </is>
       </c>
       <c r="C310" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০১০১৬</t>
+          <t>১৫২৫৪৪৬৪২৯৭৯</t>
         </is>
       </c>
       <c r="D310" s="4" t="inlineStr">
         <is>
-          <t>আবদুস সালাম</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E310" s="4" t="inlineStr">
         <is>
-          <t>সামন্তন নাহর</t>
+          <t>শফিয়ারা বেগম</t>
         </is>
       </c>
       <c r="F310" s="3" t="inlineStr">
@@ -13466,39 +13466,39 @@
       </c>
       <c r="G310" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/২০০৭</t>
+          <t>১৫/১০/২০০২</t>
         </is>
       </c>
       <c r="H310" s="5" t="inlineStr">
         <is>
-          <t>৫২, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৬, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="3" t="inlineStr">
         <is>
-          <t>১৬৯২</t>
+          <t>০৮৫৯</t>
         </is>
       </c>
       <c r="B311" s="4" t="inlineStr">
         <is>
-          <t>তারেক মনোয়ার</t>
+          <t>জয়নাল আবেদীন</t>
         </is>
       </c>
       <c r="C311" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৯৭৯</t>
+          <t>১৫২৫৪৪০০০১৩৮</t>
         </is>
       </c>
       <c r="D311" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>জামাল হোছেন</t>
         </is>
       </c>
       <c r="E311" s="4" t="inlineStr">
         <is>
-          <t>শফিয়ারা বেগম</t>
+          <t>ছকিনা খাতুন</t>
         </is>
       </c>
       <c r="F311" s="3" t="inlineStr">
@@ -13508,49 +13508,49 @@
       </c>
       <c r="G311" s="3" t="inlineStr">
         <is>
-          <t>১৫/১০/২০০২</t>
+          <t>০৫/০২/১৯৮৯</t>
         </is>
       </c>
       <c r="H311" s="5" t="inlineStr">
         <is>
-          <t>৪৬, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="3" t="inlineStr">
         <is>
-          <t>০৮৫৯</t>
+          <t>০৯০৮</t>
         </is>
       </c>
       <c r="B312" s="4" t="inlineStr">
         <is>
-          <t>জয়নাল আবেদীন</t>
+          <t>শাহাব উদ্দীন</t>
         </is>
       </c>
       <c r="C312" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৩৮</t>
+          <t>১৫২৫৪৪০০০২৩৬</t>
         </is>
       </c>
       <c r="D312" s="4" t="inlineStr">
         <is>
-          <t>জামাল হোছেন</t>
+          <t>আলী হোসেন</t>
         </is>
       </c>
       <c r="E312" s="4" t="inlineStr">
         <is>
-          <t>ছকিনা খাতুন</t>
+          <t>রোশানা আক্তার</t>
         </is>
       </c>
       <c r="F312" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G312" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৮৯</t>
+          <t>১২/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="H312" s="5" t="inlineStr">
@@ -13562,111 +13562,111 @@
     <row r="313">
       <c r="A313" s="3" t="inlineStr">
         <is>
-          <t>১০০০</t>
+          <t>০৮৬৬</t>
         </is>
       </c>
       <c r="B313" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জুবাইদুল হক</t>
+          <t>আবুল হাসেম</t>
         </is>
       </c>
       <c r="C313" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০২৪৬</t>
+          <t>১৫২৫৪৪০০০১৫৪</t>
         </is>
       </c>
       <c r="D313" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইলিয়াছ</t>
+          <t>আবদুস সালাম</t>
         </is>
       </c>
       <c r="E313" s="4" t="inlineStr">
         <is>
-          <t>রোকিয়া বেগম</t>
+          <t>মজলিশ খাতুন</t>
         </is>
       </c>
       <c r="F313" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G313" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৭/১৯৯৪</t>
+          <t>০৭/০৬/১৯৭১</t>
         </is>
       </c>
       <c r="H313" s="5" t="inlineStr">
         <is>
-          <t>কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬২০, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৬</t>
+          <t>০৮৬৭</t>
         </is>
       </c>
       <c r="B314" s="4" t="inlineStr">
         <is>
-          <t>আবুল হাসেম</t>
+          <t>মোহাম্মদ নুরুদ্দীন রাসেল</t>
         </is>
       </c>
       <c r="C314" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৫৪</t>
+          <t>১৫২৫৪৪০০০১৫৮</t>
         </is>
       </c>
       <c r="D314" s="4" t="inlineStr">
         <is>
-          <t>আবদুস সালাম</t>
+          <t>আবদুল জালিল</t>
         </is>
       </c>
       <c r="E314" s="4" t="inlineStr">
         <is>
-          <t>মজলিশ খাতুন</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F314" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G314" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৬/১৯৭১</t>
+          <t>০৭/০৫/১৯৯১</t>
         </is>
       </c>
       <c r="H314" s="5" t="inlineStr">
         <is>
-          <t>৬২০, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬০২, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৭</t>
+          <t>১৫৩৫</t>
         </is>
       </c>
       <c r="B315" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নুরুদ্দীন রাসেল</t>
+          <t>মোঃ শাকিব উদ্দিন</t>
         </is>
       </c>
       <c r="C315" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৫৮</t>
+          <t>১৫২৫৪৪৬৪২৬১৭</t>
         </is>
       </c>
       <c r="D315" s="4" t="inlineStr">
         <is>
-          <t>আবদুল জালিল</t>
+          <t>মোজাহার মিয়া</t>
         </is>
       </c>
       <c r="E315" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="F315" s="3" t="inlineStr">
@@ -13676,222 +13676,222 @@
       </c>
       <c r="G315" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৫/১৯৯১</t>
+          <t>১১/০২/২০০১</t>
         </is>
       </c>
       <c r="H315" s="5" t="inlineStr">
         <is>
-          <t>৬০২, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="3" t="inlineStr">
         <is>
-          <t>১৫৩৫</t>
+          <t>০৮৬৮</t>
         </is>
       </c>
       <c r="B316" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শাকিব উদ্দিন</t>
+          <t>করিম উদ্দিন</t>
         </is>
       </c>
       <c r="C316" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬১৭</t>
+          <t>১৫২৫৪৪০০০১৫৯</t>
         </is>
       </c>
       <c r="D316" s="4" t="inlineStr">
         <is>
-          <t>মোজাহার মিয়া</t>
+          <t>ছিদ্দিক আহমেদ</t>
         </is>
       </c>
       <c r="E316" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>গোলবাহার বেগম</t>
         </is>
       </c>
       <c r="F316" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G316" s="3" t="inlineStr">
         <is>
-          <t>১১/০২/২০০১</t>
+          <t>০৯/১১/১৯৯১</t>
         </is>
       </c>
       <c r="H316" s="5" t="inlineStr">
         <is>
-          <t>২১, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৮</t>
+          <t>১২৫৪</t>
         </is>
       </c>
       <c r="B317" s="4" t="inlineStr">
         <is>
-          <t>করিম উদ্দিন</t>
+          <t>আব্দুল হক</t>
         </is>
       </c>
       <c r="C317" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৫৯</t>
+          <t>১৫২৫৪৪০০০৭৬৪</t>
         </is>
       </c>
       <c r="D317" s="4" t="inlineStr">
         <is>
-          <t>ছিদ্দিক আহমেদ</t>
+          <t>আহমেদ হুসাইন</t>
         </is>
       </c>
       <c r="E317" s="4" t="inlineStr">
         <is>
-          <t>গোলবাহার বেগম</t>
+          <t>হারা খাতুন</t>
         </is>
       </c>
       <c r="F317" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G317" s="3" t="inlineStr">
         <is>
-          <t>০৯/১১/১৯৯১</t>
+          <t>১৬/১২/১৯৮৩</t>
         </is>
       </c>
       <c r="H317" s="5" t="inlineStr">
         <is>
-          <t>., কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৩, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="3" t="inlineStr">
         <is>
-          <t>১২৫৪</t>
+          <t>০৮৭৬</t>
         </is>
       </c>
       <c r="B318" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল হক</t>
+          <t>নুরুন্নবী</t>
         </is>
       </c>
       <c r="C318" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭৬৪</t>
+          <t>১৫২৫৪৪০০০১৭৪</t>
         </is>
       </c>
       <c r="D318" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ হুসাইন</t>
+          <t>মনির আহমেদ</t>
         </is>
       </c>
       <c r="E318" s="4" t="inlineStr">
         <is>
-          <t>হারা খাতুন</t>
+          <t>রাবিয়া বেগম</t>
         </is>
       </c>
       <c r="F318" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G318" s="3" t="inlineStr">
         <is>
-          <t>১৬/১২/১৯৮৩</t>
+          <t>০৫/০২/১৯৯১</t>
         </is>
       </c>
       <c r="H318" s="5" t="inlineStr">
         <is>
-          <t>৩৩, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬৩০, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="3" t="inlineStr">
         <is>
-          <t>০৮৭৬</t>
+          <t>০৮৮৯</t>
         </is>
       </c>
       <c r="B319" s="4" t="inlineStr">
         <is>
-          <t>নুরুন্নবী</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="C319" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৭৪</t>
+          <t>১৫২৫৪৪০০০১৯৭</t>
         </is>
       </c>
       <c r="D319" s="4" t="inlineStr">
         <is>
-          <t>মনির আহমেদ</t>
+          <t>সোলতান আহমেদ</t>
         </is>
       </c>
       <c r="E319" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া বেগম</t>
+          <t>রাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F319" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৯১</t>
+          <t>০৫/০৭/১৯৯১</t>
         </is>
       </c>
       <c r="H319" s="5" t="inlineStr">
         <is>
-          <t>৬৩০, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬১৭, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="3" t="inlineStr">
         <is>
-          <t>০৮৮৯</t>
+          <t>১২৪০</t>
         </is>
       </c>
       <c r="B320" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>মোহাম্মদ জাহেদুল ইসলাম</t>
         </is>
       </c>
       <c r="C320" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৯৭</t>
+          <t>১৫২৫৪৪০০০৭২০</t>
         </is>
       </c>
       <c r="D320" s="4" t="inlineStr">
         <is>
-          <t>সোলতান আহমেদ</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="E320" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া খাতুন</t>
+          <t>নুরুজ্জাহান বেগম</t>
         </is>
       </c>
       <c r="F320" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G320" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৭/১৯৯১</t>
+          <t>২৩/০৮/১৯৯৯</t>
         </is>
       </c>
       <c r="H320" s="5" t="inlineStr">
         <is>
-          <t>৬১৭, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৪, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -13940,69 +13940,69 @@
     <row r="322">
       <c r="A322" s="3" t="inlineStr">
         <is>
-          <t>০৯০৮</t>
+          <t>০৮৬৪</t>
         </is>
       </c>
       <c r="B322" s="4" t="inlineStr">
         <is>
-          <t>শাহাব উদ্দীন</t>
+          <t>মোহাম্মদ ফেরাকান</t>
         </is>
       </c>
       <c r="C322" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০২৩৬</t>
+          <t>১৫২৫৪৪০০০১৫২</t>
         </is>
       </c>
       <c r="D322" s="4" t="inlineStr">
         <is>
-          <t>আলী হোসেন</t>
+          <t>আবদুল মম্নান</t>
         </is>
       </c>
       <c r="E322" s="4" t="inlineStr">
         <is>
-          <t>রোশানা আক্তার</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="F322" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G322" s="3" t="inlineStr">
         <is>
-          <t>১২/০১/১৯৮৯</t>
+          <t>০৫/০২/১৯৮৫</t>
         </is>
       </c>
       <c r="H322" s="5" t="inlineStr">
         <is>
-          <t>., কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৪</t>
+          <t>১০০০</t>
         </is>
       </c>
       <c r="B323" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ফেরাকান</t>
+          <t>মোহাম্মদ জুবাইদুল হক</t>
         </is>
       </c>
       <c r="C323" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৫২</t>
+          <t>১৫২৫৪৪০০০২৪৬</t>
         </is>
       </c>
       <c r="D323" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মম্নান</t>
+          <t>মোহাম্মদ ইলিয়াছ</t>
         </is>
       </c>
       <c r="E323" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>রোকিয়া বেগম</t>
         </is>
       </c>
       <c r="F323" s="3" t="inlineStr">
@@ -14012,7 +14012,7 @@
       </c>
       <c r="G323" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৮৫</t>
+          <t>১৫/০৭/১৯৯৪</t>
         </is>
       </c>
       <c r="H323" s="5" t="inlineStr">
@@ -14024,84 +14024,84 @@
     <row r="324">
       <c r="A324" s="3" t="inlineStr">
         <is>
-          <t>১২৪০</t>
+          <t>০৮৭৭</t>
         </is>
       </c>
       <c r="B324" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জাহেদুল ইসলাম</t>
+          <t>আবদু ছবুর</t>
         </is>
       </c>
       <c r="C324" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭২০</t>
+          <t>১৫২৫৪৪০০০১৭৫</t>
         </is>
       </c>
       <c r="D324" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>মনির আহমেদ</t>
         </is>
       </c>
       <c r="E324" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ্জাহান বেগম</t>
+          <t>রাবিয়া বেগম</t>
         </is>
       </c>
       <c r="F324" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G324" s="3" t="inlineStr">
         <is>
-          <t>২৩/০৮/১৯৯৯</t>
+          <t>০৮/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="H324" s="5" t="inlineStr">
         <is>
-          <t>৩৪, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬৩০, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="3" t="inlineStr">
         <is>
-          <t>০৮৭৭</t>
+          <t>১৪৫৪</t>
         </is>
       </c>
       <c r="B325" s="4" t="inlineStr">
         <is>
-          <t>আবদু ছবুর</t>
+          <t>মোহাম্মদ ফয়সাল</t>
         </is>
       </c>
       <c r="C325" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৭৫</t>
+          <t>১৫২৫৪৪৬৪২৫১০</t>
         </is>
       </c>
       <c r="D325" s="4" t="inlineStr">
         <is>
-          <t>মনির আহমেদ</t>
+          <t>মোহাম্মদ রফিক উদ্দীন</t>
         </is>
       </c>
       <c r="E325" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া বেগম</t>
+          <t>কাহিনুর আক্তার</t>
         </is>
       </c>
       <c r="F325" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G325" s="3" t="inlineStr">
         <is>
-          <t>০৮/০১/১৯৮৯</t>
+          <t>১০/০২/২০০০</t>
         </is>
       </c>
       <c r="H325" s="5" t="inlineStr">
         <is>
-          <t>৬৩০, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কালিনগর, চকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -14150,27 +14150,27 @@
     <row r="327">
       <c r="A327" s="3" t="inlineStr">
         <is>
-          <t>১৩৩৬</t>
+          <t>১৩৫৫</t>
         </is>
       </c>
       <c r="B327" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মুনাফ</t>
+          <t>ফারদিন হাসান রিশাত</t>
         </is>
       </c>
       <c r="C327" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৮৬২</t>
+          <t>১৫২৫৪৪০০০৮৯১</t>
         </is>
       </c>
       <c r="D327" s="4" t="inlineStr">
         <is>
-          <t>এজাহার মিয়া</t>
+          <t>আবু আহমেদ</t>
         </is>
       </c>
       <c r="E327" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান বেগম</t>
+          <t>রেহেনা বেগম</t>
         </is>
       </c>
       <c r="F327" s="3" t="inlineStr">
@@ -14180,39 +14180,39 @@
       </c>
       <c r="G327" s="3" t="inlineStr">
         <is>
-          <t>২৬/০৩/২০০০</t>
+          <t>০৫/০২/২০০২</t>
         </is>
       </c>
       <c r="H327" s="5" t="inlineStr">
         <is>
-          <t>২১, কালিনগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৭, কালিনগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="3" t="inlineStr">
         <is>
-          <t>১৩৫৫</t>
+          <t>১৩৩৬</t>
         </is>
       </c>
       <c r="B328" s="4" t="inlineStr">
         <is>
-          <t>ফারদিন হাসান রিশাত</t>
+          <t>আবদুল মুনাফ</t>
         </is>
       </c>
       <c r="C328" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৮৯১</t>
+          <t>১৫২৫৪৪০০০৮৬২</t>
         </is>
       </c>
       <c r="D328" s="4" t="inlineStr">
         <is>
-          <t>আবু আহমেদ</t>
+          <t>এজাহার মিয়া</t>
         </is>
       </c>
       <c r="E328" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা বেগম</t>
+          <t>নুর জাহান বেগম</t>
         </is>
       </c>
       <c r="F328" s="3" t="inlineStr">
@@ -14222,12 +14222,12 @@
       </c>
       <c r="G328" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/২০০২</t>
+          <t>২৬/০৩/২০০০</t>
         </is>
       </c>
       <c r="H328" s="5" t="inlineStr">
         <is>
-          <t>১৭, কালিনগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১, কালিনগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -14259,7 +14259,7 @@
       </c>
       <c r="F329" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০২/০৭/২০০১</t>
         </is>
       </c>
       <c r="G329" s="3" t="inlineStr">
@@ -14276,168 +14276,168 @@
     <row r="330">
       <c r="A330" s="3" t="inlineStr">
         <is>
-          <t>১৬৫১</t>
+          <t>০২৫০</t>
         </is>
       </c>
       <c r="B330" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হানিফ</t>
+          <t>মোহাম্মদ রফিক উদ্দীন</t>
         </is>
       </c>
       <c r="C330" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৮০১</t>
+          <t>১৫২৫৪৪৩৫৭০৩৮</t>
         </is>
       </c>
       <c r="D330" s="4" t="inlineStr">
         <is>
-          <t>মুজাফফর আহমেদ</t>
+          <t>আব্দুল মজিদ</t>
         </is>
       </c>
       <c r="E330" s="4" t="inlineStr">
         <is>
-          <t>সাজেদা বেগম</t>
+          <t>ছাবেরা খাতুন</t>
         </is>
       </c>
       <c r="F330" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G330" s="3" t="inlineStr">
         <is>
-          <t>৩০/০৭/২০০২</t>
+          <t>১৪/০৩/১৯৬৯</t>
         </is>
       </c>
       <c r="H330" s="5" t="inlineStr">
         <is>
-          <t>৪০, কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="3" t="inlineStr">
         <is>
-          <t>১৭৪৮</t>
+          <t>০৭০১</t>
         </is>
       </c>
       <c r="B331" s="4" t="inlineStr">
         <is>
-          <t>মোজাহার আহমেদ</t>
+          <t>মুহাম্মদ সাহাব উদ্দিন</t>
         </is>
       </c>
       <c r="C331" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৩৫</t>
+          <t>১৫২৫৪৪৩৫৮১৭৯</t>
         </is>
       </c>
       <c r="D331" s="4" t="inlineStr">
         <is>
-          <t>মৃত আব্দুস সালাম</t>
+          <t>মুহাম্মদ নুরুল কবির</t>
         </is>
       </c>
       <c r="E331" s="4" t="inlineStr">
         <is>
-          <t>মহুদা খাতুন</t>
+          <t>আহিয়া খাতুন</t>
         </is>
       </c>
       <c r="F331" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G331" s="3" t="inlineStr">
         <is>
-          <t>১৫/০২/১৯৬৭</t>
+          <t>০৭/০৩/১৯৮৯</t>
         </is>
       </c>
       <c r="H331" s="5" t="inlineStr">
         <is>
-          <t>২১, কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="3" t="inlineStr">
         <is>
-          <t>১৭৯০</t>
+          <t>১৬৫১</t>
         </is>
       </c>
       <c r="B332" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আব্দুল আজিজ</t>
+          <t>মোহাম্মদ হানিফ</t>
         </is>
       </c>
       <c r="C332" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৯০</t>
+          <t>১৫২৫৪৪৬৪২৮০১</t>
         </is>
       </c>
       <c r="D332" s="4" t="inlineStr">
         <is>
-          <t>জাগির হোসেন</t>
+          <t>মুজাফফর আহমেদ</t>
         </is>
       </c>
       <c r="E332" s="4" t="inlineStr">
         <is>
-          <t>লাইলা বেগম</t>
+          <t>সাজেদা বেগম</t>
         </is>
       </c>
       <c r="F332" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G332" s="3" t="inlineStr">
         <is>
-          <t>২৫/১১/২০০২</t>
+          <t>৩০/০৭/২০০২</t>
         </is>
       </c>
       <c r="H332" s="5" t="inlineStr">
         <is>
-          <t>৩৮, কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪০, কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="3" t="inlineStr">
         <is>
-          <t>০২৫০</t>
+          <t>১৭৯০</t>
         </is>
       </c>
       <c r="B333" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রফিক উদ্দীন</t>
+          <t>মোহাম্মদ আব্দুল আজিজ</t>
         </is>
       </c>
       <c r="C333" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭০৩৮</t>
+          <t>১৫২৫৪৪৬৪৩০৯০</t>
         </is>
       </c>
       <c r="D333" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল মজিদ</t>
+          <t>জাগির হোসেন</t>
         </is>
       </c>
       <c r="E333" s="4" t="inlineStr">
         <is>
-          <t>ছাবেরা খাতুন</t>
+          <t>লাইলা বেগম</t>
         </is>
       </c>
       <c r="F333" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G333" s="3" t="inlineStr">
         <is>
-          <t>১৪/০৩/১৯৬৯</t>
+          <t>২৫/১১/২০০২</t>
         </is>
       </c>
       <c r="H333" s="5" t="inlineStr">
         <is>
-          <t>কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৮, কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -14486,42 +14486,42 @@
     <row r="335">
       <c r="A335" s="3" t="inlineStr">
         <is>
-          <t>০৭০১</t>
+          <t>১৭৪৮</t>
         </is>
       </c>
       <c r="B335" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ সাহাব উদ্দিন</t>
+          <t>মোজাহার আহমেদ</t>
         </is>
       </c>
       <c r="C335" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৮১৭৯</t>
+          <t>১৫২৫৪৪৬৪৩০৩৫</t>
         </is>
       </c>
       <c r="D335" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ নুরুল কবির</t>
+          <t>মৃত আব্দুস সালাম</t>
         </is>
       </c>
       <c r="E335" s="4" t="inlineStr">
         <is>
-          <t>আহিয়া খাতুন</t>
+          <t>মহুদা খাতুন</t>
         </is>
       </c>
       <c r="F335" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G335" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৩/১৯৮৯</t>
+          <t>১৫/০২/১৯৬৭</t>
         </is>
       </c>
       <c r="H335" s="5" t="inlineStr">
         <is>
-          <t>কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১, কালিনগর, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -14612,69 +14612,69 @@
     <row r="338">
       <c r="A338" s="3" t="inlineStr">
         <is>
-          <t>১৩৭৫</t>
+          <t>১২৭৭</t>
         </is>
       </c>
       <c r="B338" s="4" t="inlineStr">
         <is>
-          <t>আবদুল্লাহ আল মাসুম</t>
+          <t>মোহাম্মদ এনাম উদ্দিন</t>
         </is>
       </c>
       <c r="C338" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯১৮</t>
+          <t>১৫২৫৪৪০০০৭৬১</t>
         </is>
       </c>
       <c r="D338" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলী</t>
+          <t>মুত আবদুল মজিদ</t>
         </is>
       </c>
       <c r="E338" s="4" t="inlineStr">
         <is>
-          <t>দিনুআরা বেগম</t>
+          <t>ছাবেরা খাতুন</t>
         </is>
       </c>
       <c r="F338" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G338" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৭/২০০১</t>
+          <t>১৫/০৭/১৯৭৮</t>
         </is>
       </c>
       <c r="H338" s="5" t="inlineStr">
         <is>
-          <t>১৫, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৭, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="3" t="inlineStr">
         <is>
-          <t>১৩৮১</t>
+          <t>১৩৩৯</t>
         </is>
       </c>
       <c r="B339" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মোমেন</t>
+          <t>মোহাম্মদ মিজবাহ উদ্দিন মিশাল</t>
         </is>
       </c>
       <c r="C339" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯২৫</t>
+          <t>১৫২৫৪৪০০০৮৭১</t>
         </is>
       </c>
       <c r="D339" s="4" t="inlineStr">
         <is>
-          <t>এজাহার মিয়া</t>
+          <t>মোহাম্মদ রফিক উদ্দিন</t>
         </is>
       </c>
       <c r="E339" s="4" t="inlineStr">
         <is>
-          <t>নুরু জাহান</t>
+          <t>কফিনুর আক্তার</t>
         </is>
       </c>
       <c r="F339" s="3" t="inlineStr">
@@ -14684,39 +14684,39 @@
       </c>
       <c r="G339" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/২০০১</t>
+          <t>৩০/১১/২০০৩</t>
         </is>
       </c>
       <c r="H339" s="5" t="inlineStr">
         <is>
-          <t>২১, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="3" t="inlineStr">
         <is>
-          <t>১৩৩৯</t>
+          <t>১৩৮১</t>
         </is>
       </c>
       <c r="B340" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মিজবাহ উদ্দিন মিশাল</t>
+          <t>আবদুল মোমেন</t>
         </is>
       </c>
       <c r="C340" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৮৭১</t>
+          <t>১৫২৫৪৪০০০৯২৫</t>
         </is>
       </c>
       <c r="D340" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রফিক উদ্দিন</t>
+          <t>এজাহার মিয়া</t>
         </is>
       </c>
       <c r="E340" s="4" t="inlineStr">
         <is>
-          <t>কফিনুর আক্তার</t>
+          <t>নুরু জাহান</t>
         </is>
       </c>
       <c r="F340" s="3" t="inlineStr">
@@ -14726,81 +14726,81 @@
       </c>
       <c r="G340" s="3" t="inlineStr">
         <is>
-          <t>৩০/১১/২০০৩</t>
+          <t>০১/০৭/২০০১</t>
         </is>
       </c>
       <c r="H340" s="5" t="inlineStr">
         <is>
-          <t>কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="3" t="inlineStr">
         <is>
-          <t>১২৭৭</t>
+          <t>১৩৮০</t>
         </is>
       </c>
       <c r="B341" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ এনাম উদ্দিন</t>
+          <t>আরফানুল হক</t>
         </is>
       </c>
       <c r="C341" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭৬১</t>
+          <t>১৫২৫৪৪০০০৯২৪</t>
         </is>
       </c>
       <c r="D341" s="4" t="inlineStr">
         <is>
-          <t>মুত আবদুল মজিদ</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="E341" s="4" t="inlineStr">
         <is>
-          <t>ছাবেরা খাতুন</t>
+          <t>পারভীন আক্তার</t>
         </is>
       </c>
       <c r="F341" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G341" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৭/১৯৭৮</t>
+          <t>০১/০১/২০০২</t>
         </is>
       </c>
       <c r="H341" s="5" t="inlineStr">
         <is>
-          <t>১৭, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩১, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="3" t="inlineStr">
         <is>
-          <t>১৩৮০</t>
+          <t>১৩৭৫</t>
         </is>
       </c>
       <c r="B342" s="4" t="inlineStr">
         <is>
-          <t>আরফানুল হক</t>
+          <t>আবদুল্লাহ আল মাসুম</t>
         </is>
       </c>
       <c r="C342" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯২৪</t>
+          <t>১৫২৫৪৪০০০৯১৮</t>
         </is>
       </c>
       <c r="D342" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>মোহাম্মদ আলী</t>
         </is>
       </c>
       <c r="E342" s="4" t="inlineStr">
         <is>
-          <t>পারভীন আক্তার</t>
+          <t>দিনুআরা বেগম</t>
         </is>
       </c>
       <c r="F342" s="3" t="inlineStr">
@@ -14810,12 +14810,12 @@
       </c>
       <c r="G342" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০২</t>
+          <t>০৩/০৭/২০০১</t>
         </is>
       </c>
       <c r="H342" s="5" t="inlineStr">
         <is>
-          <t>৩১, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৫, কালী নগর, চাক ফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -15872,69 +15872,69 @@
     <row r="368">
       <c r="A368" s="3" t="inlineStr">
         <is>
-          <t>১৪৪৫</t>
+          <t>১৫৭৭</t>
         </is>
       </c>
       <c r="B368" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবদুর রহমান</t>
+          <t>মোহাম্মদ রিদুয়ান</t>
         </is>
       </c>
       <c r="C368" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৯৫</t>
+          <t>১৫২৫৪৪৬৪২৭১১</t>
         </is>
       </c>
       <c r="D368" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাক আহমেদ</t>
+          <t>মুহাম্মদ জামাল উদ্দীন</t>
         </is>
       </c>
       <c r="E368" s="4" t="inlineStr">
         <is>
-          <t>কমরফিছা বেগম</t>
+          <t>মুতাহেরা বেগম</t>
         </is>
       </c>
       <c r="F368" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G368" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৮/২০০৬</t>
+          <t>০৮/১১/১৯৯৭</t>
         </is>
       </c>
       <c r="H368" s="5" t="inlineStr">
         <is>
-          <t>৪৭১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৭৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="3" t="inlineStr">
         <is>
-          <t>১৪৪৬</t>
+          <t>১৫৬৩</t>
         </is>
       </c>
       <c r="B369" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সাকিবুল ইসলাম</t>
+          <t>জাহেদ হোসেন</t>
         </is>
       </c>
       <c r="C369" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৯৬</t>
+          <t>১৫২৫৪৪৬৪২৬৯৭</t>
         </is>
       </c>
       <c r="D369" s="4" t="inlineStr">
         <is>
-          <t>আবুল হাসেম</t>
+          <t>আব্দুল আলম</t>
         </is>
       </c>
       <c r="E369" s="4" t="inlineStr">
         <is>
-          <t>খুরশিদা বেগম</t>
+          <t>দিলোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F369" s="3" t="inlineStr">
@@ -15944,81 +15944,81 @@
       </c>
       <c r="G369" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৬/২০০৬</t>
+          <t>০১/০১/১৯৯৯</t>
         </is>
       </c>
       <c r="H369" s="5" t="inlineStr">
         <is>
-          <t>৪৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৭৩, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="3" t="inlineStr">
         <is>
-          <t>১২৪৩</t>
+          <t>১২১১</t>
         </is>
       </c>
       <c r="B370" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নুরুল আমীন</t>
+          <t>জিয়ারুল হক</t>
         </is>
       </c>
       <c r="C370" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭২৩</t>
+          <t>১৫২৫৪৪০০০৬৩১</t>
         </is>
       </c>
       <c r="D370" s="4" t="inlineStr">
         <is>
-          <t>আলতাফ হোসেন</t>
+          <t>আবদুল হাকিম</t>
         </is>
       </c>
       <c r="E370" s="4" t="inlineStr">
         <is>
-          <t>ছালেহা বেগম</t>
+          <t>জাহান আরা বেগম</t>
         </is>
       </c>
       <c r="F370" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G370" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৫/১৯৯৯</t>
+          <t>১০/১২/১৯৮০</t>
         </is>
       </c>
       <c r="H370" s="5" t="inlineStr">
         <is>
-          <t>৩১৯, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৯৯, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="3" t="inlineStr">
         <is>
-          <t>১২২৯</t>
+          <t>১৫৬৬</t>
         </is>
       </c>
       <c r="B371" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলমগীর</t>
+          <t>কামরুল হাসান</t>
         </is>
       </c>
       <c r="C371" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭০৬</t>
+          <t>১৫২৫৪৪৬৪২৭০০</t>
         </is>
       </c>
       <c r="D371" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আব্দুল আনছারী</t>
+          <t>দুদু মিয়া</t>
         </is>
       </c>
       <c r="E371" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আক্তার</t>
+          <t>জাহেদা বেগম</t>
         </is>
       </c>
       <c r="F371" s="3" t="inlineStr">
@@ -16028,96 +16028,96 @@
       </c>
       <c r="G371" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৯/১৯৯৮</t>
+          <t>২০/০৬/১৯৯৮</t>
         </is>
       </c>
       <c r="H371" s="5" t="inlineStr">
         <is>
-          <t>১৫০, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৫৫, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="3" t="inlineStr">
         <is>
-          <t>১২০৪</t>
+          <t>১৪৪৮</t>
         </is>
       </c>
       <c r="B372" s="4" t="inlineStr">
         <is>
-          <t>ফরিদুল আলম</t>
+          <t>মুহাম্মদ জিহাদ বিন মাহবুব</t>
         </is>
       </c>
       <c r="C372" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৬২৭</t>
+          <t>১৫২৫৪৪০০০৯৯৮</t>
         </is>
       </c>
       <c r="D372" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আলী</t>
+          <t>মাহবুবুর রহমান</t>
         </is>
       </c>
       <c r="E372" s="4" t="inlineStr">
         <is>
-          <t>আসিয়া খাতুন</t>
+          <t>ছুরাইন জান্নাত</t>
         </is>
       </c>
       <c r="F372" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G372" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৮/১৯৮২</t>
+          <t>১০/০৩/২০০৬</t>
         </is>
       </c>
       <c r="H372" s="5" t="inlineStr">
         <is>
-          <t>৪২৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="3" t="inlineStr">
         <is>
-          <t>১২৫৩</t>
+          <t>১২২৯</t>
         </is>
       </c>
       <c r="B373" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ফুতুব উদ্দীন</t>
+          <t>মোহাম্মদ আলমগীর</t>
         </is>
       </c>
       <c r="C373" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭৬২</t>
+          <t>১৫২৫৪৪০০০৭০৬</t>
         </is>
       </c>
       <c r="D373" s="4" t="inlineStr">
         <is>
-          <t>নূর আহমেদ</t>
+          <t>মোহাম্মদ আব্দুল আনছারী</t>
         </is>
       </c>
       <c r="E373" s="4" t="inlineStr">
         <is>
-          <t>জুলেখা বেগম</t>
+          <t>শাহিন আক্তার</t>
         </is>
       </c>
       <c r="F373" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G373" s="3" t="inlineStr">
         <is>
-          <t>২০/০৩/১৯৮৪</t>
+          <t>০৮/০৯/১৯৯৮</t>
         </is>
       </c>
       <c r="H373" s="5" t="inlineStr">
         <is>
-          <t>., চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৫০, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -16166,111 +16166,111 @@
     <row r="375">
       <c r="A375" s="3" t="inlineStr">
         <is>
-          <t>১৪৪৮</t>
+          <t>১২৩৬</t>
         </is>
       </c>
       <c r="B375" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ জিহাদ বিন মাহবুব</t>
+          <t>আব্দুল্লাহ আল নোমান</t>
         </is>
       </c>
       <c r="C375" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৯৮</t>
+          <t>১৫২৫৪৪০০০৭১৫</t>
         </is>
       </c>
       <c r="D375" s="4" t="inlineStr">
         <is>
-          <t>মাহবুবুর রহমান</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E375" s="4" t="inlineStr">
         <is>
-          <t>ছুরাইন জান্নাত</t>
+          <t>শফিয়ারা বেগম</t>
         </is>
       </c>
       <c r="F375" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G375" s="3" t="inlineStr">
         <is>
-          <t>১০/০৩/২০০৬</t>
+          <t>০৩/০৯/১৯৯৬</t>
         </is>
       </c>
       <c r="H375" s="5" t="inlineStr">
         <is>
-          <t>৫৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬১৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="3" t="inlineStr">
         <is>
-          <t>১২২৩</t>
+          <t>১৫৫১</t>
         </is>
       </c>
       <c r="B376" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ আলী</t>
+          <t>মোহাম্মদ হানিফ</t>
         </is>
       </c>
       <c r="C376" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৬৯৫</t>
+          <t>১৫২৫৪৪৬৪২৬৮৫</t>
         </is>
       </c>
       <c r="D376" s="4" t="inlineStr">
         <is>
-          <t>মৃত মোজাহের আহমেদ</t>
+          <t>আহমেদ হোসাইন</t>
         </is>
       </c>
       <c r="E376" s="4" t="inlineStr">
         <is>
-          <t>মুস্তাফা খাতুন</t>
+          <t>তছলিমা বেগম</t>
         </is>
       </c>
       <c r="F376" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G376" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৫৩</t>
+          <t>০৫/১০/২০০২</t>
         </is>
       </c>
       <c r="H376" s="5" t="inlineStr">
         <is>
-          <t>৪০৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৯৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="3" t="inlineStr">
         <is>
-          <t>১৫৬৬</t>
+          <t>১৫৭১</t>
         </is>
       </c>
       <c r="B377" s="4" t="inlineStr">
         <is>
-          <t>কামরুল হাসান</t>
+          <t>মোহাম্মদ শহিদুল ইসলাম</t>
         </is>
       </c>
       <c r="C377" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭০০</t>
+          <t>১৫২৫৪৪৬৪২৭০৫</t>
         </is>
       </c>
       <c r="D377" s="4" t="inlineStr">
         <is>
-          <t>দুদু মিয়া</t>
+          <t>আবুল হাসেম</t>
         </is>
       </c>
       <c r="E377" s="4" t="inlineStr">
         <is>
-          <t>জাহেদা বেগম</t>
+          <t>খুরশিদা বেগম</t>
         </is>
       </c>
       <c r="F377" s="3" t="inlineStr">
@@ -16280,249 +16280,249 @@
       </c>
       <c r="G377" s="3" t="inlineStr">
         <is>
-          <t>২০/০৬/১৯৯৮</t>
+          <t>০১/০১/১৯৯৩</t>
         </is>
       </c>
       <c r="H377" s="5" t="inlineStr">
         <is>
-          <t>৭৫৫, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="3" t="inlineStr">
         <is>
-          <t>১২১১</t>
+          <t>১২৪৩</t>
         </is>
       </c>
       <c r="B378" s="4" t="inlineStr">
         <is>
-          <t>জিয়ারুল হক</t>
+          <t>মোহাম্মদ নুরুল আমীন</t>
         </is>
       </c>
       <c r="C378" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৬৩১</t>
+          <t>১৫২৫৪৪০০০৭২৩</t>
         </is>
       </c>
       <c r="D378" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হাকিম</t>
+          <t>আলতাফ হোসেন</t>
         </is>
       </c>
       <c r="E378" s="4" t="inlineStr">
         <is>
-          <t>জাহান আরা বেগম</t>
+          <t>ছালেহা বেগম</t>
         </is>
       </c>
       <c r="F378" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G378" s="3" t="inlineStr">
         <is>
-          <t>১০/১২/১৯৮০</t>
+          <t>০৯/০৫/১৯৯৯</t>
         </is>
       </c>
       <c r="H378" s="5" t="inlineStr">
         <is>
-          <t>৭৯৯, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩১৯, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="3" t="inlineStr">
         <is>
-          <t>১৫৬৩</t>
+          <t>১৫৬১</t>
         </is>
       </c>
       <c r="B379" s="4" t="inlineStr">
         <is>
-          <t>জাহেদ হোসেন</t>
+          <t>মোঃ হেলাল</t>
         </is>
       </c>
       <c r="C379" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬৯৭</t>
+          <t>১৫২৫৪৪৬৪২৬৯৫</t>
         </is>
       </c>
       <c r="D379" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল আলম</t>
+          <t>মাহবুব রহমান</t>
         </is>
       </c>
       <c r="E379" s="4" t="inlineStr">
         <is>
-          <t>দিলোয়ারা বেগম</t>
+          <t>ছালেহা বেগম</t>
         </is>
       </c>
       <c r="F379" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G379" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৯</t>
+          <t>১০/১০/২০০৩</t>
         </is>
       </c>
       <c r="H379" s="5" t="inlineStr">
         <is>
-          <t>৭৭৩, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৫৪, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="3" t="inlineStr">
         <is>
-          <t>১২৪৫</t>
+          <t>১৭৮১</t>
         </is>
       </c>
       <c r="B380" s="4" t="inlineStr">
         <is>
-          <t>মিটন রুদ্র</t>
+          <t>মোহাম্মদ আরফাত</t>
         </is>
       </c>
       <c r="C380" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭২৫</t>
+          <t>১৫২৫৪৪৬৪৩০৮১</t>
         </is>
       </c>
       <c r="D380" s="4" t="inlineStr">
         <is>
-          <t>পুনেন্দু রুদ্র</t>
+          <t>মোহাম্মদ মোস্তাক</t>
         </is>
       </c>
       <c r="E380" s="4" t="inlineStr">
         <is>
-          <t>সবিতা রানী রুদ্র</t>
+          <t>জুলেহা বেগম</t>
         </is>
       </c>
       <c r="F380" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G380" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০০</t>
+          <t>০৪/০৩/২০০২</t>
         </is>
       </c>
       <c r="H380" s="5" t="inlineStr">
         <is>
-          <t>৬২৯, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৩১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="3" t="inlineStr">
         <is>
-          <t>১৫৬১</t>
+          <t>১৫৮১</t>
         </is>
       </c>
       <c r="B381" s="4" t="inlineStr">
         <is>
-          <t>মোঃ হেলাল</t>
+          <t>মাইনুদ্দীন হাসান জিসান</t>
         </is>
       </c>
       <c r="C381" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬৯৫</t>
+          <t>১৫২৫৪৪৬৪২৭১৫</t>
         </is>
       </c>
       <c r="D381" s="4" t="inlineStr">
         <is>
-          <t>মাহবুব রহমান</t>
+          <t>মোঃ শাহজাহান</t>
         </is>
       </c>
       <c r="E381" s="4" t="inlineStr">
         <is>
-          <t>ছালেহা বেগম</t>
+          <t>ফরিদা ইয়াছমিন</t>
         </is>
       </c>
       <c r="F381" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G381" s="3" t="inlineStr">
         <is>
-          <t>১০/১০/২০০৩</t>
+          <t>০৪/০৮/১৯৯৯</t>
         </is>
       </c>
       <c r="H381" s="5" t="inlineStr">
         <is>
-          <t>৭৫৪, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৫৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="3" t="inlineStr">
         <is>
-          <t>১৬৩৮</t>
+          <t>১৭৩৬</t>
         </is>
       </c>
       <c r="B382" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ লোকমান</t>
+          <t>মোহাম্মদ মিনার</t>
         </is>
       </c>
       <c r="C382" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭৮৬</t>
+          <t>১৫২৫৪৪৬৪৩০২৩</t>
         </is>
       </c>
       <c r="D382" s="4" t="inlineStr">
         <is>
-          <t>আমির হোসেন</t>
+          <t>মুহাম্মদ বদিউল আলম</t>
         </is>
       </c>
       <c r="E382" s="4" t="inlineStr">
         <is>
-          <t>নাহিমা আখতার</t>
+          <t>ফরিদা বেগম</t>
         </is>
       </c>
       <c r="F382" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G382" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৮/২০০২</t>
+          <t>০২/০১/২০০২</t>
         </is>
       </c>
       <c r="H382" s="5" t="inlineStr">
         <is>
-          <t>৭৬৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৬৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="3" t="inlineStr">
         <is>
-          <t>১৫৮৪</t>
+          <t>০৯৯৬</t>
         </is>
       </c>
       <c r="B383" s="4" t="inlineStr">
         <is>
-          <t>খোরশেদ আলম</t>
+          <t>মোহাম্মদ আবদুল মোমিন</t>
         </is>
       </c>
       <c r="C383" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭২০</t>
+          <t>১৫২৫৪৪০০০১৮৫</t>
         </is>
       </c>
       <c r="D383" s="4" t="inlineStr">
         <is>
-          <t>বশির আহমেদ</t>
+          <t>আবদুল মাবদ</t>
         </is>
       </c>
       <c r="E383" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>আমেনা বেগম</t>
         </is>
       </c>
       <c r="F383" s="3" t="inlineStr">
@@ -16532,222 +16532,222 @@
       </c>
       <c r="G383" s="3" t="inlineStr">
         <is>
-          <t>২০/০৬/১৯৯৭</t>
+          <t>০১/০৩/১৯৯৪</t>
         </is>
       </c>
       <c r="H383" s="5" t="inlineStr">
         <is>
-          <t>২৭২, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="3" t="inlineStr">
         <is>
-          <t>১৭৬৪</t>
+          <t>১৭৮৩</t>
         </is>
       </c>
       <c r="B384" s="4" t="inlineStr">
         <is>
-          <t>জিয়াবুল হক</t>
+          <t>মোহাম্মদ জাহাঙ্গীর আলম</t>
         </is>
       </c>
       <c r="C384" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬৩</t>
+          <t>১৫২৫৪৪৬৪৩০৮৩</t>
         </is>
       </c>
       <c r="D384" s="4" t="inlineStr">
         <is>
-          <t>মহি উদ্দীন</t>
+          <t>মুহাম্মদ মোস্তাক</t>
         </is>
       </c>
       <c r="E384" s="4" t="inlineStr">
         <is>
-          <t>আরাফা বেগম</t>
+          <t>জুলেহা বেগম</t>
         </is>
       </c>
       <c r="F384" s="3" t="inlineStr">
         <is>
-          <t>ক্ষুদ্রক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G384" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৫/১৯৯৮</t>
+          <t>০৩/০২/২০০১</t>
         </is>
       </c>
       <c r="H384" s="5" t="inlineStr">
         <is>
-          <t>১০০, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৩১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="3" t="inlineStr">
         <is>
-          <t>১৬০৯</t>
+          <t>১৭৬৪</t>
         </is>
       </c>
       <c r="B385" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হোসাইন তানজিম</t>
+          <t>জিয়াবুল হক</t>
         </is>
       </c>
       <c r="C385" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭৪৬</t>
+          <t>১৫২৫৪৪৬৪৩০০৬৩</t>
         </is>
       </c>
       <c r="D385" s="4" t="inlineStr">
         <is>
-          <t>মোঃ মিয়াজান আলী</t>
+          <t>মহি উদ্দীন</t>
         </is>
       </c>
       <c r="E385" s="4" t="inlineStr">
         <is>
-          <t>হোছেন আরা বেগম</t>
+          <t>আরাফা বেগম</t>
         </is>
       </c>
       <c r="F385" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ক্ষুদ্রক</t>
         </is>
       </c>
       <c r="G385" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০৩</t>
+          <t>০৩/০৫/১৯৯৮</t>
         </is>
       </c>
       <c r="H385" s="5" t="inlineStr">
         <is>
-          <t>২৮৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১০০, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="3" t="inlineStr">
         <is>
-          <t>১৭৮৩</t>
+          <t>১৬৩৮</t>
         </is>
       </c>
       <c r="B386" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জাহাঙ্গীর আলম</t>
+          <t>মোহাম্মদ লোকমান</t>
         </is>
       </c>
       <c r="C386" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৮৩</t>
+          <t>১৫২৫৪৪৬৪২৭৮৬</t>
         </is>
       </c>
       <c r="D386" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ মোস্তাক</t>
+          <t>আমির হোসেন</t>
         </is>
       </c>
       <c r="E386" s="4" t="inlineStr">
         <is>
-          <t>জুলেহা বেগম</t>
+          <t>নাহিমা আখতার</t>
         </is>
       </c>
       <c r="F386" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G386" s="3" t="inlineStr">
         <is>
-          <t>০৩/০২/২০০১</t>
+          <t>০৬/০৮/২০০২</t>
         </is>
       </c>
       <c r="H386" s="5" t="inlineStr">
         <is>
-          <t>২৩১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৬৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="3" t="inlineStr">
         <is>
-          <t>১৬০৮</t>
+          <t>১৬০৯</t>
         </is>
       </c>
       <c r="B387" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সিহাব</t>
+          <t>আবদুল হোসাইন তানজিম</t>
         </is>
       </c>
       <c r="C387" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭৪৫</t>
+          <t>১৫২৫৪৪৬৪২৭৪৬</t>
         </is>
       </c>
       <c r="D387" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ এনাম</t>
+          <t>মোঃ মিয়াজান আলী</t>
         </is>
       </c>
       <c r="E387" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>হোছেন আরা বেগম</t>
         </is>
       </c>
       <c r="F387" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G387" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৮/২০০৩</t>
+          <t>০১/০১/২০০৩</t>
         </is>
       </c>
       <c r="H387" s="5" t="inlineStr">
         <is>
-          <t>১৬, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৮৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="3" t="inlineStr">
         <is>
-          <t>১৭২৬</t>
+          <t>১৬০৮</t>
         </is>
       </c>
       <c r="B388" s="4" t="inlineStr">
         <is>
-          <t>দেলোয়ার হোছাইন</t>
+          <t>মোহাম্মদ সিহাব</t>
         </is>
       </c>
       <c r="C388" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০১৩</t>
+          <t>১৫২৫৪৪৬৪২৭৪৫</t>
         </is>
       </c>
       <c r="D388" s="4" t="inlineStr">
         <is>
-          <t>মৃত আজগর আলী</t>
+          <t>মোহাম্মদ এনাম</t>
         </is>
       </c>
       <c r="E388" s="4" t="inlineStr">
         <is>
-          <t>মৃত লায়লা বেগম</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="F388" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G388" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৭৫</t>
+          <t>০৮/০৮/২০০৩</t>
         </is>
       </c>
       <c r="H388" s="5" t="inlineStr">
         <is>
-          <t>৭৮৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৬, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -16922,111 +16922,111 @@
     <row r="393">
       <c r="A393" s="3" t="inlineStr">
         <is>
-          <t>১৭৩৬</t>
+          <t>১৫৮৫</t>
         </is>
       </c>
       <c r="B393" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মিনার</t>
+          <t>মোহাম্মদ জুনাইদ</t>
         </is>
       </c>
       <c r="C393" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০২৩</t>
+          <t>১৫২৫৪৪৬৪২৭২১</t>
         </is>
       </c>
       <c r="D393" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ বদিউল আলম</t>
+          <t>মোঃ এস্তাক আলী</t>
         </is>
       </c>
       <c r="E393" s="4" t="inlineStr">
         <is>
-          <t>ফরিদা বেগম</t>
+          <t>হেসনে আরা বেগম</t>
         </is>
       </c>
       <c r="F393" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G393" s="3" t="inlineStr">
         <is>
-          <t>০২/০১/২০০২</t>
+          <t>০৭/০৫/২০০২</t>
         </is>
       </c>
       <c r="H393" s="5" t="inlineStr">
         <is>
-          <t>২৬৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৮১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="3" t="inlineStr">
         <is>
-          <t>১৭৮১</t>
+          <t>১৪৭২</t>
         </is>
       </c>
       <c r="B394" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আরফাত</t>
+          <t>জুনাইদুল ইসলাম</t>
         </is>
       </c>
       <c r="C394" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৮১</t>
+          <t>১৫২৫৪৪৬৪২৫৪৫</t>
         </is>
       </c>
       <c r="D394" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মোস্তাক</t>
+          <t>আব্দুল কাশেম</t>
         </is>
       </c>
       <c r="E394" s="4" t="inlineStr">
         <is>
-          <t>জুলেহা বেগম</t>
+          <t>নুরুজ্জাহান বেগম</t>
         </is>
       </c>
       <c r="F394" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১১/০২/২০০৩</t>
         </is>
       </c>
       <c r="G394" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৩/২০০২</t>
+          <t>১১/০২/২০০৩</t>
         </is>
       </c>
       <c r="H394" s="5" t="inlineStr">
         <is>
-          <t>২৩১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৪, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="3" t="inlineStr">
         <is>
-          <t>১৫৮৫</t>
+          <t>১৫৮৪</t>
         </is>
       </c>
       <c r="B395" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জুনাইদ</t>
+          <t>খোরশেদ আলম</t>
         </is>
       </c>
       <c r="C395" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭২১</t>
+          <t>১৫২৫৪৪৬৪২৭২০</t>
         </is>
       </c>
       <c r="D395" s="4" t="inlineStr">
         <is>
-          <t>মোঃ এস্তাক আলী</t>
+          <t>বশির আহমেদ</t>
         </is>
       </c>
       <c r="E395" s="4" t="inlineStr">
         <is>
-          <t>হেসনে আরা বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F395" s="3" t="inlineStr">
@@ -17036,123 +17036,123 @@
       </c>
       <c r="G395" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৫/২০০২</t>
+          <t>২০/০৬/১৯৯৭</t>
         </is>
       </c>
       <c r="H395" s="5" t="inlineStr">
         <is>
-          <t>৫৮১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৭২, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="3" t="inlineStr">
         <is>
-          <t>১৪৭২</t>
+          <t>১৫৮৩</t>
         </is>
       </c>
       <c r="B396" s="4" t="inlineStr">
         <is>
-          <t>জুনাইদুল ইসলাম</t>
+          <t>হাবিবুল্লাহ</t>
         </is>
       </c>
       <c r="C396" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৪৫</t>
+          <t>১৫২৫৪৪৬৪২৭১৭</t>
         </is>
       </c>
       <c r="D396" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল কাশেম</t>
+          <t>ফয়েজুল হক</t>
         </is>
       </c>
       <c r="E396" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ্জাহান বেগম</t>
+          <t>মোহাম্মদ মাহমুদা</t>
         </is>
       </c>
       <c r="F396" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G396" s="3" t="inlineStr">
         <is>
-          <t>১১/০২/২০০৩</t>
+          <t>০১/০৬/১৯৯১</t>
         </is>
       </c>
       <c r="H396" s="5" t="inlineStr">
         <is>
-          <t>৩৪, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৫৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="3" t="inlineStr">
         <is>
-          <t>১৫৭১</t>
+          <t>১৫৮২</t>
         </is>
       </c>
       <c r="B397" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ শহিদুল ইসলাম</t>
+          <t>মোহাম্মদ রায়হান উদ্দিন</t>
         </is>
       </c>
       <c r="C397" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭০৫</t>
+          <t>১৫২৫৪৪৬৪২৭১৬</t>
         </is>
       </c>
       <c r="D397" s="4" t="inlineStr">
         <is>
-          <t>আবুল হাসেম</t>
+          <t>মোহাম্মদ শাহালাম</t>
         </is>
       </c>
       <c r="E397" s="4" t="inlineStr">
         <is>
-          <t>খুরশিদা বেগম</t>
+          <t>আরেফা বেগম</t>
         </is>
       </c>
       <c r="F397" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G397" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৩</t>
+          <t>০১/০৫/১৯৯৭</t>
         </is>
       </c>
       <c r="H397" s="5" t="inlineStr">
         <is>
-          <t>৪৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৬৫, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="3" t="inlineStr">
         <is>
-          <t>১৫৫১</t>
+          <t>১২৪৫</t>
         </is>
       </c>
       <c r="B398" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হানিফ</t>
+          <t>মিটন রুদ্র</t>
         </is>
       </c>
       <c r="C398" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬৮৫</t>
+          <t>১৫২৫৪৪০০০৭২৫</t>
         </is>
       </c>
       <c r="D398" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ হোসাইন</t>
+          <t>পুনেন্দু রুদ্র</t>
         </is>
       </c>
       <c r="E398" s="4" t="inlineStr">
         <is>
-          <t>তছলিমা বেগম</t>
+          <t>সবিতা রানী রুদ্র</t>
         </is>
       </c>
       <c r="F398" s="3" t="inlineStr">
@@ -17162,81 +17162,81 @@
       </c>
       <c r="G398" s="3" t="inlineStr">
         <is>
-          <t>০৫/১০/২০০২</t>
+          <t>০১/০১/২০০০</t>
         </is>
       </c>
       <c r="H398" s="5" t="inlineStr">
         <is>
-          <t>৪৯৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬২৯, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="3" t="inlineStr">
         <is>
-          <t>১৫৮৩</t>
+          <t>১৪৭১</t>
         </is>
       </c>
       <c r="B399" s="4" t="inlineStr">
         <is>
-          <t>হাবিবুল্লাহ</t>
+          <t>মোহাম্মদ নাছির উদ্দীন</t>
         </is>
       </c>
       <c r="C399" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭১৭</t>
+          <t>১৫২৫৪৪৬৪২৫৪৪</t>
         </is>
       </c>
       <c r="D399" s="4" t="inlineStr">
         <is>
-          <t>ফয়েজুল হক</t>
+          <t>মোহাম্মদ খুল মিয়া</t>
         </is>
       </c>
       <c r="E399" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মাহমুদা</t>
+          <t>নুরুজ্জাহান</t>
         </is>
       </c>
       <c r="F399" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৮/০৬/২০০১</t>
         </is>
       </c>
       <c r="G399" s="3" t="inlineStr">
         <is>
-          <t>০১/০৬/১৯৯১</t>
+          <t>০৮/০৬/২০০১</t>
         </is>
       </c>
       <c r="H399" s="5" t="inlineStr">
         <is>
-          <t>২৫৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="3" t="inlineStr">
         <is>
-          <t>১৫৮২</t>
+          <t>১৫৭৮</t>
         </is>
       </c>
       <c r="B400" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রায়হান উদ্দিন</t>
+          <t>ছমাইন কবির</t>
         </is>
       </c>
       <c r="C400" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭১৬</t>
+          <t>১৫২৫৪৪৬৪২৭১২</t>
         </is>
       </c>
       <c r="D400" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ শাহালাম</t>
+          <t>হারুন রশীদ</t>
         </is>
       </c>
       <c r="E400" s="4" t="inlineStr">
         <is>
-          <t>আরেফা বেগম</t>
+          <t>রৌশন আক্তার</t>
         </is>
       </c>
       <c r="F400" s="3" t="inlineStr">
@@ -17246,39 +17246,39 @@
       </c>
       <c r="G400" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৯৭</t>
+          <t>০৩/০২/২০০২</t>
         </is>
       </c>
       <c r="H400" s="5" t="inlineStr">
         <is>
-          <t>৫৬৫, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৮৪, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="3" t="inlineStr">
         <is>
-          <t>১৫৮১</t>
+          <t>১২৫৩</t>
         </is>
       </c>
       <c r="B401" s="4" t="inlineStr">
         <is>
-          <t>মাইনুদ্দীন হাসান জিসান</t>
+          <t>মোঃ ফুতুব উদ্দীন</t>
         </is>
       </c>
       <c r="C401" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭১৫</t>
+          <t>১৫২৫৪৪০০০৭৬২</t>
         </is>
       </c>
       <c r="D401" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শাহজাহান</t>
+          <t>নূর আহমেদ</t>
         </is>
       </c>
       <c r="E401" s="4" t="inlineStr">
         <is>
-          <t>ফরিদা ইয়াছমিন</t>
+          <t>জুলেখা বেগম</t>
         </is>
       </c>
       <c r="F401" s="3" t="inlineStr">
@@ -17288,207 +17288,207 @@
       </c>
       <c r="G401" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৮/১৯৯৯</t>
+          <t>২০/০৩/১৯৮৪</t>
         </is>
       </c>
       <c r="H401" s="5" t="inlineStr">
         <is>
-          <t>৭৫৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>., চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="3" t="inlineStr">
         <is>
-          <t>১৪৭১</t>
+          <t>১২০৪</t>
         </is>
       </c>
       <c r="B402" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নাছির উদ্দীন</t>
+          <t>ফরিদুল আলম</t>
         </is>
       </c>
       <c r="C402" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৪৪</t>
+          <t>১৫২৫৪৪০০০৬২৭</t>
         </is>
       </c>
       <c r="D402" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ খুল মিয়া</t>
+          <t>মোঃ আলী</t>
         </is>
       </c>
       <c r="E402" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ্জাহান</t>
+          <t>আসিয়া খাতুন</t>
         </is>
       </c>
       <c r="F402" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>মিস্ত্রী</t>
         </is>
       </c>
       <c r="G402" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৬/২০০১</t>
+          <t>০৩/০৮/১৯৮২</t>
         </is>
       </c>
       <c r="H402" s="5" t="inlineStr">
         <is>
-          <t>৮১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪২৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="3" t="inlineStr">
         <is>
-          <t>১৫৭৮</t>
+          <t>১২২৩</t>
         </is>
       </c>
       <c r="B403" s="4" t="inlineStr">
         <is>
-          <t>ছমাইন কবির</t>
+          <t>মুহাম্মদ আলী</t>
         </is>
       </c>
       <c r="C403" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭১২</t>
+          <t>১৫২৫৪৪০০০৬৯৫</t>
         </is>
       </c>
       <c r="D403" s="4" t="inlineStr">
         <is>
-          <t>হারুন রশীদ</t>
+          <t>মৃত মোজাহের আহমেদ</t>
         </is>
       </c>
       <c r="E403" s="4" t="inlineStr">
         <is>
-          <t>রৌশন আক্তার</t>
+          <t>মুস্তাফা খাতুন</t>
         </is>
       </c>
       <c r="F403" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G403" s="3" t="inlineStr">
         <is>
-          <t>০৩/০২/২০০২</t>
+          <t>১০/০৫/১৯৫৩</t>
         </is>
       </c>
       <c r="H403" s="5" t="inlineStr">
         <is>
-          <t>৪৮৪, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪০৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="3" t="inlineStr">
         <is>
-          <t>১২৩৬</t>
+          <t>১৭২৬</t>
         </is>
       </c>
       <c r="B404" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল্লাহ আল নোমান</t>
+          <t>দেলোয়ার হোছাইন</t>
         </is>
       </c>
       <c r="C404" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৭১৫</t>
+          <t>১৫২৫৪৪৬৪৩০১৩</t>
         </is>
       </c>
       <c r="D404" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>মৃত আজগর আলী</t>
         </is>
       </c>
       <c r="E404" s="4" t="inlineStr">
         <is>
-          <t>শফিয়ারা বেগম</t>
+          <t>মৃত লায়লা বেগম</t>
         </is>
       </c>
       <c r="F404" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G404" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৯/১৯৯৬</t>
+          <t>১০/০৫/১৯৭৫</t>
         </is>
       </c>
       <c r="H404" s="5" t="inlineStr">
         <is>
-          <t>৬১৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৮৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="3" t="inlineStr">
         <is>
-          <t>১৫৭৭</t>
+          <t>১৪৪৫</t>
         </is>
       </c>
       <c r="B405" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রিদুয়ান</t>
+          <t>মোহাম্মদ আবদুর রহমান</t>
         </is>
       </c>
       <c r="C405" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭১১</t>
+          <t>১৫২৫৪৪০০০৯৯৫</t>
         </is>
       </c>
       <c r="D405" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ জামাল উদ্দীন</t>
+          <t>মোস্তাক আহমেদ</t>
         </is>
       </c>
       <c r="E405" s="4" t="inlineStr">
         <is>
-          <t>মুতাহেরা বেগম</t>
+          <t>কমরফিছা বেগম</t>
         </is>
       </c>
       <c r="F405" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G405" s="3" t="inlineStr">
         <is>
-          <t>০৮/১১/১৯৯৭</t>
+          <t>১৮/০৮/২০০৬</t>
         </is>
       </c>
       <c r="H405" s="5" t="inlineStr">
         <is>
-          <t>২৭৭, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৭১, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="3" t="inlineStr">
         <is>
-          <t>০৯৯৬</t>
+          <t>১৪৪৬</t>
         </is>
       </c>
       <c r="B406" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবদুল মোমিন</t>
+          <t>মোহাম্মদ সাকিবুল ইসলাম</t>
         </is>
       </c>
       <c r="C406" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০১৮৫</t>
+          <t>১৫২৫৪৪০০০৯৯৬</t>
         </is>
       </c>
       <c r="D406" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মাবদ</t>
+          <t>আবুল হাসেম</t>
         </is>
       </c>
       <c r="E406" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম</t>
+          <t>খুরশিদা বেগম</t>
         </is>
       </c>
       <c r="F406" s="3" t="inlineStr">
@@ -17498,12 +17498,12 @@
       </c>
       <c r="G406" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৯৪</t>
+          <t>০৬/০৬/২০০৬</t>
         </is>
       </c>
       <c r="H406" s="5" t="inlineStr">
         <is>
-          <t>., চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪৮, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -17594,27 +17594,27 @@
     <row r="409">
       <c r="A409" s="3" t="inlineStr">
         <is>
-          <t>১৫৩১</t>
+          <t>১৫৩০</t>
         </is>
       </c>
       <c r="B409" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবু ছেয়দ</t>
+          <t>আবুল কালাম</t>
         </is>
       </c>
       <c r="C409" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬১৩</t>
+          <t>১৫২৫৪৪৬৪২৬১২</t>
         </is>
       </c>
       <c r="D409" s="4" t="inlineStr">
         <is>
-          <t>মফিজুর রহমান</t>
+          <t>মিয়া হোসেন</t>
         </is>
       </c>
       <c r="E409" s="4" t="inlineStr">
         <is>
-          <t>কফিনুর আক্তার</t>
+          <t>জরিনা খাতুন</t>
         </is>
       </c>
       <c r="F409" s="3" t="inlineStr">
@@ -17624,12 +17624,12 @@
       </c>
       <c r="G409" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৭/২০০৩</t>
+          <t>০৩/০৫/১৯৯৬</t>
         </is>
       </c>
       <c r="H409" s="5" t="inlineStr">
         <is>
-          <t>৮৩, চকফিরানী (নতুন পাড়া), চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৬৮, চকফিরানী (নতুন পাড়া), চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -17678,27 +17678,27 @@
     <row r="411">
       <c r="A411" s="3" t="inlineStr">
         <is>
-          <t>১৫৩০</t>
+          <t>১৫৩১</t>
         </is>
       </c>
       <c r="B411" s="4" t="inlineStr">
         <is>
-          <t>আবুল কালাম</t>
+          <t>মোহাম্মদ আবু ছেয়দ</t>
         </is>
       </c>
       <c r="C411" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬১২</t>
+          <t>১৫২৫৪৪৬৪২৬১৩</t>
         </is>
       </c>
       <c r="D411" s="4" t="inlineStr">
         <is>
-          <t>মিয়া হোসেন</t>
+          <t>মফিজুর রহমান</t>
         </is>
       </c>
       <c r="E411" s="4" t="inlineStr">
         <is>
-          <t>জরিনা খাতুন</t>
+          <t>কফিনুর আক্তার</t>
         </is>
       </c>
       <c r="F411" s="3" t="inlineStr">
@@ -17708,12 +17708,12 @@
       </c>
       <c r="G411" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৫/১৯৯৬</t>
+          <t>০৫/০৭/২০০৩</t>
         </is>
       </c>
       <c r="H411" s="5" t="inlineStr">
         <is>
-          <t>৬৮, চকফিরানী (নতুন পাড়া), চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৩, চকফিরানী (নতুন পাড়া), চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -17804,27 +17804,27 @@
     <row r="414">
       <c r="A414" s="3" t="inlineStr">
         <is>
-          <t>১৫৬৮</t>
+          <t>১৪৪৩</t>
         </is>
       </c>
       <c r="B414" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শাহেদুল ইসলাম</t>
+          <t>জমির উদ্দীন</t>
         </is>
       </c>
       <c r="C414" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭০২</t>
+          <t>১৫২৫৪৪০০০৯৯৩</t>
         </is>
       </c>
       <c r="D414" s="4" t="inlineStr">
         <is>
-          <t>বদিউজ্জামান</t>
+          <t>নাছির উদ্দীন</t>
         </is>
       </c>
       <c r="E414" s="4" t="inlineStr">
         <is>
-          <t>নূর আয়শা বেগম</t>
+          <t>হেনুয়ারা বেগম</t>
         </is>
       </c>
       <c r="F414" s="3" t="inlineStr">
@@ -17834,39 +17834,39 @@
       </c>
       <c r="G414" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/২০০১</t>
+          <t>০৮/০৫/২০০৬</t>
         </is>
       </c>
       <c r="H414" s="5" t="inlineStr">
         <is>
-          <t>৮৯, চকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৯৩, চকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="3" t="inlineStr">
         <is>
-          <t>১৪৪৩</t>
+          <t>১৫৬৮</t>
         </is>
       </c>
       <c r="B415" s="4" t="inlineStr">
         <is>
-          <t>জমির উদ্দীন</t>
+          <t>মোঃ শাহেদুল ইসলাম</t>
         </is>
       </c>
       <c r="C415" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৯৩</t>
+          <t>১৫২৫৪৪৬৪২৭০২</t>
         </is>
       </c>
       <c r="D415" s="4" t="inlineStr">
         <is>
-          <t>নাছির উদ্দীন</t>
+          <t>বদিউজ্জামান</t>
         </is>
       </c>
       <c r="E415" s="4" t="inlineStr">
         <is>
-          <t>হেনুয়ারা বেগম</t>
+          <t>নূর আয়শা বেগম</t>
         </is>
       </c>
       <c r="F415" s="3" t="inlineStr">
@@ -17876,12 +17876,12 @@
       </c>
       <c r="G415" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৫/২০০৬</t>
+          <t>০৫/০১/২০০১</t>
         </is>
       </c>
       <c r="H415" s="5" t="inlineStr">
         <is>
-          <t>৭৯৩, চকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৯, চকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -18266,27 +18266,27 @@
     <row r="425">
       <c r="A425" s="3" t="inlineStr">
         <is>
-          <t>০৩৯১</t>
+          <t>০৩৯৯</t>
         </is>
       </c>
       <c r="B425" s="4" t="inlineStr">
         <is>
-          <t>ওসমান গনি</t>
+          <t>আবুল বশর</t>
         </is>
       </c>
       <c r="C425" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮৬০</t>
+          <t>১৫২৫৪৪৩৫৭৪৯৩</t>
         </is>
       </c>
       <c r="D425" s="4" t="inlineStr">
         <is>
-          <t>ফয়েজ আহমদ</t>
+          <t>আবুল হোসেন</t>
         </is>
       </c>
       <c r="E425" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাফা বেগম</t>
+          <t>হাছিনা বেগম</t>
         </is>
       </c>
       <c r="F425" s="3" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="G425" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৫/১৯৮২</t>
+          <t>০৬/০৮/১৯৭২</t>
         </is>
       </c>
       <c r="H425" s="5" t="inlineStr">
@@ -18308,27 +18308,27 @@
     <row r="426">
       <c r="A426" s="3" t="inlineStr">
         <is>
-          <t>০৩৯৯</t>
+          <t>০৩৯১</t>
         </is>
       </c>
       <c r="B426" s="4" t="inlineStr">
         <is>
-          <t>আবুল বশর</t>
+          <t>ওসমান গনি</t>
         </is>
       </c>
       <c r="C426" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৯৩</t>
+          <t>১৫২৫৪৪৩৫৭৪৮৬০</t>
         </is>
       </c>
       <c r="D426" s="4" t="inlineStr">
         <is>
-          <t>আবুল হোসেন</t>
+          <t>ফয়েজ আহমদ</t>
         </is>
       </c>
       <c r="E426" s="4" t="inlineStr">
         <is>
-          <t>হাছিনা বেগম</t>
+          <t>মোস্তাফা বেগম</t>
         </is>
       </c>
       <c r="F426" s="3" t="inlineStr">
@@ -18338,7 +18338,7 @@
       </c>
       <c r="G426" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৮/১৯৭২</t>
+          <t>০৫/০৫/১৯৮২</t>
         </is>
       </c>
       <c r="H426" s="5" t="inlineStr">
@@ -18350,27 +18350,27 @@
     <row r="427">
       <c r="A427" s="3" t="inlineStr">
         <is>
-          <t>১৬৯৮</t>
+          <t>১৮০৩</t>
         </is>
       </c>
       <c r="B427" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সাজ্জাদ হোসেন</t>
+          <t>মোহাম্মদ আরিফুল ইসলাম</t>
         </is>
       </c>
       <c r="C427" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৯৮৫</t>
+          <t>১৫২৫৪৪৬৪৩১১৭</t>
         </is>
       </c>
       <c r="D427" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ জামাল উদ্দীন</t>
+          <t>মৃত আবুল হাশেম</t>
         </is>
       </c>
       <c r="E427" s="4" t="inlineStr">
         <is>
-          <t>মুতাহেরা বেগম</t>
+          <t>নুরুন নাহার</t>
         </is>
       </c>
       <c r="F427" s="3" t="inlineStr">
@@ -18380,39 +18380,39 @@
       </c>
       <c r="G427" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/২০০৫</t>
+          <t>৩১/০৫/২০০৩</t>
         </is>
       </c>
       <c r="H427" s="5" t="inlineStr">
         <is>
-          <t>২৭৭, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৭১, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="3" t="inlineStr">
         <is>
-          <t>১৭৬৬</t>
+          <t>১৬৪৪</t>
         </is>
       </c>
       <c r="B428" s="4" t="inlineStr">
         <is>
-          <t>কায়ছার হামিদ</t>
+          <t>মোহাম্মদ নজরুল ইসলাম</t>
         </is>
       </c>
       <c r="C428" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬৫</t>
+          <t>১৫২৫৪৪৬৪২৭৯৪</t>
         </is>
       </c>
       <c r="D428" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ ফজলুল কবির</t>
+          <t>মুহাম্মদ মুফিজুর রহমান</t>
         </is>
       </c>
       <c r="E428" s="4" t="inlineStr">
         <is>
-          <t>খুরশিদা বেগম</t>
+          <t>নুর জাহান বেগম</t>
         </is>
       </c>
       <c r="F428" s="3" t="inlineStr">
@@ -18422,29 +18422,29 @@
       </c>
       <c r="G428" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৮/১৯৯৮</t>
+          <t>০৫/০২/১৯৯৩</t>
         </is>
       </c>
       <c r="H428" s="5" t="inlineStr">
         <is>
-          <t>৩৪৪, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৭৫, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="3" t="inlineStr">
         <is>
-          <t>১৭৮০</t>
+          <t>১৭৬৬</t>
         </is>
       </c>
       <c r="B429" s="4" t="inlineStr">
         <is>
-          <t>জাহেদুল ইসলাম</t>
+          <t>কায়ছার হামিদ</t>
         </is>
       </c>
       <c r="C429" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৮০</t>
+          <t>১৫২৫৪৪৬৪৩০০৬৫</t>
         </is>
       </c>
       <c r="D429" s="4" t="inlineStr">
@@ -18464,7 +18464,7 @@
       </c>
       <c r="G429" s="3" t="inlineStr">
         <is>
-          <t>০৮/০২/২০০৫</t>
+          <t>০৮/০৮/১৯৯৮</t>
         </is>
       </c>
       <c r="H429" s="5" t="inlineStr">
@@ -18476,27 +18476,27 @@
     <row r="430">
       <c r="A430" s="3" t="inlineStr">
         <is>
-          <t>১৭৬৩</t>
+          <t>১৭৬৮</t>
         </is>
       </c>
       <c r="B430" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জয়নুল আবেদীন</t>
+          <t>আবুল কালাম</t>
         </is>
       </c>
       <c r="C430" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬২</t>
+          <t>১৫২৫৪৪৬৪৩০০৬৭</t>
         </is>
       </c>
       <c r="D430" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ ফজলুল কবির</t>
+          <t>মোহাম্মদ সৈয়দ</t>
         </is>
       </c>
       <c r="E430" s="4" t="inlineStr">
         <is>
-          <t>খুরশিদা বেগম</t>
+          <t>জন্নত আরা বেগম</t>
         </is>
       </c>
       <c r="F430" s="3" t="inlineStr">
@@ -18506,165 +18506,165 @@
       </c>
       <c r="G430" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৯/১৯৯৯</t>
+          <t>০২/০৮/২০০৩</t>
         </is>
       </c>
       <c r="H430" s="5" t="inlineStr">
         <is>
-          <t>৩৪৪, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৮৬, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="3" t="inlineStr">
         <is>
-          <t>১৬৬১</t>
+          <t>১৮০১</t>
         </is>
       </c>
       <c r="B431" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হবুর</t>
+          <t>সাইফুর রহমান হদয়</t>
         </is>
       </c>
       <c r="C431" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০১০১১</t>
+          <t>১৫২৫৪৪৬৪৩১১৫</t>
         </is>
       </c>
       <c r="D431" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হোছেন</t>
+          <t>অছির উদ্দীন</t>
         </is>
       </c>
       <c r="E431" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>সাজেদা বেগম</t>
         </is>
       </c>
       <c r="F431" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G431" s="3" t="inlineStr">
         <is>
-          <t>০৩/০২/২০০৭</t>
+          <t>২৬/১১/২০০৩</t>
         </is>
       </c>
       <c r="H431" s="5" t="inlineStr">
         <is>
-          <t>৮৩৩, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৩৯, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="3" t="inlineStr">
         <is>
-          <t>১৭৬৮</t>
+          <t>১৮১৩</t>
         </is>
       </c>
       <c r="B432" s="4" t="inlineStr">
         <is>
-          <t>আবুল কালাম</t>
+          <t>মোহাম্মদ মামুন রশিদ</t>
         </is>
       </c>
       <c r="C432" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬৭</t>
+          <t>১৫২৫৪৪৬৪৩১৩৭</t>
         </is>
       </c>
       <c r="D432" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সৈয়দ</t>
+          <t>মোহাম্মদ হারুন রশিদ</t>
         </is>
       </c>
       <c r="E432" s="4" t="inlineStr">
         <is>
-          <t>জন্নত আরা বেগম</t>
+          <t>রুবি আক্তার</t>
         </is>
       </c>
       <c r="F432" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G432" s="3" t="inlineStr">
         <is>
-          <t>০২/০৮/২০০৩</t>
+          <t>১৭/০৮/১৯৯৩</t>
         </is>
       </c>
       <c r="H432" s="5" t="inlineStr">
         <is>
-          <t>৮৮৬, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩২৩, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="3" t="inlineStr">
         <is>
-          <t>১৭২৭</t>
+          <t>১৬৪৯</t>
         </is>
       </c>
       <c r="B433" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলী</t>
+          <t>সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="C433" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০১৪</t>
+          <t>১৫২৫৪৪৬৪২৭৯৯</t>
         </is>
       </c>
       <c r="D433" s="4" t="inlineStr">
         <is>
-          <t>মৃত আবুল হাসেম</t>
+          <t>নুরুল কবির</t>
         </is>
       </c>
       <c r="E433" s="4" t="inlineStr">
         <is>
-          <t>নুর নাহর বেগম</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="F433" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G433" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৯৪</t>
+          <t>১০/০৩/১৯৮৩</t>
         </is>
       </c>
       <c r="H433" s="5" t="inlineStr">
         <is>
-          <t>২৭১, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৬৯, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="3" t="inlineStr">
         <is>
-          <t>১৬৪৪</t>
+          <t>১৭৮০</t>
         </is>
       </c>
       <c r="B434" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নজরুল ইসলাম</t>
+          <t>জাহেদুল ইসলাম</t>
         </is>
       </c>
       <c r="C434" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭৯৪</t>
+          <t>১৫২৫৪৪৬৪৩০৮০</t>
         </is>
       </c>
       <c r="D434" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ মুফিজুর রহমান</t>
+          <t>মুহাম্মদ ফজলুল কবির</t>
         </is>
       </c>
       <c r="E434" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান বেগম</t>
+          <t>খুরশিদা বেগম</t>
         </is>
       </c>
       <c r="F434" s="3" t="inlineStr">
@@ -18674,39 +18674,39 @@
       </c>
       <c r="G434" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৯৩</t>
+          <t>০৮/০২/২০০৫</t>
         </is>
       </c>
       <c r="H434" s="5" t="inlineStr">
         <is>
-          <t>২৭৫, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৪৪, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="3" t="inlineStr">
         <is>
-          <t>১৮০৩</t>
+          <t>১৭৬৯</t>
         </is>
       </c>
       <c r="B435" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আরিফুল ইসলাম</t>
+          <t>মোহাম্মদ আবদুল্লাহ আল নোমান</t>
         </is>
       </c>
       <c r="C435" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩১১৭</t>
+          <t>১৫২৫৪৪৬৪৩০০৬৮</t>
         </is>
       </c>
       <c r="D435" s="4" t="inlineStr">
         <is>
-          <t>মৃত আবুল হাশেম</t>
+          <t>মুহাম্মদ দেরাজ</t>
         </is>
       </c>
       <c r="E435" s="4" t="inlineStr">
         <is>
-          <t>নুরুন নাহার</t>
+          <t>সামগ্রাহার</t>
         </is>
       </c>
       <c r="F435" s="3" t="inlineStr">
@@ -18716,81 +18716,81 @@
       </c>
       <c r="G435" s="3" t="inlineStr">
         <is>
-          <t>৩১/০৫/২০০৩</t>
+          <t>০১/০১/২০০৭</t>
         </is>
       </c>
       <c r="H435" s="5" t="inlineStr">
         <is>
-          <t>১৭১, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৯৮, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="3" t="inlineStr">
         <is>
-          <t>১৬৪৯</t>
+          <t>১৭৭৬</t>
         </is>
       </c>
       <c r="B436" s="4" t="inlineStr">
         <is>
-          <t>সিরাজুল ইসলাম</t>
+          <t>মোহাম্মদ ওসমান গণি</t>
         </is>
       </c>
       <c r="C436" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭৯৯</t>
+          <t>১৫২৫৪৪৬৪৩০০৭৬</t>
         </is>
       </c>
       <c r="D436" s="4" t="inlineStr">
         <is>
-          <t>নুরুল কবির</t>
+          <t>মৃত মুহাম্মদ আলতাফ মিয়া</t>
         </is>
       </c>
       <c r="E436" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F436" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G436" s="3" t="inlineStr">
         <is>
-          <t>১০/০৩/১৯৮৩</t>
+          <t>১০/০১/১৯৭৬</t>
         </is>
       </c>
       <c r="H436" s="5" t="inlineStr">
         <is>
-          <t>২৬৯, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৪৩, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="3" t="inlineStr">
         <is>
-          <t>১৭৭৬</t>
+          <t>১৭২৭</t>
         </is>
       </c>
       <c r="B437" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ওসমান গণি</t>
+          <t>মোহাম্মদ আলী</t>
         </is>
       </c>
       <c r="C437" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৭৬</t>
+          <t>১৫২৫৪৪৬৪৩০১৪</t>
         </is>
       </c>
       <c r="D437" s="4" t="inlineStr">
         <is>
-          <t>মৃত মুহাম্মদ আলতাফ মিয়া</t>
+          <t>মৃত আবুল হাসেম</t>
         </is>
       </c>
       <c r="E437" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>নুর নাহর বেগম</t>
         </is>
       </c>
       <c r="F437" s="3" t="inlineStr">
@@ -18800,12 +18800,12 @@
       </c>
       <c r="G437" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/১৯৭৬</t>
+          <t>০৫/০২/১৯৯৪</t>
         </is>
       </c>
       <c r="H437" s="5" t="inlineStr">
         <is>
-          <t>৩৪৩, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৭১, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -18854,163 +18854,163 @@
     <row r="439">
       <c r="A439" s="3" t="inlineStr">
         <is>
-          <t>১৮১৩</t>
+          <t>১৭৬৩</t>
         </is>
       </c>
       <c r="B439" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মামুন রশিদ</t>
+          <t>মোহাম্মদ জয়নুল আবেদীন</t>
         </is>
       </c>
       <c r="C439" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩১৩৭</t>
+          <t>১৫২৫৪৪৬৪৩০০৬২</t>
         </is>
       </c>
       <c r="D439" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হারুন রশিদ</t>
+          <t>মুহাম্মদ ফজলুল কবির</t>
         </is>
       </c>
       <c r="E439" s="4" t="inlineStr">
         <is>
-          <t>রুবি আক্তার</t>
+          <t>খুরশিদা বেগম</t>
         </is>
       </c>
       <c r="F439" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G439" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৮/১৯৯৩</t>
+          <t>০৮/০৯/১৯৯৯</t>
         </is>
       </c>
       <c r="H439" s="5" t="inlineStr">
         <is>
-          <t>৩২৩, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩৪৪, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="3" t="inlineStr">
         <is>
-          <t>১৭৬৯</t>
+          <t>১৬৬১</t>
         </is>
       </c>
       <c r="B440" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবদুল্লাহ আল নোমান</t>
+          <t>আবদুল হবুর</t>
         </is>
       </c>
       <c r="C440" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬৮</t>
+          <t>১৫২৫৪৪০০১০১১</t>
         </is>
       </c>
       <c r="D440" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ দেরাজ</t>
+          <t>মোহাম্মদ হোছেন</t>
         </is>
       </c>
       <c r="E440" s="4" t="inlineStr">
         <is>
-          <t>সামগ্রাহার</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F440" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G440" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০৭</t>
+          <t>০৩/০২/২০০৭</t>
         </is>
       </c>
       <c r="H440" s="5" t="inlineStr">
         <is>
-          <t>২৯৮, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৩৩, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="3" t="inlineStr">
         <is>
-          <t>১৮০১</t>
+          <t>১৬৯৮</t>
         </is>
       </c>
       <c r="B441" s="4" t="inlineStr">
         <is>
-          <t>সাইফুর রহমান হদয়</t>
+          <t>মোহাম্মদ সাজ্জাদ হোসেন</t>
         </is>
       </c>
       <c r="C441" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩১১৫</t>
+          <t>১৫২৫৪৪৬৪২৯৮৫</t>
         </is>
       </c>
       <c r="D441" s="4" t="inlineStr">
         <is>
-          <t>অছির উদ্দীন</t>
+          <t>মুহাম্মদ জামাল উদ্দীন</t>
         </is>
       </c>
       <c r="E441" s="4" t="inlineStr">
         <is>
-          <t>সাজেদা বেগম</t>
+          <t>মুতাহেরা বেগম</t>
         </is>
       </c>
       <c r="F441" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G441" s="3" t="inlineStr">
         <is>
-          <t>২৬/১১/২০০৩</t>
+          <t>০৫/০১/২০০৫</t>
         </is>
       </c>
       <c r="H441" s="5" t="inlineStr">
         <is>
-          <t>৩৩৯, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৭৭, চাকফিরানী (আমির বাপের পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="3" t="inlineStr">
         <is>
-          <t>০১৯১</t>
+          <t>০২০০</t>
         </is>
       </c>
       <c r="B442" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ সোলাইমান</t>
+          <t>ছৈয়দ নুর</t>
         </is>
       </c>
       <c r="C442" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৬৯১০</t>
+          <t>১৫২৫৪৪৩৫৬৯২৮</t>
         </is>
       </c>
       <c r="D442" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ হোছেন আলী</t>
+          <t>কবির আহমেদ</t>
         </is>
       </c>
       <c r="E442" s="4" t="inlineStr">
         <is>
-          <t>দিলজান খাতুন</t>
+          <t>জসুনা খাতুন</t>
         </is>
       </c>
       <c r="F442" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G442" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৩/১৯৪২</t>
+          <t>১০/০৩/১৯৮০</t>
         </is>
       </c>
       <c r="H442" s="5" t="inlineStr">
@@ -19022,17 +19022,17 @@
     <row r="443">
       <c r="A443" s="3" t="inlineStr">
         <is>
-          <t>০১৮৯</t>
+          <t>০১৯১</t>
         </is>
       </c>
       <c r="B443" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ সমগুল হক</t>
+          <t>মুহাম্মদ সোলাইমান</t>
         </is>
       </c>
       <c r="C443" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৬৯০৫</t>
+          <t>১৫২৫৪৪৩৫৬৯১০</t>
         </is>
       </c>
       <c r="D443" s="4" t="inlineStr">
@@ -19042,7 +19042,7 @@
       </c>
       <c r="E443" s="4" t="inlineStr">
         <is>
-          <t>ওয়াজ খাতুন</t>
+          <t>দিলজান খাতুন</t>
         </is>
       </c>
       <c r="F443" s="3" t="inlineStr">
@@ -19052,7 +19052,7 @@
       </c>
       <c r="G443" s="3" t="inlineStr">
         <is>
-          <t>১২/০৫/১৯৪৯</t>
+          <t>০৫/০৩/১৯৪২</t>
         </is>
       </c>
       <c r="H443" s="5" t="inlineStr">
@@ -19064,37 +19064,37 @@
     <row r="444">
       <c r="A444" s="3" t="inlineStr">
         <is>
-          <t>০২০০</t>
+          <t>০১৮৯</t>
         </is>
       </c>
       <c r="B444" s="4" t="inlineStr">
         <is>
-          <t>ছৈয়দ নুর</t>
+          <t>মুহাম্মদ সমগুল হক</t>
         </is>
       </c>
       <c r="C444" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৬৯২৮</t>
+          <t>১৫২৫৪৪৩৫৬৯০৫</t>
         </is>
       </c>
       <c r="D444" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমেদ</t>
+          <t>মুহাম্মদ হোছেন আলী</t>
         </is>
       </c>
       <c r="E444" s="4" t="inlineStr">
         <is>
-          <t>জসুনা খাতুন</t>
+          <t>ওয়াজ খাতুন</t>
         </is>
       </c>
       <c r="F444" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G444" s="3" t="inlineStr">
         <is>
-          <t>১০/০৩/১৯৮০</t>
+          <t>১২/০৫/১৯৪৯</t>
         </is>
       </c>
       <c r="H444" s="5" t="inlineStr">
@@ -19148,17 +19148,17 @@
     <row r="446">
       <c r="A446" s="3" t="inlineStr">
         <is>
-          <t>০৫৫৪</t>
+          <t>০৫৫৬</t>
         </is>
       </c>
       <c r="B446" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইসমাইল</t>
+          <t>মহি উদ্দিন</t>
         </is>
       </c>
       <c r="C446" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৮৮৬</t>
+          <t>১৫২৫৪৪৩৫৭৮৯১</t>
         </is>
       </c>
       <c r="D446" s="4" t="inlineStr">
@@ -19168,7 +19168,7 @@
       </c>
       <c r="E446" s="4" t="inlineStr">
         <is>
-          <t>হাবিবা খাতুন</t>
+          <t>হাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F446" s="3" t="inlineStr">
@@ -19178,7 +19178,7 @@
       </c>
       <c r="G446" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৬/১৯৬৬</t>
+          <t>১৫/০২/১৯৭৫</t>
         </is>
       </c>
       <c r="H446" s="5" t="inlineStr">
@@ -19190,17 +19190,17 @@
     <row r="447">
       <c r="A447" s="3" t="inlineStr">
         <is>
-          <t>০৫৫৬</t>
+          <t>০৫৫৪</t>
         </is>
       </c>
       <c r="B447" s="4" t="inlineStr">
         <is>
-          <t>মহি উদ্দিন</t>
+          <t>মোহাম্মদ ইসমাইল</t>
         </is>
       </c>
       <c r="C447" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৮৯১</t>
+          <t>১৫২৫৪৪৩৫৭৮৮৬</t>
         </is>
       </c>
       <c r="D447" s="4" t="inlineStr">
@@ -19210,7 +19210,7 @@
       </c>
       <c r="E447" s="4" t="inlineStr">
         <is>
-          <t>হাবিয়া খাতুন</t>
+          <t>হাবিবা খাতুন</t>
         </is>
       </c>
       <c r="F447" s="3" t="inlineStr">
@@ -19220,7 +19220,7 @@
       </c>
       <c r="G447" s="3" t="inlineStr">
         <is>
-          <t>১৫/০২/১৯৭৫</t>
+          <t>২৫/০৬/১৯৬৬</t>
         </is>
       </c>
       <c r="H447" s="5" t="inlineStr">
@@ -19568,37 +19568,37 @@
     <row r="456">
       <c r="A456" s="3" t="inlineStr">
         <is>
-          <t>০২৬৩</t>
+          <t>০২৪০</t>
         </is>
       </c>
       <c r="B456" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমেদ</t>
+          <t>মোহাম্মদ ওমর ফারুক</t>
         </is>
       </c>
       <c r="C456" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭০৭৪</t>
+          <t>১৫২৫৪৪৩৫৫৭০১৫</t>
         </is>
       </c>
       <c r="D456" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল ছসাইন</t>
+          <t>আব্দুল মম্মান</t>
         </is>
       </c>
       <c r="E456" s="4" t="inlineStr">
         <is>
-          <t>আনজুমান আরা বেগম</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="F456" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G456" s="3" t="inlineStr">
         <is>
-          <t>২৭/১২/১৯৮৭</t>
+          <t>২০/০৫/১৯৭৪</t>
         </is>
       </c>
       <c r="H456" s="5" t="inlineStr">
@@ -19610,37 +19610,37 @@
     <row r="457">
       <c r="A457" s="3" t="inlineStr">
         <is>
-          <t>০২৪০</t>
+          <t>০২৬২</t>
         </is>
       </c>
       <c r="B457" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ওমর ফারুক</t>
+          <t>নুর আহমেদ</t>
         </is>
       </c>
       <c r="C457" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৫৭০১৫</t>
+          <t>১৫২৫৪৪৩৫৭০৭৩</t>
         </is>
       </c>
       <c r="D457" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল মম্মান</t>
+          <t>মোস্তাফিজুর রহমান</t>
         </is>
       </c>
       <c r="E457" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>সামন্তন নাহর</t>
         </is>
       </c>
       <c r="F457" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G457" s="3" t="inlineStr">
         <is>
-          <t>২০/০৫/১৯৭৪</t>
+          <t>০৫/০৬/১৯৮১</t>
         </is>
       </c>
       <c r="H457" s="5" t="inlineStr">
@@ -19652,27 +19652,27 @@
     <row r="458">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>০২৬২</t>
+          <t>০২৬৩</t>
         </is>
       </c>
       <c r="B458" s="4" t="inlineStr">
         <is>
-          <t>নুর আহমেদ</t>
+          <t>কবির আহমেদ</t>
         </is>
       </c>
       <c r="C458" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭০৭৩</t>
+          <t>১৫২৫৪৪৩৫৭০৭৪</t>
         </is>
       </c>
       <c r="D458" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাফিজুর রহমান</t>
+          <t>আব্দুল ছসাইন</t>
         </is>
       </c>
       <c r="E458" s="4" t="inlineStr">
         <is>
-          <t>সামন্তন নাহর</t>
+          <t>আনজুমান আরা বেগম</t>
         </is>
       </c>
       <c r="F458" s="3" t="inlineStr">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="G458" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৬/১৯৮১</t>
+          <t>২৭/১২/১৯৮৭</t>
         </is>
       </c>
       <c r="H458" s="5" t="inlineStr">
@@ -19694,27 +19694,27 @@
     <row r="459">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>০২৬৬</t>
+          <t>০২৫৮</t>
         </is>
       </c>
       <c r="B459" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ আব্দুল করিম</t>
+          <t>কামাল ছসাইন</t>
         </is>
       </c>
       <c r="C459" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭০৮০</t>
+          <t>১৫২৫৪৪৩৫৭০৫৯</t>
         </is>
       </c>
       <c r="D459" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল কুদ্দুছ</t>
+          <t>সোলতান আহমেদ</t>
         </is>
       </c>
       <c r="E459" s="4" t="inlineStr">
         <is>
-          <t>আসমা খাতুন</t>
+          <t>রাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F459" s="3" t="inlineStr">
@@ -19724,7 +19724,7 @@
       </c>
       <c r="G459" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৮/১৯৮২</t>
+          <t>০৮/০৮/১৯৭৪</t>
         </is>
       </c>
       <c r="H459" s="5" t="inlineStr">
@@ -19736,27 +19736,27 @@
     <row r="460">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>০২৫৮</t>
+          <t>০২৬৬</t>
         </is>
       </c>
       <c r="B460" s="4" t="inlineStr">
         <is>
-          <t>কামাল ছসাইন</t>
+          <t>মুহাম্মদ আব্দুল করিম</t>
         </is>
       </c>
       <c r="C460" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭০৫৯</t>
+          <t>১৫২৫৪৪৩৫৭০৮০</t>
         </is>
       </c>
       <c r="D460" s="4" t="inlineStr">
         <is>
-          <t>সোলতান আহমেদ</t>
+          <t>আব্দুল কুদ্দুছ</t>
         </is>
       </c>
       <c r="E460" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া খাতুন</t>
+          <t>আসমা খাতুন</t>
         </is>
       </c>
       <c r="F460" s="3" t="inlineStr">
@@ -19766,7 +19766,7 @@
       </c>
       <c r="G460" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৮/১৯৭৪</t>
+          <t>০৪/০৮/১৯৮২</t>
         </is>
       </c>
       <c r="H460" s="5" t="inlineStr">
@@ -19887,7 +19887,7 @@
       </c>
       <c r="F463" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০১/০৫/২০০৩</t>
         </is>
       </c>
       <c r="G463" s="3" t="inlineStr">
@@ -19929,7 +19929,7 @@
       </c>
       <c r="F464" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১২/০৮/২০০০</t>
         </is>
       </c>
       <c r="G464" s="3" t="inlineStr">
@@ -20198,111 +20198,111 @@
     <row r="471">
       <c r="A471" s="3" t="inlineStr">
         <is>
-          <t>১৬৭৮</t>
+          <t>১৬৪৭</t>
         </is>
       </c>
       <c r="B471" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ শাহাদাত হোছন</t>
+          <t>জাহাঙ্গীর আলম</t>
         </is>
       </c>
       <c r="C471" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৯৬৫</t>
+          <t>১৫২৫৪৪৬৪২৭৯৭</t>
         </is>
       </c>
       <c r="D471" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মজিদ</t>
+          <t>নাছির উদ্দিন</t>
         </is>
       </c>
       <c r="E471" s="4" t="inlineStr">
         <is>
-          <t>নুর নাহার</t>
+          <t>ছেনু আরা বেগম</t>
         </is>
       </c>
       <c r="F471" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G471" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৩</t>
+          <t>০১/০১/১৯৯৪</t>
         </is>
       </c>
       <c r="H471" s="5" t="inlineStr">
         <is>
-          <t>২১৩, চাকফিরানী (নতুন পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৯৩, চাকফিরানী (নতুন পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="3" t="inlineStr">
         <is>
-          <t>১৬৪৭</t>
+          <t>১৬৮১</t>
         </is>
       </c>
       <c r="B472" s="4" t="inlineStr">
         <is>
-          <t>জাহাঙ্গীর আলম</t>
+          <t>আরফাত উদ্দিন</t>
         </is>
       </c>
       <c r="C472" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭৯৭</t>
+          <t>১৫২৫৪৪০৪২৯৬৮</t>
         </is>
       </c>
       <c r="D472" s="4" t="inlineStr">
         <is>
-          <t>নাছির উদ্দিন</t>
+          <t>আবদুল হবুব</t>
         </is>
       </c>
       <c r="E472" s="4" t="inlineStr">
         <is>
-          <t>ছেনু আরা বেগম</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F472" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G472" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৪</t>
+          <t>০৬/০১/২০০৫</t>
         </is>
       </c>
       <c r="H472" s="5" t="inlineStr">
         <is>
-          <t>৭৯৩, চাকফিরানী (নতুন পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৪০, চাকফিরানী (নতুন পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="3" t="inlineStr">
         <is>
-          <t>১৬৮১</t>
+          <t>১৬৭৮</t>
         </is>
       </c>
       <c r="B473" s="4" t="inlineStr">
         <is>
-          <t>আরফাত উদ্দিন</t>
+          <t>মুহাম্মদ শাহাদাত হোছন</t>
         </is>
       </c>
       <c r="C473" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৯৬৮</t>
+          <t>১৫২৫৪৪০৪২৯৬৫</t>
         </is>
       </c>
       <c r="D473" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হবুব</t>
+          <t>আবদুল মজিদ</t>
         </is>
       </c>
       <c r="E473" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>নুর নাহার</t>
         </is>
       </c>
       <c r="F473" s="3" t="inlineStr">
@@ -20312,54 +20312,54 @@
       </c>
       <c r="G473" s="3" t="inlineStr">
         <is>
-          <t>০৬/০১/২০০৫</t>
+          <t>০১/০১/১৯৯৩</t>
         </is>
       </c>
       <c r="H473" s="5" t="inlineStr">
         <is>
-          <t>২৪০, চাকফিরানী (নতুন পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১৩, চাকফিরানী (নতুন পাড়া), চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="3" t="inlineStr">
         <is>
-          <t>১৫১৫</t>
+          <t>১৫১৭</t>
         </is>
       </c>
       <c r="B474" s="4" t="inlineStr">
         <is>
-          <t>আবু ছেয়দ</t>
+          <t>মোঃ নুরুল আবহার</t>
         </is>
       </c>
       <c r="C474" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৯৭</t>
+          <t>১৫২৫৪৪৬৪২৫৯৯</t>
         </is>
       </c>
       <c r="D474" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মাবদ</t>
+          <t>মকবুল আহমেদ</t>
         </is>
       </c>
       <c r="E474" s="4" t="inlineStr">
         <is>
-          <t>শামসুমাহার</t>
+          <t>নুরুমাহার বেগম</t>
         </is>
       </c>
       <c r="F474" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G474" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৩/২০০২</t>
+          <t>০৭/০৭/১৯৭৪</t>
         </is>
       </c>
       <c r="H474" s="5" t="inlineStr">
         <is>
-          <t>২২৭, চাকফিরানী (নতুন পাড়া), বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৮০, চাকফিরানী (নতুন পাড়া), বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -20408,79 +20408,79 @@
     <row r="476">
       <c r="A476" s="3" t="inlineStr">
         <is>
-          <t>১৫১৭</t>
+          <t>১৫১৫</t>
         </is>
       </c>
       <c r="B476" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নুরুল আবহার</t>
+          <t>আবু ছেয়দ</t>
         </is>
       </c>
       <c r="C476" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৯৯</t>
+          <t>১৫২৫৪৪৬৪২৫৯৭</t>
         </is>
       </c>
       <c r="D476" s="4" t="inlineStr">
         <is>
-          <t>মকবুল আহমেদ</t>
+          <t>আবদুল মাবদ</t>
         </is>
       </c>
       <c r="E476" s="4" t="inlineStr">
         <is>
-          <t>নুরুমাহার বেগম</t>
+          <t>শামসুমাহার</t>
         </is>
       </c>
       <c r="F476" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>বেসরকারী চাকুরী জন্ম তারিখ: ০৫/০৩/২০০২</t>
         </is>
       </c>
       <c r="G476" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৭/১৯৭৪</t>
+          <t>০৫/০৩/২০০২</t>
         </is>
       </c>
       <c r="H476" s="5" t="inlineStr">
         <is>
-          <t>৭৮০, চাকফিরানী (নতুন পাড়া), বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২২৭, চাকফিরানী (নতুন পাড়া), বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="3" t="inlineStr">
         <is>
-          <t>০৪১৫</t>
+          <t>০৪০০</t>
         </is>
       </c>
       <c r="B477" s="4" t="inlineStr">
         <is>
-          <t>সাহাব উদ্দীন</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="C477" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৪৩</t>
+          <t>১৫২৫৪৪৩৫৭৫০২</t>
         </is>
       </c>
       <c r="D477" s="4" t="inlineStr">
         <is>
-          <t>নুরুল হুকা</t>
+          <t>আবুল হাসেম</t>
         </is>
       </c>
       <c r="E477" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ জাহান</t>
+          <t>লাইলা বেগম</t>
         </is>
       </c>
       <c r="F477" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G477" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৮৯</t>
+          <t>১০/০৬/১৯৭২</t>
         </is>
       </c>
       <c r="H477" s="5" t="inlineStr">
@@ -20492,27 +20492,27 @@
     <row r="478">
       <c r="A478" s="3" t="inlineStr">
         <is>
-          <t>০৩৮৫</t>
+          <t>০৪২৯</t>
         </is>
       </c>
       <c r="B478" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হামিদ</t>
+          <t>মনির আহমদ</t>
         </is>
       </c>
       <c r="C478" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮৪৫</t>
+          <t>১৫২৫৪৪৩৫৭৫৬৯</t>
         </is>
       </c>
       <c r="D478" s="4" t="inlineStr">
         <is>
-          <t>ফয়েজ আহম</t>
+          <t>নজির আহমদ</t>
         </is>
       </c>
       <c r="E478" s="4" t="inlineStr">
         <is>
-          <t>মজলিস খাতুন</t>
+          <t>আবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F478" s="3" t="inlineStr">
@@ -20522,7 +20522,7 @@
       </c>
       <c r="G478" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৬২</t>
+          <t>০৬/০৭/১৯৮০</t>
         </is>
       </c>
       <c r="H478" s="5" t="inlineStr">
@@ -20534,27 +20534,27 @@
     <row r="479">
       <c r="A479" s="3" t="inlineStr">
         <is>
-          <t>০৩৯২</t>
+          <t>০৩৮৫</t>
         </is>
       </c>
       <c r="B479" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>আবদুল হামিদ</t>
         </is>
       </c>
       <c r="C479" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮৬১</t>
+          <t>১৫২৫৪৪৩৫৭৪৮৪৫</t>
         </is>
       </c>
       <c r="D479" s="4" t="inlineStr">
         <is>
-          <t>আবদুল কাদের</t>
+          <t>ফয়েজ আহম</t>
         </is>
       </c>
       <c r="E479" s="4" t="inlineStr">
         <is>
-          <t>আয়শা খাতুন</t>
+          <t>মজলিস খাতুন</t>
         </is>
       </c>
       <c r="F479" s="3" t="inlineStr">
@@ -20564,7 +20564,7 @@
       </c>
       <c r="G479" s="3" t="inlineStr">
         <is>
-          <t>৩০/০১/১৯৬৭</t>
+          <t>০১/০২/১৯৬২</t>
         </is>
       </c>
       <c r="H479" s="5" t="inlineStr">
@@ -20576,27 +20576,27 @@
     <row r="480">
       <c r="A480" s="3" t="inlineStr">
         <is>
-          <t>০৩৯৩</t>
+          <t>০৪১৫</t>
         </is>
       </c>
       <c r="B480" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ সিরাজুল ইসলাম</t>
+          <t>সাহাব উদ্দীন</t>
         </is>
       </c>
       <c r="C480" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮৬২</t>
+          <t>১৫২৫৪৪৩৫৭৫৪৩</t>
         </is>
       </c>
       <c r="D480" s="4" t="inlineStr">
         <is>
-          <t>এবাদুল্লাহ</t>
+          <t>নুরুল হুকা</t>
         </is>
       </c>
       <c r="E480" s="4" t="inlineStr">
         <is>
-          <t>ছুফিয়া বেগম</t>
+          <t>নুরুজ জাহান</t>
         </is>
       </c>
       <c r="F480" s="3" t="inlineStr">
@@ -20606,7 +20606,7 @@
       </c>
       <c r="G480" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৬৩</t>
+          <t>১০/০২/১৯৮৯</t>
         </is>
       </c>
       <c r="H480" s="5" t="inlineStr">
@@ -20618,37 +20618,37 @@
     <row r="481">
       <c r="A481" s="3" t="inlineStr">
         <is>
-          <t>০৪৩১</t>
+          <t>০৩৭৮</t>
         </is>
       </c>
       <c r="B481" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মজিদ</t>
+          <t>আবুল খাইর</t>
         </is>
       </c>
       <c r="C481" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৭১</t>
+          <t>১৫২৫৪৪৩৫৭৪৮২৩</t>
         </is>
       </c>
       <c r="D481" s="4" t="inlineStr">
         <is>
-          <t>আলী আহমদ</t>
+          <t>তোরাব উদ্দীন</t>
         </is>
       </c>
       <c r="E481" s="4" t="inlineStr">
         <is>
-          <t>ছফুয়া খাতুন</t>
+          <t>হালিমা খাতুন</t>
         </is>
       </c>
       <c r="F481" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G481" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৬/১৯৮৭</t>
+          <t>১১/১০/১৯৬২</t>
         </is>
       </c>
       <c r="H481" s="5" t="inlineStr">
@@ -20660,37 +20660,37 @@
     <row r="482">
       <c r="A482" s="3" t="inlineStr">
         <is>
-          <t>০৪১২</t>
+          <t>০৩৭৬</t>
         </is>
       </c>
       <c r="B482" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>সিরাজ মিয়া</t>
         </is>
       </c>
       <c r="C482" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৩৪</t>
+          <t>১৫২৫৪৪৩৫৭৪৮১৯</t>
         </is>
       </c>
       <c r="D482" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ আলী</t>
+          <t>দুদু মিয়া</t>
         </is>
       </c>
       <c r="E482" s="4" t="inlineStr">
         <is>
-          <t>তাজ নিছা</t>
+          <t>ফিরোজা খাতুন</t>
         </is>
       </c>
       <c r="F482" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G482" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৮/১৯৬৭</t>
+          <t>০৩/০৪/১৯৩৭</t>
         </is>
       </c>
       <c r="H482" s="5" t="inlineStr">
@@ -20702,37 +20702,37 @@
     <row r="483">
       <c r="A483" s="3" t="inlineStr">
         <is>
-          <t>০৩৭৮</t>
+          <t>০৪১২</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
         <is>
-          <t>আবুল খাইর</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="C483" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮২৩</t>
+          <t>১৫২৫৪৪৩৫৭৫৩৪</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>তোরাব উদ্দীন</t>
+          <t>আহমেদ আলী</t>
         </is>
       </c>
       <c r="E483" s="4" t="inlineStr">
         <is>
-          <t>হালিমা খাতুন</t>
+          <t>তাজ নিছা</t>
         </is>
       </c>
       <c r="F483" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G483" s="3" t="inlineStr">
         <is>
-          <t>১১/১০/১৯৬২</t>
+          <t>০৭/০৮/১৯৬৭</t>
         </is>
       </c>
       <c r="H483" s="5" t="inlineStr">
@@ -20744,37 +20744,37 @@
     <row r="484">
       <c r="A484" s="3" t="inlineStr">
         <is>
-          <t>০৩৭৬</t>
+          <t>০৩৯৩</t>
         </is>
       </c>
       <c r="B484" s="4" t="inlineStr">
         <is>
-          <t>সিরাজ মিয়া</t>
+          <t>মুহাম্মদ সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="C484" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮১৯</t>
+          <t>১৫২৫৪৪৩৫৭৪৮৬২</t>
         </is>
       </c>
       <c r="D484" s="4" t="inlineStr">
         <is>
-          <t>দুদু মিয়া</t>
+          <t>এবাদুল্লাহ</t>
         </is>
       </c>
       <c r="E484" s="4" t="inlineStr">
         <is>
-          <t>ফিরোজা খাতুন</t>
+          <t>ছুফিয়া বেগম</t>
         </is>
       </c>
       <c r="F484" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G484" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৪/১৯৩৭</t>
+          <t>০১/০১/১৯৬৩</t>
         </is>
       </c>
       <c r="H484" s="5" t="inlineStr">
@@ -20786,37 +20786,37 @@
     <row r="485">
       <c r="A485" s="3" t="inlineStr">
         <is>
-          <t>০৪২৭</t>
+          <t>০৪৩১</t>
         </is>
       </c>
       <c r="B485" s="4" t="inlineStr">
         <is>
-          <t>হাবিবুর রহমান</t>
+          <t>আবদুল মজিদ</t>
         </is>
       </c>
       <c r="C485" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৬৭</t>
+          <t>১৫২৫৪৪৩৫৭৫৭১</t>
         </is>
       </c>
       <c r="D485" s="4" t="inlineStr">
         <is>
-          <t>লালা মিয়া</t>
+          <t>আলী আহমদ</t>
         </is>
       </c>
       <c r="E485" s="4" t="inlineStr">
         <is>
-          <t>হাফেজা খাতুন</t>
+          <t>ছফুয়া খাতুন</t>
         </is>
       </c>
       <c r="F485" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G485" s="3" t="inlineStr">
         <is>
-          <t>১০/০৬/১৯৭২</t>
+          <t>০৮/০৬/১৯৮৭</t>
         </is>
       </c>
       <c r="H485" s="5" t="inlineStr">
@@ -20912,27 +20912,27 @@
     <row r="488">
       <c r="A488" s="3" t="inlineStr">
         <is>
-          <t>০৪০১</t>
+          <t>০৪১১</t>
         </is>
       </c>
       <c r="B488" s="4" t="inlineStr">
         <is>
-          <t>আহমাদ হোছাইন</t>
+          <t>নাছির উদ্দীন</t>
         </is>
       </c>
       <c r="C488" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫০৮</t>
+          <t>১৫২৫৪৪৩৫৭৫৩৩</t>
         </is>
       </c>
       <c r="D488" s="4" t="inlineStr">
         <is>
-          <t>এবদুল্লাহ</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="E488" s="4" t="inlineStr">
         <is>
-          <t>ছুফিয়া খাতুন</t>
+          <t>হালিমা খাতুন</t>
         </is>
       </c>
       <c r="F488" s="3" t="inlineStr">
@@ -20942,7 +20942,7 @@
       </c>
       <c r="G488" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৮/১৯৮৮</t>
+          <t>০৯/০৮/১৯৮০</t>
         </is>
       </c>
       <c r="H488" s="5" t="inlineStr">
@@ -20954,37 +20954,37 @@
     <row r="489">
       <c r="A489" s="3" t="inlineStr">
         <is>
-          <t>০৪২৫</t>
+          <t>০৪২৭</t>
         </is>
       </c>
       <c r="B489" s="4" t="inlineStr">
         <is>
-          <t>বাহার উদ্দীন</t>
+          <t>হাবিবুর রহমান</t>
         </is>
       </c>
       <c r="C489" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৬৫</t>
+          <t>১৫২৫৪৪৩৫৭৫৬৭</t>
         </is>
       </c>
       <c r="D489" s="4" t="inlineStr">
         <is>
-          <t>নুরুল হুকা</t>
+          <t>লালা মিয়া</t>
         </is>
       </c>
       <c r="E489" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ জাহান</t>
+          <t>হাফেজা খাতুন</t>
         </is>
       </c>
       <c r="F489" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G489" s="3" t="inlineStr">
         <is>
-          <t>১২/০৬/১৯৮৫</t>
+          <t>১০/০৬/১৯৭২</t>
         </is>
       </c>
       <c r="H489" s="5" t="inlineStr">
@@ -20996,37 +20996,37 @@
     <row r="490">
       <c r="A490" s="3" t="inlineStr">
         <is>
-          <t>০৪০০</t>
+          <t>০৪২৫</t>
         </is>
       </c>
       <c r="B490" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>বাহার উদ্দীন</t>
         </is>
       </c>
       <c r="C490" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫০২</t>
+          <t>১৫২৫৪৪৩৫৭৫৬৫</t>
         </is>
       </c>
       <c r="D490" s="4" t="inlineStr">
         <is>
-          <t>আবুল হাসেম</t>
+          <t>নুরুল হুকা</t>
         </is>
       </c>
       <c r="E490" s="4" t="inlineStr">
         <is>
-          <t>লাইলা বেগম</t>
+          <t>নুরুজ জাহান</t>
         </is>
       </c>
       <c r="F490" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G490" s="3" t="inlineStr">
         <is>
-          <t>১০/০৬/১৯৭২</t>
+          <t>১২/০৬/১৯৮৫</t>
         </is>
       </c>
       <c r="H490" s="5" t="inlineStr">
@@ -21038,37 +21038,37 @@
     <row r="491">
       <c r="A491" s="3" t="inlineStr">
         <is>
-          <t>০৭৪০</t>
+          <t>০৩৯২</t>
         </is>
       </c>
       <c r="B491" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আলমগীর</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="C491" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৪৬৭</t>
+          <t>১৫২৫৪৪৩৫৭৪৮৬১</t>
         </is>
       </c>
       <c r="D491" s="4" t="inlineStr">
         <is>
-          <t>আবু বকর</t>
+          <t>আবদুল কাদের</t>
         </is>
       </c>
       <c r="E491" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>আয়শা খাতুন</t>
         </is>
       </c>
       <c r="F491" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G491" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৮৭</t>
+          <t>৩০/০১/১৯৬৭</t>
         </is>
       </c>
       <c r="H491" s="5" t="inlineStr">
@@ -21080,37 +21080,37 @@
     <row r="492">
       <c r="A492" s="3" t="inlineStr">
         <is>
-          <t>০৪২৯</t>
+          <t>০৭৪০</t>
         </is>
       </c>
       <c r="B492" s="4" t="inlineStr">
         <is>
-          <t>মনির আহমদ</t>
+          <t>মোঃ আলমগীর</t>
         </is>
       </c>
       <c r="C492" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৬৯</t>
+          <t>১৫২৫৪৪৬৪২৪৬৭</t>
         </is>
       </c>
       <c r="D492" s="4" t="inlineStr">
         <is>
-          <t>নজির আহমদ</t>
+          <t>আবু বকর</t>
         </is>
       </c>
       <c r="E492" s="4" t="inlineStr">
         <is>
-          <t>আবিয়া খাতুন</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F492" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G492" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৭/১৯৮০</t>
+          <t>০১/০৩/১৯৮৭</t>
         </is>
       </c>
       <c r="H492" s="5" t="inlineStr">
@@ -21122,27 +21122,27 @@
     <row r="493">
       <c r="A493" s="3" t="inlineStr">
         <is>
-          <t>০৪১১</t>
+          <t>০৪০১</t>
         </is>
       </c>
       <c r="B493" s="4" t="inlineStr">
         <is>
-          <t>নাছির উদ্দীন</t>
+          <t>আহমাদ হোছাইন</t>
         </is>
       </c>
       <c r="C493" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৩৩</t>
+          <t>১৫২৫৪৪৩৫৭৫০৮</t>
         </is>
       </c>
       <c r="D493" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>এবদুল্লাহ</t>
         </is>
       </c>
       <c r="E493" s="4" t="inlineStr">
         <is>
-          <t>হালিমা খাতুন</t>
+          <t>ছুফিয়া খাতুন</t>
         </is>
       </c>
       <c r="F493" s="3" t="inlineStr">
@@ -21152,7 +21152,7 @@
       </c>
       <c r="G493" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৮/১৯৮০</t>
+          <t>০৩/০৮/১৯৮৮</t>
         </is>
       </c>
       <c r="H493" s="5" t="inlineStr">
@@ -21290,42 +21290,42 @@
     <row r="497">
       <c r="A497" s="3" t="inlineStr">
         <is>
-          <t>১৭০৬</t>
+          <t>১৪৯৭</t>
         </is>
       </c>
       <c r="B497" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ শাহ আলম</t>
+          <t>মোহাম্মদ রিয়াদ হোসেন</t>
         </is>
       </c>
       <c r="C497" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৯৯৩</t>
+          <t>১৫২৫৪৪৬৪২৫৭৯</t>
         </is>
       </c>
       <c r="D497" s="4" t="inlineStr">
         <is>
-          <t>মৃত আহসান মিয়া</t>
+          <t>নূর আহমেদ</t>
         </is>
       </c>
       <c r="E497" s="4" t="inlineStr">
         <is>
-          <t>রিনা আক্তার</t>
+          <t>রেহেনা আক্তার</t>
         </is>
       </c>
       <c r="F497" s="3" t="inlineStr">
         <is>
-          <t>দিনমজুর</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G497" s="3" t="inlineStr">
         <is>
-          <t>০৯/০১/১৯৭৯</t>
+          <t>০৭/০২/২০০৩</t>
         </is>
       </c>
       <c r="H497" s="5" t="inlineStr">
         <is>
-          <t>২৫৫, চাকফিরানী আমির বাপের পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৮১, চাকফিরানী আমির বাপের পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -21374,42 +21374,42 @@
     <row r="499">
       <c r="A499" s="3" t="inlineStr">
         <is>
-          <t>১৪৯৭</t>
+          <t>১৭০৬</t>
         </is>
       </c>
       <c r="B499" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রিয়াদ হোসেন</t>
+          <t>মোহাম্মদ শাহ আলম</t>
         </is>
       </c>
       <c r="C499" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৭৯</t>
+          <t>১৫২৫৪৪৬৪২৯৯৩</t>
         </is>
       </c>
       <c r="D499" s="4" t="inlineStr">
         <is>
-          <t>নূর আহমেদ</t>
+          <t>মৃত আহসান মিয়া</t>
         </is>
       </c>
       <c r="E499" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>রিনা আক্তার</t>
         </is>
       </c>
       <c r="F499" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>দিনমজুর</t>
         </is>
       </c>
       <c r="G499" s="3" t="inlineStr">
         <is>
-          <t>০৭/০২/২০০৩</t>
+          <t>০৯/০১/১৯৭৯</t>
         </is>
       </c>
       <c r="H499" s="5" t="inlineStr">
         <is>
-          <t>২৮১, চাকফিরানী আমির বাপের পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৫৫, চাকফিরানী আমির বাপের পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -21500,27 +21500,27 @@
     <row r="502">
       <c r="A502" s="3" t="inlineStr">
         <is>
-          <t>১৪১৫</t>
+          <t>১৪৩৭</t>
         </is>
       </c>
       <c r="B502" s="4" t="inlineStr">
         <is>
-          <t>রিয়াদ হোসেন</t>
+          <t>এমরানুল হক</t>
         </is>
       </c>
       <c r="C502" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৫৭</t>
+          <t>১৫২৫৪৪০০০৯৮৭</t>
         </is>
       </c>
       <c r="D502" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল জব্বার</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="E502" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা বেগম</t>
+          <t>পারভীন আক্তার</t>
         </is>
       </c>
       <c r="F502" s="3" t="inlineStr">
@@ -21530,39 +21530,39 @@
       </c>
       <c r="G502" s="3" t="inlineStr">
         <is>
-          <t>০১/১১/২০০২</t>
+          <t>০৪/০১/২০০৬</t>
         </is>
       </c>
       <c r="H502" s="5" t="inlineStr">
         <is>
-          <t>৫৬, চাকফিরানী কালি নগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৩১, চাকফিরানী কালি নগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="3" t="inlineStr">
         <is>
-          <t>১৪৩৭</t>
+          <t>১৪১৫</t>
         </is>
       </c>
       <c r="B503" s="4" t="inlineStr">
         <is>
-          <t>এমরানুল হক</t>
+          <t>রিয়াদ হোসেন</t>
         </is>
       </c>
       <c r="C503" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৮৭</t>
+          <t>১৫২৫৪৪০০০৯৫৭</t>
         </is>
       </c>
       <c r="D503" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>আব্দুল জব্বার</t>
         </is>
       </c>
       <c r="E503" s="4" t="inlineStr">
         <is>
-          <t>পারভীন আক্তার</t>
+          <t>আয়েশা বেগম</t>
         </is>
       </c>
       <c r="F503" s="3" t="inlineStr">
@@ -21572,12 +21572,12 @@
       </c>
       <c r="G503" s="3" t="inlineStr">
         <is>
-          <t>০৪/০১/২০০৬</t>
+          <t>০১/১১/২০০২</t>
         </is>
       </c>
       <c r="H503" s="5" t="inlineStr">
         <is>
-          <t>৩১, চাকফিরানী কালি নগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৬, চাকফিরানী কালি নগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -21920,69 +21920,69 @@
     <row r="512">
       <c r="A512" s="3" t="inlineStr">
         <is>
-          <t>১৫২৬</t>
+          <t>১৫১৬</t>
         </is>
       </c>
       <c r="B512" s="4" t="inlineStr">
         <is>
-          <t>মাইনুদ্দিন হাসান</t>
+          <t>জালাল আহমেদ</t>
         </is>
       </c>
       <c r="C512" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬০৮</t>
+          <t>১৫২৫৪৪৬৪২৫৯৮</t>
         </is>
       </c>
       <c r="D512" s="4" t="inlineStr">
         <is>
-          <t>ইমাম হোসেন</t>
+          <t>আবদু ছবুর</t>
         </is>
       </c>
       <c r="E512" s="4" t="inlineStr">
         <is>
-          <t>মোসলেমা খাতুন</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F512" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G512" s="3" t="inlineStr">
         <is>
-          <t>২০/০২/২০০১</t>
+          <t>০৬/০৭/১৯৯৫</t>
         </is>
       </c>
       <c r="H512" s="5" t="inlineStr">
         <is>
-          <t>১৯১, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৪০, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="3" t="inlineStr">
         <is>
-          <t>১৫১১</t>
+          <t>১৪৯২</t>
         </is>
       </c>
       <c r="B513" s="4" t="inlineStr">
         <is>
-          <t>মোঃ জাহেদ</t>
+          <t>মোহাম্মদ ফরিদুল ইসলাম</t>
         </is>
       </c>
       <c r="C513" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৯৩</t>
+          <t>১৫২৫৪৪৬৪২৫৭৪</t>
         </is>
       </c>
       <c r="D513" s="4" t="inlineStr">
         <is>
-          <t>বদিউজ্জামান</t>
+          <t>আবদুল আজিজ</t>
         </is>
       </c>
       <c r="E513" s="4" t="inlineStr">
         <is>
-          <t>নুর আয়শা বেগম</t>
+          <t>দিলোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F513" s="3" t="inlineStr">
@@ -21992,81 +21992,81 @@
       </c>
       <c r="G513" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৭</t>
+          <t>০৮/০২/২০০৩</t>
         </is>
       </c>
       <c r="H513" s="5" t="inlineStr">
         <is>
-          <t>৮৯, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১১, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="3" t="inlineStr">
         <is>
-          <t>১৫১৬</t>
+          <t>১৬৮২</t>
         </is>
       </c>
       <c r="B514" s="4" t="inlineStr">
         <is>
-          <t>জালাল আহমেদ</t>
+          <t>জাহেদুল ইসলাম</t>
         </is>
       </c>
       <c r="C514" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৯৮</t>
+          <t>১৫২৫৪৪০৪২৯৬৯</t>
         </is>
       </c>
       <c r="D514" s="4" t="inlineStr">
         <is>
-          <t>আবদু ছবুর</t>
+          <t>আহমেদ হোছাইন</t>
         </is>
       </c>
       <c r="E514" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>জন্নাতুল ফেরদৌস</t>
         </is>
       </c>
       <c r="F514" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G514" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৭/১৯৯৫</t>
+          <t>০১/০৫/১৯৯৯</t>
         </is>
       </c>
       <c r="H514" s="5" t="inlineStr">
         <is>
-          <t>২৪০, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৫, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="3" t="inlineStr">
         <is>
-          <t>১৬৮২</t>
+          <t>১৫১১</t>
         </is>
       </c>
       <c r="B515" s="4" t="inlineStr">
         <is>
-          <t>জাহেদুল ইসলাম</t>
+          <t>মোঃ জাহেদ</t>
         </is>
       </c>
       <c r="C515" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৯৬৯</t>
+          <t>১৫২৫৪৪৬৪২৫৯৩</t>
         </is>
       </c>
       <c r="D515" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ হোছাইন</t>
+          <t>বদিউজ্জামান</t>
         </is>
       </c>
       <c r="E515" s="4" t="inlineStr">
         <is>
-          <t>জন্নাতুল ফেরদৌস</t>
+          <t>নুর আয়শা বেগম</t>
         </is>
       </c>
       <c r="F515" s="3" t="inlineStr">
@@ -22076,39 +22076,39 @@
       </c>
       <c r="G515" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৯৯</t>
+          <t>০১/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="H515" s="5" t="inlineStr">
         <is>
-          <t>৭৫, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৯, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="3" t="inlineStr">
         <is>
-          <t>১৪২৫</t>
+          <t>১৫২৬</t>
         </is>
       </c>
       <c r="B516" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রিগন</t>
+          <t>মাইনুদ্দিন হাসান</t>
         </is>
       </c>
       <c r="C516" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৭০</t>
+          <t>১৫২৫৪৪৬৪২৬০৮</t>
         </is>
       </c>
       <c r="D516" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ফেরদৌস</t>
+          <t>ইমাম হোসেন</t>
         </is>
       </c>
       <c r="E516" s="4" t="inlineStr">
         <is>
-          <t>শাহিনা আক্তার</t>
+          <t>মোসলেমা খাতুন</t>
         </is>
       </c>
       <c r="F516" s="3" t="inlineStr">
@@ -22118,39 +22118,39 @@
       </c>
       <c r="G516" s="3" t="inlineStr">
         <is>
-          <t>১০/১০/২০০৫</t>
+          <t>২০/০২/২০০১</t>
         </is>
       </c>
       <c r="H516" s="5" t="inlineStr">
         <is>
-          <t>৭৮৯, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৯১, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="3" t="inlineStr">
         <is>
-          <t>১৪৯২</t>
+          <t>১৪২৫</t>
         </is>
       </c>
       <c r="B517" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ফরিদুল ইসলাম</t>
+          <t>মোহাম্মদ রিগন</t>
         </is>
       </c>
       <c r="C517" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৭৪</t>
+          <t>১৫২৫৪৪০০০৯৭০</t>
         </is>
       </c>
       <c r="D517" s="4" t="inlineStr">
         <is>
-          <t>আবদুল আজিজ</t>
+          <t>মোঃ ফেরদৌস</t>
         </is>
       </c>
       <c r="E517" s="4" t="inlineStr">
         <is>
-          <t>দিলোয়ারা বেগম</t>
+          <t>শাহিনা আক্তার</t>
         </is>
       </c>
       <c r="F517" s="3" t="inlineStr">
@@ -22160,123 +22160,123 @@
       </c>
       <c r="G517" s="3" t="inlineStr">
         <is>
-          <t>০৮/০২/২০০৩</t>
+          <t>১০/১০/২০০৫</t>
         </is>
       </c>
       <c r="H517" s="5" t="inlineStr">
         <is>
-          <t>২১১, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৮৯, চাকফিরানী নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="3" t="inlineStr">
         <is>
-          <t>১৪২৯</t>
+          <t>১৭৫১</t>
         </is>
       </c>
       <c r="B518" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মাহি উদ্দীন</t>
+          <t>মোহাম্মদ ফরহাদ</t>
         </is>
       </c>
       <c r="C518" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৯৭৬</t>
+          <t>১৫২৫৪৪৬৪৩০৩৮</t>
         </is>
       </c>
       <c r="D518" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আসহাব উদ্দীন</t>
+          <t>মুহাম্মদ মোস্তাক</t>
         </is>
       </c>
       <c r="E518" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নুরুল হাসান</t>
+          <t>জুলেহা বেগম</t>
         </is>
       </c>
       <c r="F518" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G518" s="3" t="inlineStr">
         <is>
-          <t>০৯/০২/২০০৫</t>
+          <t>০২/০৬/২০০৮</t>
         </is>
       </c>
       <c r="H518" s="5" t="inlineStr">
         <is>
-          <t>৯৫, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৩১, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="3" t="inlineStr">
         <is>
-          <t>১৭৫১</t>
+          <t>১৬৬৯</t>
         </is>
       </c>
       <c r="B519" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ফরহাদ</t>
+          <t>রবিউল হাসান আকিব</t>
         </is>
       </c>
       <c r="C519" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৩৮</t>
+          <t>১৫২৫৪৪০০১০২১</t>
         </is>
       </c>
       <c r="D519" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ মোস্তাক</t>
+          <t>মোহাম্মদ ইছমাইল</t>
         </is>
       </c>
       <c r="E519" s="4" t="inlineStr">
         <is>
-          <t>জুলেহা বেগম</t>
+          <t>কাহিনুর আক্তার</t>
         </is>
       </c>
       <c r="F519" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G519" s="3" t="inlineStr">
         <is>
-          <t>০২/০৬/২০০৮</t>
+          <t>১০/০৯/২০০৭</t>
         </is>
       </c>
       <c r="H519" s="5" t="inlineStr">
         <is>
-          <t>২৩১, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২০৫, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪</t>
+          <t>১৪২৯</t>
         </is>
       </c>
       <c r="B520" s="4" t="inlineStr">
         <is>
-          <t>মনছুর আলম</t>
+          <t>মোহাম্মদ মাহি উদ্দীন</t>
         </is>
       </c>
       <c r="C520" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৬০৬</t>
+          <t>১৫২৫৪৪০০০৯৭৬</t>
         </is>
       </c>
       <c r="D520" s="4" t="inlineStr">
         <is>
-          <t>আমির আহমেদ</t>
+          <t>মোহাম্মদ আসহাব উদ্দীন</t>
         </is>
       </c>
       <c r="E520" s="4" t="inlineStr">
         <is>
-          <t>কুনসুমা খাতুন</t>
+          <t>মোহাম্মদ নুরুল হাসান</t>
         </is>
       </c>
       <c r="F520" s="3" t="inlineStr">
@@ -22286,39 +22286,39 @@
       </c>
       <c r="G520" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৯০</t>
+          <t>০৯/০২/২০০৫</t>
         </is>
       </c>
       <c r="H520" s="5" t="inlineStr">
         <is>
-          <t>৯৭, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৯৫, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="3" t="inlineStr">
         <is>
-          <t>১৬৬৯</t>
+          <t>১৬৬৩</t>
         </is>
       </c>
       <c r="B521" s="4" t="inlineStr">
         <is>
-          <t>রবিউল হাসান আকিব</t>
+          <t>মোহাম্মদ আকতার জ্জামান</t>
         </is>
       </c>
       <c r="C521" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০১০২১</t>
+          <t>১৫২৫৪৪০০১০১৩</t>
         </is>
       </c>
       <c r="D521" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইছমাইল</t>
+          <t>জয়নাল আবেদীন</t>
         </is>
       </c>
       <c r="E521" s="4" t="inlineStr">
         <is>
-          <t>কাহিনুর আক্তার</t>
+          <t>আরেফা বেগম</t>
         </is>
       </c>
       <c r="F521" s="3" t="inlineStr">
@@ -22328,81 +22328,81 @@
       </c>
       <c r="G521" s="3" t="inlineStr">
         <is>
-          <t>১০/০৯/২০০৭</t>
+          <t>০৯/০৬/২০০৭</t>
         </is>
       </c>
       <c r="H521" s="5" t="inlineStr">
         <is>
-          <t>২০৫, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১৬, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="3" t="inlineStr">
         <is>
-          <t>১৫১২</t>
+          <t>১৫০৯</t>
         </is>
       </c>
       <c r="B522" s="4" t="inlineStr">
         <is>
-          <t>কাইছার উদ্দীন</t>
+          <t>মোহাম্মদ সোহেল উদ্দীন</t>
         </is>
       </c>
       <c r="C522" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৯৪</t>
+          <t>১৫২৫৪৪৬৪২৫৯১</t>
         </is>
       </c>
       <c r="D522" s="4" t="inlineStr">
         <is>
-          <t>হৈদের হোসাইন</t>
+          <t>মৃত আব্দুল রশীদ</t>
         </is>
       </c>
       <c r="E522" s="4" t="inlineStr">
         <is>
-          <t>আয়শা বেগম</t>
+          <t>মনজু আরা বেগম</t>
         </is>
       </c>
       <c r="F522" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G522" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৬/১৯৯৬</t>
+          <t>০৫/০৭/২০০৩</t>
         </is>
       </c>
       <c r="H522" s="5" t="inlineStr">
         <is>
-          <t>৯৬, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৬, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="3" t="inlineStr">
         <is>
-          <t>১৫০৯</t>
+          <t>১৫২৪</t>
         </is>
       </c>
       <c r="B523" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ সোহেল উদ্দীন</t>
+          <t>মনছুর আলম</t>
         </is>
       </c>
       <c r="C523" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৫৯১</t>
+          <t>১৫২৫৪৪৬৪২৬০৬</t>
         </is>
       </c>
       <c r="D523" s="4" t="inlineStr">
         <is>
-          <t>মৃত আব্দুল রশীদ</t>
+          <t>আমির আহমেদ</t>
         </is>
       </c>
       <c r="E523" s="4" t="inlineStr">
         <is>
-          <t>মনজু আরা বেগম</t>
+          <t>কুনসুমা খাতুন</t>
         </is>
       </c>
       <c r="F523" s="3" t="inlineStr">
@@ -22412,54 +22412,54 @@
       </c>
       <c r="G523" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৭/২০০৩</t>
+          <t>১০/০৫/১৯৯০</t>
         </is>
       </c>
       <c r="H523" s="5" t="inlineStr">
         <is>
-          <t>৮৬, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৯৭, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="3" t="inlineStr">
         <is>
-          <t>১৬৬৩</t>
+          <t>১৫১২</t>
         </is>
       </c>
       <c r="B524" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আকতার জ্জামান</t>
+          <t>কাইছার উদ্দীন</t>
         </is>
       </c>
       <c r="C524" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০১০১৩</t>
+          <t>১৫২৫৪৪৬৪২৫৯৪</t>
         </is>
       </c>
       <c r="D524" s="4" t="inlineStr">
         <is>
-          <t>জয়নাল আবেদীন</t>
+          <t>হৈদের হোসাইন</t>
         </is>
       </c>
       <c r="E524" s="4" t="inlineStr">
         <is>
-          <t>আরেফা বেগম</t>
+          <t>আয়শা বেগম</t>
         </is>
       </c>
       <c r="F524" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G524" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৬/২০০৭</t>
+          <t>২৫/০৬/১৯৯৬</t>
         </is>
       </c>
       <c r="H524" s="5" t="inlineStr">
         <is>
-          <t>২১৬, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৯৬, চাকফিরানী নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -23432,27 +23432,27 @@
     <row r="548">
       <c r="A548" s="3" t="inlineStr">
         <is>
-          <t>১৬২৩</t>
+          <t>১৭৬৭</t>
         </is>
       </c>
       <c r="B548" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সুমন</t>
+          <t>মোহাম্মদ মোবারক হোসেন</t>
         </is>
       </c>
       <c r="C548" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৭৫৮</t>
+          <t>১৫২৫৪৪৬৪৩০০৬৬</t>
         </is>
       </c>
       <c r="D548" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আব্দুল হাশেম</t>
+          <t>মোঃ মুহা</t>
         </is>
       </c>
       <c r="E548" s="4" t="inlineStr">
         <is>
-          <t>জামিনা বেগম</t>
+          <t>জেসনা বেগম</t>
         </is>
       </c>
       <c r="F548" s="3" t="inlineStr">
@@ -23462,39 +23462,39 @@
       </c>
       <c r="G548" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/১৯৮৩</t>
+          <t>০১/০৭/১৯৯৮</t>
         </is>
       </c>
       <c r="H548" s="5" t="inlineStr">
         <is>
-          <t>১৫৬, চাকফিরানী, আশ্রয়ন প্রকল্প, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৩৯, চাকফিরানী, আশ্রয়ন প্রকল্প, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="3" t="inlineStr">
         <is>
-          <t>১৭৬৭</t>
+          <t>১৬২৩</t>
         </is>
       </c>
       <c r="B549" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মোবারক হোসেন</t>
+          <t>মোঃ সুমন</t>
         </is>
       </c>
       <c r="C549" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৬৬</t>
+          <t>১৫২৫৪৪০৪২৭৫৮</t>
         </is>
       </c>
       <c r="D549" s="4" t="inlineStr">
         <is>
-          <t>মোঃ মুহা</t>
+          <t>মোঃ আব্দুল হাশেম</t>
         </is>
       </c>
       <c r="E549" s="4" t="inlineStr">
         <is>
-          <t>জেসনা বেগম</t>
+          <t>জামিনা বেগম</t>
         </is>
       </c>
       <c r="F549" s="3" t="inlineStr">
@@ -23504,12 +23504,12 @@
       </c>
       <c r="G549" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/১৯৯৮</t>
+          <t>০১/০৭/১৯৮৩</t>
         </is>
       </c>
       <c r="H549" s="5" t="inlineStr">
         <is>
-          <t>১৩৯, চাকফিরানী, আশ্রয়ন প্রকল্প, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৫৬, চাকফিরানী, আশ্রয়ন প্রকল্প, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -23726,27 +23726,27 @@
     <row r="555">
       <c r="A555" s="3" t="inlineStr">
         <is>
-          <t>১৮০৭</t>
+          <t>১৭৫৭</t>
         </is>
       </c>
       <c r="B555" s="4" t="inlineStr">
         <is>
-          <t>গোলাম মোস্তাফা জিশান</t>
+          <t>হুমায়ন কবির রাসেল</t>
         </is>
       </c>
       <c r="C555" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩১২৩</t>
+          <t>১৫২৫৪৪৬৪৩০৪৪</t>
         </is>
       </c>
       <c r="D555" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ আব্দুল করিম</t>
+          <t>জামাল হুসাইন</t>
         </is>
       </c>
       <c r="E555" s="4" t="inlineStr">
         <is>
-          <t>রুবি আক্তার</t>
+          <t>সকিনা খাতুন</t>
         </is>
       </c>
       <c r="F555" s="3" t="inlineStr">
@@ -23756,12 +23756,12 @@
       </c>
       <c r="G555" s="3" t="inlineStr">
         <is>
-          <t>০২/০২/২০০৮</t>
+          <t>২০/১১/২০০০</t>
         </is>
       </c>
       <c r="H555" s="5" t="inlineStr">
         <is>
-          <t>৫৩, চাকফিরানী, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৪২, চাকফিরানী, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -23793,7 +23793,7 @@
       </c>
       <c r="F556" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৪/০৯/২০০০</t>
         </is>
       </c>
       <c r="G556" s="3" t="inlineStr">
@@ -23810,27 +23810,27 @@
     <row r="557">
       <c r="A557" s="3" t="inlineStr">
         <is>
-          <t>১৭৫৭</t>
+          <t>১৮০৭</t>
         </is>
       </c>
       <c r="B557" s="4" t="inlineStr">
         <is>
-          <t>হুমায়ন কবির রাসেল</t>
+          <t>গোলাম মোস্তাফা জিশান</t>
         </is>
       </c>
       <c r="C557" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৪৪</t>
+          <t>১৫২৫৪৪৬৪৩১২৩</t>
         </is>
       </c>
       <c r="D557" s="4" t="inlineStr">
         <is>
-          <t>জামাল হুসাইন</t>
+          <t>মুহাম্মদ আব্দুল করিম</t>
         </is>
       </c>
       <c r="E557" s="4" t="inlineStr">
         <is>
-          <t>সকিনা খাতুন</t>
+          <t>রুবি আক্তার</t>
         </is>
       </c>
       <c r="F557" s="3" t="inlineStr">
@@ -23840,12 +23840,12 @@
       </c>
       <c r="G557" s="3" t="inlineStr">
         <is>
-          <t>২০/১১/২০০০</t>
+          <t>০২/০২/২০০৮</t>
         </is>
       </c>
       <c r="H557" s="5" t="inlineStr">
         <is>
-          <t>৪২, চাকফিরানী, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৫৩, চাকফিরানী, কালিনগর, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -24818,69 +24818,61 @@
     <row r="581">
       <c r="A581" s="3" t="inlineStr">
         <is>
-          <t>১৬৯৯</t>
+          <t>১৭২১</t>
         </is>
       </c>
       <c r="B581" s="4" t="inlineStr">
         <is>
-          <t>তহিদুল ইসলাম</t>
+          <t>আবু তারেক</t>
         </is>
       </c>
       <c r="C581" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৯৮৬</t>
+          <t>১৫২৫৪৪৬৪৩০০৮</t>
         </is>
       </c>
       <c r="D581" s="4" t="inlineStr">
         <is>
-          <t>মৃত আবদুল ওক্কুর</t>
-        </is>
-      </c>
-      <c r="E581" s="4" t="inlineStr">
-        <is>
-          <t>ছারা খাতুন</t>
-        </is>
-      </c>
-      <c r="F581" s="3" t="inlineStr">
-        <is>
-          <t>বেসরকারী চাকুরী</t>
-        </is>
-      </c>
+          <t>জাহানারা বেগম</t>
+        </is>
+      </c>
+      <c r="E581" s="4" t="inlineStr"/>
+      <c r="F581" s="3" t="inlineStr"/>
       <c r="G581" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৩/২০০৪</t>
+          <t>০৬/০৯/২০০৫</t>
         </is>
       </c>
       <c r="H581" s="5" t="inlineStr">
         <is>
-          <t>২০৭, চাকফিরানী, নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৯০, চাকফিরানী, নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="3" t="inlineStr">
         <is>
-          <t>১৭৫৪</t>
+          <t>১৬৯৯</t>
         </is>
       </c>
       <c r="B582" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হাকিম</t>
+          <t>তহিদুল ইসলাম</t>
         </is>
       </c>
       <c r="C582" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৪১</t>
+          <t>১৫২৫৪৪৬৪২৯৮৬</t>
         </is>
       </c>
       <c r="D582" s="4" t="inlineStr">
         <is>
-          <t>আবু তাহের</t>
+          <t>মৃত আবদুল ওক্কুর</t>
         </is>
       </c>
       <c r="E582" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>ছারা খাতুন</t>
         </is>
       </c>
       <c r="F582" s="3" t="inlineStr">
@@ -24890,123 +24882,123 @@
       </c>
       <c r="G582" s="3" t="inlineStr">
         <is>
-          <t>২০/১০/২০০৬</t>
+          <t>০৮/০৩/২০০৪</t>
         </is>
       </c>
       <c r="H582" s="5" t="inlineStr">
         <is>
-          <t>১৩১, চাকফিরানী, নতুন পাড়া, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২০৭, চাকফিরানী, নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="3" t="inlineStr">
         <is>
-          <t>১৭৬০</t>
+          <t>১৭৫৪</t>
         </is>
       </c>
       <c r="B583" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আবহার</t>
+          <t>আবদুল হাকিম</t>
         </is>
       </c>
       <c r="C583" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৪৭</t>
+          <t>১৫২৫৪৪৬৪৩০৪১</t>
         </is>
       </c>
       <c r="D583" s="4" t="inlineStr">
         <is>
-          <t>আবুল হোসেন</t>
+          <t>আবু তাহের</t>
         </is>
       </c>
       <c r="E583" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ জাহান</t>
+          <t>রেহেনা আক্তার</t>
         </is>
       </c>
       <c r="F583" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G583" s="3" t="inlineStr">
         <is>
-          <t>৩১/১২/১৯৯৮</t>
+          <t>২০/১০/২০০৬</t>
         </is>
       </c>
       <c r="H583" s="5" t="inlineStr">
         <is>
-          <t>২১৪, চাকফিরানী, নতুন পাড়া, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৩১, চাকফিরানী, নতুন পাড়া, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="3" t="inlineStr">
         <is>
-          <t>১৩২৩</t>
+          <t>১৭৬০</t>
         </is>
       </c>
       <c r="B584" s="4" t="inlineStr">
         <is>
-          <t>ছালামত উল্লাহ</t>
+          <t>নুরুল আবহার</t>
         </is>
       </c>
       <c r="C584" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০০০৮৪৪</t>
+          <t>১৫২৫৪৪৬৪৩০৪৭</t>
         </is>
       </c>
       <c r="D584" s="4" t="inlineStr">
         <is>
-          <t>আবদুস সালাম</t>
+          <t>আবুল হোসেন</t>
         </is>
       </c>
       <c r="E584" s="4" t="inlineStr">
         <is>
-          <t>হাছিনা বেগম</t>
+          <t>নুরুজ জাহান</t>
         </is>
       </c>
       <c r="F584" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G584" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৯৯</t>
+          <t>৩১/১২/১৯৯৮</t>
         </is>
       </c>
       <c r="H584" s="5" t="inlineStr">
         <is>
-          <t>১১৩, চাকফিরানী, নতুন পাড়া, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২১৪, চাকফিরানী, নতুন পাড়া, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="3" t="inlineStr">
         <is>
-          <t>১৫৮৭</t>
+          <t>১৩২৩</t>
         </is>
       </c>
       <c r="B585" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ রাকিব</t>
+          <t>ছালামত উল্লাহ</t>
         </is>
       </c>
       <c r="C585" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪২৭২৩</t>
+          <t>১৫২৫৪৪০০০৮৪৪</t>
         </is>
       </c>
       <c r="D585" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মোস্তাক আহমেদ</t>
+          <t>আবদুস সালাম</t>
         </is>
       </c>
       <c r="E585" s="4" t="inlineStr">
         <is>
-          <t>জানু আরা বেগম</t>
+          <t>হাছিনা বেগম</t>
         </is>
       </c>
       <c r="F585" s="3" t="inlineStr">
@@ -25016,39 +25008,39 @@
       </c>
       <c r="G585" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৫/২০০৩</t>
+          <t>১০/০৫/১৯৯৯</t>
         </is>
       </c>
       <c r="H585" s="5" t="inlineStr">
         <is>
-          <t>২৩৪, চাকফিরানী, নতুন পাড়া, ডাকঘর: ভবানীপুর-৪৩৮৬, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১১৩, চাকফিরানী, নতুন পাড়া, চাকফিরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="3" t="inlineStr">
         <is>
-          <t>১৭৫৩</t>
+          <t>১৫৮৭</t>
         </is>
       </c>
       <c r="B586" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ কামাল</t>
+          <t>মোহাম্মদ রাকিব</t>
         </is>
       </c>
       <c r="C586" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০৪০</t>
+          <t>১৫২৫৪৪৬৪২৭২৩</t>
         </is>
       </c>
       <c r="D586" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ শরীফ</t>
+          <t>মোহাম্মদ মোস্তাক আহমেদ</t>
         </is>
       </c>
       <c r="E586" s="4" t="inlineStr">
         <is>
-          <t>সাখারা খাতুন</t>
+          <t>জানু আরা বেগম</t>
         </is>
       </c>
       <c r="F586" s="3" t="inlineStr">
@@ -25058,133 +25050,133 @@
       </c>
       <c r="G586" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/২০০৫</t>
+          <t>০৩/০৫/২০০৩</t>
         </is>
       </c>
       <c r="H586" s="5" t="inlineStr">
         <is>
-          <t>৮৬৮, চাকফিরানী, নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২৩৪, চাকফিরানী, নতুন পাড়া, ডাকঘর: ভবানীপুর-৪৩৮৬, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="3" t="inlineStr">
         <is>
-          <t>১৮১৫</t>
+          <t>১৭৫৩</t>
         </is>
       </c>
       <c r="B587" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মজিদ</t>
+          <t>মোহাম্মদ কামাল</t>
         </is>
       </c>
       <c r="C587" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩১৪১</t>
+          <t>১৫২৫৪৪৬৪৩০৪০</t>
         </is>
       </c>
       <c r="D587" s="4" t="inlineStr">
         <is>
-          <t>মৃত মোহাম্মদ আবদুস হোবান</t>
+          <t>মোহাম্মদ শরীফ</t>
         </is>
       </c>
       <c r="E587" s="4" t="inlineStr">
         <is>
-          <t>মৃত সাহেরা খাতুন</t>
+          <t>সাখারা খাতুন</t>
         </is>
       </c>
       <c r="F587" s="3" t="inlineStr">
         <is>
-          <t>প্রবাসী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G587" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৩/১৯৭২</t>
+          <t>০৫/০১/২০০৫</t>
         </is>
       </c>
       <c r="H587" s="5" t="inlineStr">
         <is>
-          <t>১৯৫, চাকফিরানী, নতুন পাড়া, বড়হাতীয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৬৮, চাকফিরানী, নতুন পাড়া, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="3" t="inlineStr">
         <is>
-          <t>০৪২১</t>
+          <t>১৮১৫</t>
         </is>
       </c>
       <c r="B588" s="4" t="inlineStr">
         <is>
-          <t>জামাল উদ্দীন</t>
+          <t>আবদুল মজিদ</t>
         </is>
       </c>
       <c r="C588" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৫৯</t>
+          <t>১৫২৫৪৪৬৪৩১৪১</t>
         </is>
       </c>
       <c r="D588" s="4" t="inlineStr">
         <is>
-          <t>আবুল কাশেম</t>
+          <t>মৃত মোহাম্মদ আবদুস হোবান</t>
         </is>
       </c>
       <c r="E588" s="4" t="inlineStr">
         <is>
-          <t>হালিমা খাতুন</t>
+          <t>মৃত সাহেরা খাতুন</t>
         </is>
       </c>
       <c r="F588" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>প্রবাসী</t>
         </is>
       </c>
       <c r="G588" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৬/১৯৮২</t>
+          <t>১৫/০৩/১৯৭২</t>
         </is>
       </c>
       <c r="H588" s="5" t="inlineStr">
         <is>
-          <t>চাকফিরানী, নতুন পাড়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>১৯৫, চাকফিরানী, নতুন পাড়া, বড়হাতীয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="3" t="inlineStr">
         <is>
-          <t>০৪৩০</t>
+          <t>০৪২১</t>
         </is>
       </c>
       <c r="B589" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মদ মোস্তাক</t>
+          <t>জামাল উদ্দীন</t>
         </is>
       </c>
       <c r="C589" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৫৭০</t>
+          <t>১৫২৫৪৪৩৫৭৫৫৯</t>
         </is>
       </c>
       <c r="D589" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমদ</t>
+          <t>আবুল কাশেম</t>
         </is>
       </c>
       <c r="E589" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া খাতুন</t>
+          <t>হালিমা খাতুন</t>
         </is>
       </c>
       <c r="F589" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G589" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৩/১৯৬৭</t>
+          <t>০৯/০৬/১৯৮২</t>
         </is>
       </c>
       <c r="H589" s="5" t="inlineStr">
@@ -25196,37 +25188,37 @@
     <row r="590">
       <c r="A590" s="3" t="inlineStr">
         <is>
-          <t>০৩৮০</t>
+          <t>০৪৩০</t>
         </is>
       </c>
       <c r="B590" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইব্রাহিম</t>
+          <t>মুহাম্মদ মোস্তাক</t>
         </is>
       </c>
       <c r="C590" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৩৫৭৪৮২৯</t>
+          <t>১৫২৫৪৪৩৫৭৫৭০</t>
         </is>
       </c>
       <c r="D590" s="4" t="inlineStr">
         <is>
-          <t>আলী আহমদ</t>
+          <t>কবির আহমদ</t>
         </is>
       </c>
       <c r="E590" s="4" t="inlineStr">
         <is>
-          <t>হাজেরা খাতুন</t>
+          <t>রাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F590" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>কৃষক</t>
         </is>
       </c>
       <c r="G590" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৬/১৯৮৩</t>
+          <t>০৪/০৩/১৯৬৭</t>
         </is>
       </c>
       <c r="H590" s="5" t="inlineStr">
@@ -25238,42 +25230,42 @@
     <row r="591">
       <c r="A591" s="3" t="inlineStr">
         <is>
-          <t>১৬৮৩</t>
+          <t>০৩৮০</t>
         </is>
       </c>
       <c r="B591" s="4" t="inlineStr">
         <is>
-          <t>মোঃ হানিফ</t>
+          <t>মোহাম্মদ ইব্রাহিম</t>
         </is>
       </c>
       <c r="C591" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৯৭০</t>
+          <t>১৫২৫৪৪৩৫৭৪৮২৯</t>
         </is>
       </c>
       <c r="D591" s="4" t="inlineStr">
         <is>
-          <t>বদিউজ্জামান</t>
+          <t>আলী আহমদ</t>
         </is>
       </c>
       <c r="E591" s="4" t="inlineStr">
         <is>
-          <t>নুর আয়শা বেগম</t>
+          <t>হাজেরা খাতুন</t>
         </is>
       </c>
       <c r="F591" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>শ্রমিক</t>
         </is>
       </c>
       <c r="G591" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৫/২০০৫</t>
+          <t>০৮/০৬/১৯৮৩</t>
         </is>
       </c>
       <c r="H591" s="5" t="inlineStr">
         <is>
-          <t>৮৯, চাকফিরানী, নতুন পাড়া,, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>চাকফিরানী, নতুন পাড়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -25322,27 +25314,27 @@
     <row r="593">
       <c r="A593" s="3" t="inlineStr">
         <is>
-          <t>১৬৮৬</t>
+          <t>১৬৮৩</t>
         </is>
       </c>
       <c r="B593" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জায়েদ</t>
+          <t>মোঃ হানিফ</t>
         </is>
       </c>
       <c r="C593" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৯৭৩</t>
+          <t>১৫২৫৪৪০৪২৯৭০</t>
         </is>
       </c>
       <c r="D593" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হাবুল</t>
+          <t>বদিউজ্জামান</t>
         </is>
       </c>
       <c r="E593" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম</t>
+          <t>নুর আয়শা বেগম</t>
         </is>
       </c>
       <c r="F593" s="3" t="inlineStr">
@@ -25352,96 +25344,96 @@
       </c>
       <c r="G593" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০৭</t>
+          <t>০৮/০৫/২০০৫</t>
         </is>
       </c>
       <c r="H593" s="5" t="inlineStr">
         <is>
-          <t>৭৪, চাকফিরানী, নতুন পাড়া,, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৮৯, চাকফিরানী, নতুন পাড়া,, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="3" t="inlineStr">
         <is>
-          <t>১৬৮৫</t>
+          <t>১৬৮৬</t>
         </is>
       </c>
       <c r="B594" s="4" t="inlineStr">
         <is>
-          <t>আরিফুল ইসলাম</t>
+          <t>মোহাম্মদ জায়েদ</t>
         </is>
       </c>
       <c r="C594" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪০৪২৯৭২</t>
+          <t>১৫২৫৪৪০৪২৯৭৩</t>
         </is>
       </c>
       <c r="D594" s="4" t="inlineStr">
         <is>
-          <t>আবুল খাইর</t>
+          <t>মোহাম্মদ হাবুল</t>
         </is>
       </c>
       <c r="E594" s="4" t="inlineStr">
         <is>
-          <t>ছাবেরা খাতুন</t>
+          <t>আমেনা বেগম</t>
         </is>
       </c>
       <c r="F594" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G594" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৪/২০০০</t>
+          <t>০১/০১/২০০৭</t>
         </is>
       </c>
       <c r="H594" s="5" t="inlineStr">
         <is>
-          <t>২০৩, চাকফিরানী, নতুন পাড়া,, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>৭৪, চাকফিরানী, নতুন পাড়া,, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="3" t="inlineStr">
         <is>
-          <t>১৭২১</t>
+          <t>১৬৮৫</t>
         </is>
       </c>
       <c r="B595" s="4" t="inlineStr">
         <is>
-          <t>আবু তারেক</t>
+          <t>আরিফুল ইসলাম</t>
         </is>
       </c>
       <c r="C595" s="3" t="inlineStr">
         <is>
-          <t>১৫২৫৪৪৬৪৩০০৮</t>
+          <t>১৫২৫৪৪০৪২৯৭২</t>
         </is>
       </c>
       <c r="D595" s="4" t="inlineStr">
         <is>
-          <t>জামাল উদ্দীন</t>
+          <t>আবুল খাইর</t>
         </is>
       </c>
       <c r="E595" s="4" t="inlineStr">
         <is>
-          <t>জাহানারা বেগম</t>
+          <t>ছাবেরা খাতুন</t>
         </is>
       </c>
       <c r="F595" s="3" t="inlineStr">
         <is>
-          <t>শ্রমিক</t>
+          <t>ব্যবসা</t>
         </is>
       </c>
       <c r="G595" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৯/২০০৫</t>
+          <t>০৩/০৪/২০০০</t>
         </is>
       </c>
       <c r="H595" s="5" t="inlineStr">
         <is>
-          <t>৭৯০, চাকফিরানী, নতুন পাড়া, চক ফেরানী, লোহাগাড়া, চট্টগ্রাম</t>
+          <t>২০৩, চাকফিরানী, নতুন পাড়া,, বড়হাতিয়া, লোহাগাড়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -25515,7 +25507,7 @@
       </c>
       <c r="F597" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৬/০২/২০০১</t>
         </is>
       </c>
       <c r="G597" s="3" t="inlineStr">
@@ -29463,7 +29455,7 @@
       </c>
       <c r="F691" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ২০/০৭/১৯৯৭</t>
         </is>
       </c>
       <c r="G691" s="3" t="inlineStr">
@@ -30513,7 +30505,7 @@
       </c>
       <c r="F716" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১৫/০২/২০০১</t>
         </is>
       </c>
       <c r="G716" s="3" t="inlineStr">
@@ -48763,7 +48755,7 @@
       </c>
       <c r="B1151" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> শাহ আলম</t>
+          <t>শাহ আলম</t>
         </is>
       </c>
       <c r="C1151" s="3" t="inlineStr">
@@ -50421,7 +50413,7 @@
       </c>
       <c r="F1190" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০১/০৭/১৯৯৭</t>
         </is>
       </c>
       <c r="G1190" s="3" t="inlineStr">
@@ -50589,7 +50581,7 @@
       </c>
       <c r="F1194" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১০/০৬/১৯৯৮</t>
         </is>
       </c>
       <c r="G1194" s="3" t="inlineStr">
@@ -52017,7 +52009,7 @@
       </c>
       <c r="F1228" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০৫/১০/১৯৯০</t>
         </is>
       </c>
       <c r="G1228" s="3" t="inlineStr">
@@ -52059,7 +52051,7 @@
       </c>
       <c r="F1229" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১০/০৩/২০০৩</t>
         </is>
       </c>
       <c r="G1229" s="3" t="inlineStr">
@@ -52185,7 +52177,7 @@
       </c>
       <c r="F1232" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ১৫/০৮/২০০১</t>
         </is>
       </c>
       <c r="G1232" s="3" t="inlineStr">
@@ -58905,7 +58897,7 @@
       </c>
       <c r="F1392" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>ছাত্র/ছাত্রী/জন্ম তারিখ: ১৫/০৯/২০০৩</t>
         </is>
       </c>
       <c r="G1392" s="3" t="inlineStr">
@@ -63819,7 +63811,7 @@
       </c>
       <c r="F1509" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী/জন্ম তারিখ: ০২/০১/১৯৯৪</t>
         </is>
       </c>
       <c r="G1509" s="3" t="inlineStr">
@@ -71883,7 +71875,7 @@
       </c>
       <c r="F1701" s="3" t="inlineStr">
         <is>
-          <t>ব্যবসা</t>
+          <t>ব্যবসা/জন্ম তারিখ: ১০/০২/১৯৭৪</t>
         </is>
       </c>
       <c r="G1701" s="3" t="inlineStr">
